--- a/vma_nginx_automation_results_template.xlsx
+++ b/vma_nginx_automation_results_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\simonra\tools\nginx\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CB61DD-BBC0-4A6C-B8F6-7CBA11492869}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58CFED-86B4-4052-AAA1-0EC0969A0F87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDEA9967-368D-4D1E-9A91-3E5AE540AC71}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CDEA9967-368D-4D1E-9A91-3E5AE540AC71}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel vs VMA" sheetId="3" r:id="rId1"/>
@@ -86,9 +86,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -901,10 +900,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="16" borderId="20" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,6 +945,10 @@
     <xf numFmtId="2" fontId="16" fillId="32" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -998,6 +997,238 @@
   </cellStyles>
   <dxfs count="72">
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1163,10 +1394,10 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1176,37 +1407,28 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+      <border>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1424,6 +1646,31 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1545,66 +1792,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1629,56 +1816,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1890,40 +2027,6 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -2129,40 +2232,6 @@
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -2322,66 +2391,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2469,24 +2478,24 @@
   <autoFilter ref="A4:I84" xr:uid="{467C5C3E-61C6-41CD-B8E5-AD42EEC4E543}"/>
   <tableColumns count="9">
     <tableColumn id="10" xr3:uid="{FF0EEBD1-C25C-474D-A0B9-7A444B7EF30E}" name="Workers" dataDxfId="66" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{0871BA71-6922-4136-A6E8-FFE3136F10C6}" name="File" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{BBDDC5AC-4F84-4339-8B1B-390FD0E02129}" name="Connections" dataDxfId="64" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{321649AB-4843-42F9-9B4F-0AAE9968CBEE}" name="Throughput[Gbps]" dataDxfId="63" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{0871BA71-6922-4136-A6E8-FFE3136F10C6}" name="File" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{BBDDC5AC-4F84-4339-8B1B-390FD0E02129}" name="Connections" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{321649AB-4843-42F9-9B4F-0AAE9968CBEE}" name="Throughput[Gbps]" dataDxfId="65" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AB9D4CA1-2DAD-4F3B-BEE8-A5D23F1F0AB0}" name="Requests[RPS]" dataDxfId="62" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{AB9D4CA1-2DAD-4F3B-BEE8-A5D23F1F0AB0}" name="Requests[RPS]" dataDxfId="64" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table142[[#This Row],[Requests'[RPS']]]-Table14[[#This Row],[Requests'[RPS']]])/Table14[[#This Row],[Requests'[RPS']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4BB1A59F-B3DF-46B3-B292-DBBBAFD82688}" name="Concurrent Connections" dataDxfId="61" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{4BB1A59F-B3DF-46B3-B292-DBBBAFD82688}" name="Concurrent Connections" dataDxfId="63" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table142[[#This Row],[Concurrent Connections]]-Table14[[#This Row],[Concurrent Connections]])/Table14[[#This Row],[Concurrent Connections]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{61DCF569-DB4D-4E9B-9677-2F5EB0DE5C08}" name="CPU[%]" dataDxfId="60" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{61DCF569-DB4D-4E9B-9677-2F5EB0DE5C08}" name="CPU[%]" dataDxfId="62" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table14[[#This Row],[CPU'[%']]]-Table142[[#This Row],[CPU'[%']]])/Table142[[#This Row],[CPU'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9243F50B-1F91-4172-BA16-F1952802B1D8}" name="CPU/Gbps[%]" dataDxfId="59" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{9243F50B-1F91-4172-BA16-F1952802B1D8}" name="CPU/Gbps[%]" dataDxfId="61" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table14[[#This Row],[CPU/Gbps'[%']]]-Table142[[#This Row],[CPU/Gbps'[%']]])/Table142[[#This Row],[CPU/Gbps'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BEC83FEF-7D4D-438A-958A-12DEF9E768D2}" name="CPU/RPS[%]" dataDxfId="58" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{BEC83FEF-7D4D-438A-958A-12DEF9E768D2}" name="CPU/RPS[%]" dataDxfId="60" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table14[[#This Row],[CPU/RPS'[%']]]-Table142[[#This Row],[CPU/RPS'[%']]])/Table142[[#This Row],[CPU/RPS'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2495,64 +2504,64 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00E5F1BF-9231-4A78-B37E-CD3D6AD8A5F4}" name="Table14" displayName="Table14" ref="K4:S84" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00E5F1BF-9231-4A78-B37E-CD3D6AD8A5F4}" name="Table14" displayName="Table14" ref="K4:S84" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" dataCellStyle="Comma">
   <autoFilter ref="K4:S84" xr:uid="{85E040C1-2D37-4DD6-B0B5-D74C84FDDCD6}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{6B3BB97F-40AA-44CB-AD0B-C0DD12DF754B}" name="Workers" dataDxfId="55" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{3A596707-B87F-46D8-B9B5-783E4B2F6CE2}" name="File" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{73672578-8553-40F0-BF73-FC7BBFFEB165}" name="Connections" dataDxfId="53" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{4065B148-1A23-4582-BFC1-1C2A2490F29B}" name="Throughput[Gbps]" dataDxfId="52" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E82AD12B-9E7B-4E80-B07C-8CFB05246641}" name="Requests[RPS]" dataDxfId="51" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{A434918F-9200-4557-A610-595D7507FFE5}" name="Concurrent Connections" dataDxfId="50" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{42F03FC7-3863-403E-A089-34FCD5AFF133}" name="CPU[%]" dataDxfId="49" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EE4DB8FD-6749-443F-89E8-7D8DDF4932FD}" name="CPU/Gbps[%]" dataDxfId="48" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{AAC6443F-0D66-4D7A-907B-532B0E798815}" name="CPU/RPS[%]" dataDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{6B3BB97F-40AA-44CB-AD0B-C0DD12DF754B}" name="Workers" dataDxfId="57" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{3A596707-B87F-46D8-B9B5-783E4B2F6CE2}" name="File" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{73672578-8553-40F0-BF73-FC7BBFFEB165}" name="Connections" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{4065B148-1A23-4582-BFC1-1C2A2490F29B}" name="Throughput[Gbps]" dataDxfId="56" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E82AD12B-9E7B-4E80-B07C-8CFB05246641}" name="Requests[RPS]" dataDxfId="55" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{A434918F-9200-4557-A610-595D7507FFE5}" name="Concurrent Connections" dataDxfId="54" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{42F03FC7-3863-403E-A089-34FCD5AFF133}" name="CPU[%]" dataDxfId="53" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EE4DB8FD-6749-443F-89E8-7D8DDF4932FD}" name="CPU/Gbps[%]" dataDxfId="52" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{AAC6443F-0D66-4D7A-907B-532B0E798815}" name="CPU/RPS[%]" dataDxfId="51" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08B975D-68F1-46DC-8849-9E415DA88B79}" name="Table142" displayName="Table142" ref="U4:AC84" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08B975D-68F1-46DC-8849-9E415DA88B79}" name="Table142" displayName="Table142" ref="U4:AC84" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" dataCellStyle="Comma">
   <autoFilter ref="U4:AC84" xr:uid="{53F3EF40-0473-4CEF-A2FA-A5326FE07A42}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{9EF84575-8C30-4A98-BF1B-7A58772C4BD5}" name="Workers" dataDxfId="44" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{ED1BA587-7608-492A-9AE3-D19FE7AAE74B}" name="File" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{C60166A3-6895-4FBF-8261-54302FEF2B4E}" name="Connections" dataDxfId="42" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{6FA8BDE0-18A8-48D4-AE80-1CDC5CA2C8BB}" name="Throughput[Gbps]" dataDxfId="41" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C195FAB3-A7AB-4BFA-802D-3FC3AB5DEB87}" name="Requests[RPS]" dataDxfId="40" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{43C14FD6-1EC3-42F2-81F0-2E39FA50C799}" name="Concurrent Connections" dataDxfId="39" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{B37B812D-6B2B-47AD-9748-D079D5F39C8C}" name="CPU[%]" dataDxfId="38" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{94A6B269-EAD9-4D6A-8ABC-656D7CB3AE13}" name="CPU/Gbps[%]" dataDxfId="37" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{68BE4986-129A-4C04-803F-4FB8E1A369C7}" name="CPU/RPS[%]" dataDxfId="36" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{9EF84575-8C30-4A98-BF1B-7A58772C4BD5}" name="Workers" dataDxfId="48" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{ED1BA587-7608-492A-9AE3-D19FE7AAE74B}" name="File" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C60166A3-6895-4FBF-8261-54302FEF2B4E}" name="Connections" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{6FA8BDE0-18A8-48D4-AE80-1CDC5CA2C8BB}" name="Throughput[Gbps]" dataDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C195FAB3-A7AB-4BFA-802D-3FC3AB5DEB87}" name="Requests[RPS]" dataDxfId="46" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{43C14FD6-1EC3-42F2-81F0-2E39FA50C799}" name="Concurrent Connections" dataDxfId="45" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{B37B812D-6B2B-47AD-9748-D079D5F39C8C}" name="CPU[%]" dataDxfId="44" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{94A6B269-EAD9-4D6A-8ABC-656D7CB3AE13}" name="CPU/Gbps[%]" dataDxfId="43" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{68BE4986-129A-4C04-803F-4FB8E1A369C7}" name="CPU/RPS[%]" dataDxfId="42" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70981190-D163-4B4F-9E92-3E805D5C00BB}" name="Table1463" displayName="Table1463" ref="A4:I84" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70981190-D163-4B4F-9E92-3E805D5C00BB}" name="Table1463" displayName="Table1463" ref="A4:I84" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38">
   <autoFilter ref="A4:I84" xr:uid="{8B88463D-CFD0-49B0-90B0-05DAC137F60C}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{4FF9EDDA-3833-447D-A388-8F5B2C02E64E}" name="Workers" dataDxfId="26" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{6945879B-635B-4AE8-872A-D16862F6ED66}" name="File" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{549EBCCB-02D2-4251-9EAF-DDCA724E592B}" name="Connections" dataDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{AB4A660D-4D7F-4789-9008-A56BFD1F325D}" name="Throughput[Gbps]" dataDxfId="23" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4FF9EDDA-3833-447D-A388-8F5B2C02E64E}" name="Workers" dataDxfId="36" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6945879B-635B-4AE8-872A-D16862F6ED66}" name="File" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{549EBCCB-02D2-4251-9EAF-DDCA724E592B}" name="Connections" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{AB4A660D-4D7F-4789-9008-A56BFD1F325D}" name="Throughput[Gbps]" dataDxfId="35" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1CA2B4E2-B42F-41F5-B642-44443AB5CE89}" name="Requests[RPS]" dataDxfId="22" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{1CA2B4E2-B42F-41F5-B642-44443AB5CE89}" name="Requests[RPS]" dataDxfId="34" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Requests'[RPS']]]-Table145[[#This Row],[Requests'[RPS']]])/Table145[[#This Row],[Requests'[RPS']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{171EC064-96E0-4591-A352-15EEF3A5673A}" name="Concurrent Connections" dataDxfId="21" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{171EC064-96E0-4591-A352-15EEF3A5673A}" name="Concurrent Connections" dataDxfId="33" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Concurrent Connections]]-Table145[[#This Row],[Concurrent Connections]])/Table145[[#This Row],[Concurrent Connections]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9ABC272A-2D9E-42B0-843C-DD4944E31125}" name="CPU[%]" dataDxfId="20" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{9ABC272A-2D9E-42B0-843C-DD4944E31125}" name="CPU[%]" dataDxfId="32" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU'[%']]]-Table1427[[#This Row],[CPU'[%']]])/Table1427[[#This Row],[CPU'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1B3C2736-9CAE-4B7A-9456-A8FED3C20D50}" name="CPU/Gbps[%]" dataDxfId="19" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{1B3C2736-9CAE-4B7A-9456-A8FED3C20D50}" name="CPU/Gbps[%]" dataDxfId="31" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU/Gbps'[%']]]-Table1427[[#This Row],[CPU/Gbps'[%']]])/Table1427[[#This Row],[CPU/Gbps'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{829EE037-91D9-490D-BBC7-D513D8B14DCD}" name="CPU/RPS[%]" dataDxfId="18" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{829EE037-91D9-490D-BBC7-D513D8B14DCD}" name="CPU/RPS[%]" dataDxfId="30" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU/RPS'[%']]]-Table1427[[#This Row],[CPU/RPS'[%']]])/Table1427[[#This Row],[CPU/RPS'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2561,36 +2570,36 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8A02F56A-6D8C-414F-9385-10EDB5B8101F}" name="Table145" displayName="Table145" ref="K4:S84" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8A02F56A-6D8C-414F-9385-10EDB5B8101F}" name="Table145" displayName="Table145" ref="K4:S84" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" dataCellStyle="Comma">
   <autoFilter ref="K4:S84" xr:uid="{19944A0A-D5AB-4E11-81FF-07640B56A977}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{D0DBD1F2-CCA8-49C8-A600-A9895569C505}" name="Workers" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{67BB9A8E-1B91-46CD-AE14-400C746449BE}" name="File" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{A739C08D-0028-4CAB-B842-E86E010843E7}" name="Connections" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{22750044-C840-4268-B3BD-7F75A98E905F}" name="Throughput[Gbps]" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{7C3861D2-92DE-496D-85B2-FD3833D2CB94}" name="Requests[RPS]" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{C866B3EF-EF3F-47CF-8386-AFCEF8A0C629}" name="Concurrent Connections" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{56C2689B-3CD7-4E32-A192-416CE5E34014}" name="CPU[%]" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{8BB7062E-D1F6-42A2-8024-837EE69180DB}" name="CPU/Gbps[%]" dataDxfId="10" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{79CC2B33-AC5E-4193-8BDE-8E890D75E630}" name="CPU/RPS[%]" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{D0DBD1F2-CCA8-49C8-A600-A9895569C505}" name="Workers" dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{67BB9A8E-1B91-46CD-AE14-400C746449BE}" name="File" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{A739C08D-0028-4CAB-B842-E86E010843E7}" name="Connections" dataDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{22750044-C840-4268-B3BD-7F75A98E905F}" name="Throughput[Gbps]" dataDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7C3861D2-92DE-496D-85B2-FD3833D2CB94}" name="Requests[RPS]" dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{C866B3EF-EF3F-47CF-8386-AFCEF8A0C629}" name="Concurrent Connections" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{56C2689B-3CD7-4E32-A192-416CE5E34014}" name="CPU[%]" dataDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{8BB7062E-D1F6-42A2-8024-837EE69180DB}" name="CPU/Gbps[%]" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{79CC2B33-AC5E-4193-8BDE-8E890D75E630}" name="CPU/RPS[%]" dataDxfId="19" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA5EF2A2-C615-48AE-801B-E895375B7A2D}" name="Table1427" displayName="Table1427" ref="U4:AC84" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA5EF2A2-C615-48AE-801B-E895375B7A2D}" name="Table1427" displayName="Table1427" ref="U4:AC84" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" dataCellStyle="Comma">
   <autoFilter ref="U4:AC84" xr:uid="{2A4D145D-3E80-49EC-9E1A-C20755337594}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{C07B5643-19BC-4EBC-A48B-061E2B4E38C9}" name="Workers" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{BC7C6989-0264-48A1-87F9-9A55BB734236}" name="File" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D5D128D0-4D78-43DD-8B47-56DE53D51713}" name="Connections" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{F9A4C812-3A1A-45E3-ACA4-A43538A4F909}" name="Throughput[Gbps]" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{FB323939-DB72-42A5-AFFB-2CFCEA95AEBE}" name="Requests[RPS]" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FB4237C5-C15C-4B5E-B1BA-2E100898828A}" name="Concurrent Connections" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{73CC4A3D-8EB2-40E7-8617-B78294EA9BE5}" name="CPU[%]" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EEA3B39F-C51C-4813-8B07-C14F79C77DD0}" name="CPU/Gbps[%]" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{86C0766C-525A-43A1-B3D6-D7C7A60B94AF}" name="CPU/RPS[%]" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{C07B5643-19BC-4EBC-A48B-061E2B4E38C9}" name="Workers" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{BC7C6989-0264-48A1-87F9-9A55BB734236}" name="File" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D5D128D0-4D78-43DD-8B47-56DE53D51713}" name="Connections" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{F9A4C812-3A1A-45E3-ACA4-A43538A4F909}" name="Throughput[Gbps]" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{FB323939-DB72-42A5-AFFB-2CFCEA95AEBE}" name="Requests[RPS]" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FB4237C5-C15C-4B5E-B1BA-2E100898828A}" name="Concurrent Connections" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{73CC4A3D-8EB2-40E7-8617-B78294EA9BE5}" name="CPU[%]" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EEA3B39F-C51C-4813-8B07-C14F79C77DD0}" name="CPU/Gbps[%]" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{86C0766C-525A-43A1-B3D6-D7C7A60B94AF}" name="CPU/RPS[%]" dataDxfId="10" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2895,8 +2904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB86FFA-E82D-4EB3-B86A-EF8BD2E99E06}">
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="U66" sqref="U66:AC84"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="W5" activeCellId="2" sqref="C5:C84 M5:M84 W5:W84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2935,80 +2944,80 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="K2" s="37" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="K2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="U2" s="37" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="35"/>
+      <c r="U2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="39"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="35"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="K3" s="48" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="K3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="50"/>
-      <c r="U3" s="48" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="46"/>
+      <c r="U3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="49"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="40" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="42"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -3096,7 +3105,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="33"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="18" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3123,7 +3132,7 @@
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="35"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="13"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
@@ -3132,7 +3141,7 @@
       <c r="S5" s="28"/>
       <c r="U5" s="31"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="35"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
@@ -3143,7 +3152,7 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="34"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3170,7 +3179,7 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="36"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="10"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -3179,7 +3188,7 @@
       <c r="S6" s="11"/>
       <c r="U6" s="32"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="36"/>
+      <c r="W6" s="51"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -3190,7 +3199,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="34"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3217,7 +3226,7 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="36"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="10"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -3226,7 +3235,7 @@
       <c r="S7" s="11"/>
       <c r="U7" s="32"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="36"/>
+      <c r="W7" s="51"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
@@ -3237,7 +3246,7 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="34"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3264,7 +3273,7 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="36"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="10"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -3273,7 +3282,7 @@
       <c r="S8" s="11"/>
       <c r="U8" s="32"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="36"/>
+      <c r="W8" s="51"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -3284,7 +3293,7 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3311,7 +3320,7 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="36"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="10"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -3320,7 +3329,7 @@
       <c r="S9" s="11"/>
       <c r="U9" s="32"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="36"/>
+      <c r="W9" s="51"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
@@ -3331,7 +3340,7 @@
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3358,7 +3367,7 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="36"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="10"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -3367,7 +3376,7 @@
       <c r="S10" s="11"/>
       <c r="U10" s="32"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="36"/>
+      <c r="W10" s="51"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -3378,7 +3387,7 @@
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="34"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3405,7 +3414,7 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="36"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="10"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -3414,7 +3423,7 @@
       <c r="S11" s="11"/>
       <c r="U11" s="32"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="36"/>
+      <c r="W11" s="51"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
@@ -3425,7 +3434,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3452,7 +3461,7 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="36"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="10"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -3461,7 +3470,7 @@
       <c r="S12" s="11"/>
       <c r="U12" s="32"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="36"/>
+      <c r="W12" s="51"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -3472,7 +3481,7 @@
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3499,7 +3508,7 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="10"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -3508,7 +3517,7 @@
       <c r="S13" s="11"/>
       <c r="U13" s="32"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="36"/>
+      <c r="W13" s="51"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -3519,7 +3528,7 @@
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3546,7 +3555,7 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="36"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="10"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -3555,7 +3564,7 @@
       <c r="S14" s="11"/>
       <c r="U14" s="32"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="36"/>
+      <c r="W14" s="51"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -3566,7 +3575,7 @@
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3593,7 +3602,7 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="36"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="7"/>
       <c r="O15" s="3"/>
       <c r="P15" s="6"/>
@@ -3602,7 +3611,7 @@
       <c r="S15" s="8"/>
       <c r="U15" s="32"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="36"/>
+      <c r="W15" s="51"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -3613,7 +3622,7 @@
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3640,7 +3649,7 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="36"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="7"/>
       <c r="O16" s="3"/>
       <c r="P16" s="6"/>
@@ -3649,7 +3658,7 @@
       <c r="S16" s="8"/>
       <c r="U16" s="32"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="36"/>
+      <c r="W16" s="51"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -3660,7 +3669,7 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3687,7 +3696,7 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="36"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="7"/>
       <c r="O17" s="3"/>
       <c r="P17" s="6"/>
@@ -3696,7 +3705,7 @@
       <c r="S17" s="8"/>
       <c r="U17" s="32"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="36"/>
+      <c r="W17" s="51"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -3707,7 +3716,7 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3734,7 +3743,7 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="7"/>
       <c r="O18" s="3"/>
       <c r="P18" s="6"/>
@@ -3743,7 +3752,7 @@
       <c r="S18" s="8"/>
       <c r="U18" s="32"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="36"/>
+      <c r="W18" s="51"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -3754,7 +3763,7 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3781,7 +3790,7 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="36"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="7"/>
       <c r="O19" s="3"/>
       <c r="P19" s="6"/>
@@ -3790,7 +3799,7 @@
       <c r="S19" s="8"/>
       <c r="U19" s="32"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="36"/>
+      <c r="W19" s="51"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -3801,7 +3810,7 @@
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3828,7 +3837,7 @@
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="36"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="7"/>
       <c r="O20" s="3"/>
       <c r="P20" s="6"/>
@@ -3837,7 +3846,7 @@
       <c r="S20" s="8"/>
       <c r="U20" s="32"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="36"/>
+      <c r="W20" s="51"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -3848,7 +3857,7 @@
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3875,7 +3884,7 @@
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="7"/>
       <c r="O21" s="3"/>
       <c r="P21" s="6"/>
@@ -3884,7 +3893,7 @@
       <c r="S21" s="8"/>
       <c r="U21" s="32"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="36"/>
+      <c r="W21" s="51"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -3895,7 +3904,7 @@
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3922,7 +3931,7 @@
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="36"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="7"/>
       <c r="O22" s="3"/>
       <c r="P22" s="6"/>
@@ -3931,7 +3940,7 @@
       <c r="S22" s="8"/>
       <c r="U22" s="32"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="36"/>
+      <c r="W22" s="51"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -3942,7 +3951,7 @@
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3969,7 +3978,7 @@
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="36"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="7"/>
       <c r="O23" s="3"/>
       <c r="P23" s="6"/>
@@ -3978,7 +3987,7 @@
       <c r="S23" s="8"/>
       <c r="U23" s="32"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="36"/>
+      <c r="W23" s="51"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -3989,7 +3998,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4016,7 +4025,7 @@
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="36"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="7"/>
       <c r="O24" s="3"/>
       <c r="P24" s="6"/>
@@ -4025,7 +4034,7 @@
       <c r="S24" s="8"/>
       <c r="U24" s="32"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="36"/>
+      <c r="W24" s="51"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -4036,7 +4045,7 @@
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4063,7 +4072,7 @@
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="36"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="7"/>
       <c r="O25" s="3"/>
       <c r="P25" s="6"/>
@@ -4072,7 +4081,7 @@
       <c r="S25" s="8"/>
       <c r="U25" s="32"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="36"/>
+      <c r="W25" s="51"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -4083,7 +4092,7 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4110,7 +4119,7 @@
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="36"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="7"/>
       <c r="O26" s="3"/>
       <c r="P26" s="6"/>
@@ -4119,7 +4128,7 @@
       <c r="S26" s="8"/>
       <c r="U26" s="32"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="36"/>
+      <c r="W26" s="51"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -4130,7 +4139,7 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4157,7 +4166,7 @@
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="36"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="7"/>
       <c r="O27" s="3"/>
       <c r="P27" s="6"/>
@@ -4166,7 +4175,7 @@
       <c r="S27" s="8"/>
       <c r="U27" s="32"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="36"/>
+      <c r="W27" s="51"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -4177,7 +4186,7 @@
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4204,7 +4213,7 @@
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="36"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="7"/>
       <c r="O28" s="3"/>
       <c r="P28" s="6"/>
@@ -4213,7 +4222,7 @@
       <c r="S28" s="8"/>
       <c r="U28" s="32"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="36"/>
+      <c r="W28" s="51"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
@@ -4224,7 +4233,7 @@
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4251,7 +4260,7 @@
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="36"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="7"/>
       <c r="O29" s="3"/>
       <c r="P29" s="6"/>
@@ -4260,7 +4269,7 @@
       <c r="S29" s="8"/>
       <c r="U29" s="32"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="36"/>
+      <c r="W29" s="51"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
@@ -4271,7 +4280,7 @@
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4298,7 +4307,7 @@
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="36"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="7"/>
       <c r="O30" s="3"/>
       <c r="P30" s="6"/>
@@ -4307,7 +4316,7 @@
       <c r="S30" s="8"/>
       <c r="U30" s="32"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="36"/>
+      <c r="W30" s="51"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
@@ -4318,7 +4327,7 @@
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4345,7 +4354,7 @@
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="36"/>
+      <c r="M31" s="51"/>
       <c r="N31" s="7"/>
       <c r="O31" s="3"/>
       <c r="P31" s="6"/>
@@ -4354,7 +4363,7 @@
       <c r="S31" s="8"/>
       <c r="U31" s="32"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="36"/>
+      <c r="W31" s="51"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
@@ -4365,7 +4374,7 @@
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4392,7 +4401,7 @@
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="36"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="7"/>
       <c r="O32" s="3"/>
       <c r="P32" s="6"/>
@@ -4401,7 +4410,7 @@
       <c r="S32" s="8"/>
       <c r="U32" s="32"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="36"/>
+      <c r="W32" s="51"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -4412,7 +4421,7 @@
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4439,7 +4448,7 @@
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="36"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="7"/>
       <c r="O33" s="3"/>
       <c r="P33" s="6"/>
@@ -4448,7 +4457,7 @@
       <c r="S33" s="8"/>
       <c r="U33" s="32"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="36"/>
+      <c r="W33" s="51"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -4459,7 +4468,7 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4486,7 +4495,7 @@
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="36"/>
+      <c r="M34" s="51"/>
       <c r="N34" s="7"/>
       <c r="O34" s="3"/>
       <c r="P34" s="6"/>
@@ -4495,7 +4504,7 @@
       <c r="S34" s="8"/>
       <c r="U34" s="32"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="36"/>
+      <c r="W34" s="51"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -4506,7 +4515,7 @@
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4533,7 +4542,7 @@
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="36"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="7"/>
       <c r="O35" s="3"/>
       <c r="P35" s="6"/>
@@ -4542,7 +4551,7 @@
       <c r="S35" s="8"/>
       <c r="U35" s="32"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="36"/>
+      <c r="W35" s="51"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
@@ -4553,7 +4562,7 @@
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4580,7 +4589,7 @@
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="36"/>
+      <c r="M36" s="51"/>
       <c r="N36" s="7"/>
       <c r="O36" s="3"/>
       <c r="P36" s="6"/>
@@ -4589,7 +4598,7 @@
       <c r="S36" s="8"/>
       <c r="U36" s="32"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="36"/>
+      <c r="W36" s="51"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
@@ -4600,7 +4609,7 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="34"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4627,7 +4636,7 @@
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="36"/>
+      <c r="M37" s="51"/>
       <c r="N37" s="7"/>
       <c r="O37" s="3"/>
       <c r="P37" s="6"/>
@@ -4636,7 +4645,7 @@
       <c r="S37" s="8"/>
       <c r="U37" s="32"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="36"/>
+      <c r="W37" s="51"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
@@ -4647,7 +4656,7 @@
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4674,7 +4683,7 @@
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="36"/>
+      <c r="M38" s="51"/>
       <c r="N38" s="7"/>
       <c r="O38" s="3"/>
       <c r="P38" s="6"/>
@@ -4683,7 +4692,7 @@
       <c r="S38" s="8"/>
       <c r="U38" s="32"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="36"/>
+      <c r="W38" s="51"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -4694,7 +4703,7 @@
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="34"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4721,7 +4730,7 @@
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="36"/>
+      <c r="M39" s="51"/>
       <c r="N39" s="7"/>
       <c r="O39" s="3"/>
       <c r="P39" s="6"/>
@@ -4730,7 +4739,7 @@
       <c r="S39" s="8"/>
       <c r="U39" s="32"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="36"/>
+      <c r="W39" s="51"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -4741,7 +4750,7 @@
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4768,7 +4777,7 @@
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="36"/>
+      <c r="M40" s="51"/>
       <c r="N40" s="7"/>
       <c r="O40" s="3"/>
       <c r="P40" s="6"/>
@@ -4777,7 +4786,7 @@
       <c r="S40" s="8"/>
       <c r="U40" s="32"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="36"/>
+      <c r="W40" s="51"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -4788,7 +4797,7 @@
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="34"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4815,7 +4824,7 @@
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="36"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="7"/>
       <c r="O41" s="3"/>
       <c r="P41" s="6"/>
@@ -4824,7 +4833,7 @@
       <c r="S41" s="8"/>
       <c r="U41" s="32"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="36"/>
+      <c r="W41" s="51"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -4835,7 +4844,7 @@
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4862,7 +4871,7 @@
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="36"/>
+      <c r="M42" s="51"/>
       <c r="N42" s="7"/>
       <c r="O42" s="3"/>
       <c r="P42" s="6"/>
@@ -4871,7 +4880,7 @@
       <c r="S42" s="8"/>
       <c r="U42" s="32"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="36"/>
+      <c r="W42" s="51"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
@@ -4882,7 +4891,7 @@
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="34"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4909,7 +4918,7 @@
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="36"/>
+      <c r="M43" s="51"/>
       <c r="N43" s="7"/>
       <c r="O43" s="3"/>
       <c r="P43" s="6"/>
@@ -4918,7 +4927,7 @@
       <c r="S43" s="8"/>
       <c r="U43" s="32"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="36"/>
+      <c r="W43" s="51"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
@@ -4929,7 +4938,7 @@
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="34"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4956,7 +4965,7 @@
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="36"/>
+      <c r="M44" s="51"/>
       <c r="N44" s="7"/>
       <c r="O44" s="3"/>
       <c r="P44" s="6"/>
@@ -4965,7 +4974,7 @@
       <c r="S44" s="8"/>
       <c r="U44" s="32"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="36"/>
+      <c r="W44" s="51"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
@@ -4976,7 +4985,7 @@
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="32"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5003,7 +5012,7 @@
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="36"/>
+      <c r="M45" s="51"/>
       <c r="N45" s="7"/>
       <c r="O45" s="3"/>
       <c r="P45" s="6"/>
@@ -5012,7 +5021,7 @@
       <c r="S45" s="8"/>
       <c r="U45" s="32"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="36"/>
+      <c r="W45" s="51"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -5023,7 +5032,7 @@
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="34"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5050,7 +5059,7 @@
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="36"/>
+      <c r="M46" s="51"/>
       <c r="N46" s="7"/>
       <c r="O46" s="3"/>
       <c r="P46" s="6"/>
@@ -5059,7 +5068,7 @@
       <c r="S46" s="8"/>
       <c r="U46" s="32"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="36"/>
+      <c r="W46" s="51"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -5070,7 +5079,7 @@
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="34"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5097,7 +5106,7 @@
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="36"/>
+      <c r="M47" s="51"/>
       <c r="N47" s="7"/>
       <c r="O47" s="3"/>
       <c r="P47" s="6"/>
@@ -5106,7 +5115,7 @@
       <c r="S47" s="8"/>
       <c r="U47" s="32"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="36"/>
+      <c r="W47" s="51"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -5117,7 +5126,7 @@
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5144,7 +5153,7 @@
       </c>
       <c r="K48" s="32"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="36"/>
+      <c r="M48" s="51"/>
       <c r="N48" s="7"/>
       <c r="O48" s="3"/>
       <c r="P48" s="6"/>
@@ -5153,7 +5162,7 @@
       <c r="S48" s="8"/>
       <c r="U48" s="32"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="36"/>
+      <c r="W48" s="51"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
@@ -5164,7 +5173,7 @@
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="32"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="34"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5191,7 +5200,7 @@
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="36"/>
+      <c r="M49" s="51"/>
       <c r="N49" s="7"/>
       <c r="O49" s="3"/>
       <c r="P49" s="6"/>
@@ -5200,7 +5209,7 @@
       <c r="S49" s="8"/>
       <c r="U49" s="32"/>
       <c r="V49" s="5"/>
-      <c r="W49" s="36"/>
+      <c r="W49" s="51"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
@@ -5211,7 +5220,7 @@
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="32"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="34"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5238,7 +5247,7 @@
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="36"/>
+      <c r="M50" s="51"/>
       <c r="N50" s="7"/>
       <c r="O50" s="3"/>
       <c r="P50" s="6"/>
@@ -5247,7 +5256,7 @@
       <c r="S50" s="8"/>
       <c r="U50" s="32"/>
       <c r="V50" s="5"/>
-      <c r="W50" s="36"/>
+      <c r="W50" s="51"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -5258,7 +5267,7 @@
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="32"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="34"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5285,7 +5294,7 @@
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="36"/>
+      <c r="M51" s="51"/>
       <c r="N51" s="7"/>
       <c r="O51" s="3"/>
       <c r="P51" s="6"/>
@@ -5294,7 +5303,7 @@
       <c r="S51" s="8"/>
       <c r="U51" s="32"/>
       <c r="V51" s="5"/>
-      <c r="W51" s="36"/>
+      <c r="W51" s="51"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -5305,7 +5314,7 @@
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="32"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5332,7 +5341,7 @@
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="36"/>
+      <c r="M52" s="51"/>
       <c r="N52" s="7"/>
       <c r="O52" s="3"/>
       <c r="P52" s="6"/>
@@ -5341,7 +5350,7 @@
       <c r="S52" s="8"/>
       <c r="U52" s="32"/>
       <c r="V52" s="5"/>
-      <c r="W52" s="36"/>
+      <c r="W52" s="51"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
@@ -5352,7 +5361,7 @@
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="34"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5379,7 +5388,7 @@
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="36"/>
+      <c r="M53" s="51"/>
       <c r="N53" s="7"/>
       <c r="O53" s="3"/>
       <c r="P53" s="6"/>
@@ -5388,7 +5397,7 @@
       <c r="S53" s="8"/>
       <c r="U53" s="32"/>
       <c r="V53" s="5"/>
-      <c r="W53" s="36"/>
+      <c r="W53" s="51"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
@@ -5399,7 +5408,7 @@
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="34"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5426,7 +5435,7 @@
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="36"/>
+      <c r="M54" s="51"/>
       <c r="N54" s="7"/>
       <c r="O54" s="3"/>
       <c r="P54" s="6"/>
@@ -5435,7 +5444,7 @@
       <c r="S54" s="8"/>
       <c r="U54" s="32"/>
       <c r="V54" s="5"/>
-      <c r="W54" s="36"/>
+      <c r="W54" s="51"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
@@ -5446,7 +5455,7 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="32"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="34"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5473,7 +5482,7 @@
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="36"/>
+      <c r="M55" s="51"/>
       <c r="N55" s="7"/>
       <c r="O55" s="3"/>
       <c r="P55" s="6"/>
@@ -5482,7 +5491,7 @@
       <c r="S55" s="8"/>
       <c r="U55" s="32"/>
       <c r="V55" s="5"/>
-      <c r="W55" s="36"/>
+      <c r="W55" s="51"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
@@ -5493,7 +5502,7 @@
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="32"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="34"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5520,7 +5529,7 @@
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="36"/>
+      <c r="M56" s="51"/>
       <c r="N56" s="7"/>
       <c r="O56" s="3"/>
       <c r="P56" s="6"/>
@@ -5529,7 +5538,7 @@
       <c r="S56" s="8"/>
       <c r="U56" s="32"/>
       <c r="V56" s="5"/>
-      <c r="W56" s="36"/>
+      <c r="W56" s="51"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
@@ -5540,7 +5549,7 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="32"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="34"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5567,7 +5576,7 @@
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="36"/>
+      <c r="M57" s="51"/>
       <c r="N57" s="7"/>
       <c r="O57" s="3"/>
       <c r="P57" s="6"/>
@@ -5576,7 +5585,7 @@
       <c r="S57" s="8"/>
       <c r="U57" s="32"/>
       <c r="V57" s="5"/>
-      <c r="W57" s="36"/>
+      <c r="W57" s="51"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
@@ -5587,7 +5596,7 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="32"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="34"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5614,7 +5623,7 @@
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="36"/>
+      <c r="M58" s="51"/>
       <c r="N58" s="7"/>
       <c r="O58" s="3"/>
       <c r="P58" s="6"/>
@@ -5623,7 +5632,7 @@
       <c r="S58" s="8"/>
       <c r="U58" s="32"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="36"/>
+      <c r="W58" s="51"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
@@ -5634,7 +5643,7 @@
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="32"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="34"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5661,7 +5670,7 @@
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="36"/>
+      <c r="M59" s="51"/>
       <c r="N59" s="7"/>
       <c r="O59" s="3"/>
       <c r="P59" s="6"/>
@@ -5670,7 +5679,7 @@
       <c r="S59" s="8"/>
       <c r="U59" s="32"/>
       <c r="V59" s="5"/>
-      <c r="W59" s="36"/>
+      <c r="W59" s="51"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
@@ -5681,7 +5690,7 @@
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="32"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="34"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5708,7 +5717,7 @@
       </c>
       <c r="K60" s="32"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="36"/>
+      <c r="M60" s="51"/>
       <c r="N60" s="7"/>
       <c r="O60" s="3"/>
       <c r="P60" s="6"/>
@@ -5717,7 +5726,7 @@
       <c r="S60" s="8"/>
       <c r="U60" s="32"/>
       <c r="V60" s="5"/>
-      <c r="W60" s="36"/>
+      <c r="W60" s="51"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -5728,7 +5737,7 @@
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="32"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="34"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5755,7 +5764,7 @@
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="36"/>
+      <c r="M61" s="51"/>
       <c r="N61" s="7"/>
       <c r="O61" s="3"/>
       <c r="P61" s="6"/>
@@ -5764,7 +5773,7 @@
       <c r="S61" s="8"/>
       <c r="U61" s="32"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="36"/>
+      <c r="W61" s="51"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
@@ -5775,7 +5784,7 @@
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="32"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="34"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5802,7 +5811,7 @@
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="36"/>
+      <c r="M62" s="51"/>
       <c r="N62" s="7"/>
       <c r="O62" s="3"/>
       <c r="P62" s="6"/>
@@ -5811,7 +5820,7 @@
       <c r="S62" s="8"/>
       <c r="U62" s="32"/>
       <c r="V62" s="5"/>
-      <c r="W62" s="36"/>
+      <c r="W62" s="51"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
@@ -5822,7 +5831,7 @@
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="34"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5849,7 +5858,7 @@
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="36"/>
+      <c r="M63" s="51"/>
       <c r="N63" s="7"/>
       <c r="O63" s="3"/>
       <c r="P63" s="6"/>
@@ -5858,7 +5867,7 @@
       <c r="S63" s="8"/>
       <c r="U63" s="32"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="36"/>
+      <c r="W63" s="51"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
@@ -5869,7 +5878,7 @@
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="32"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="34"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5896,7 +5905,7 @@
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="36"/>
+      <c r="M64" s="51"/>
       <c r="N64" s="7"/>
       <c r="O64" s="3"/>
       <c r="P64" s="6"/>
@@ -5905,7 +5914,7 @@
       <c r="S64" s="8"/>
       <c r="U64" s="32"/>
       <c r="V64" s="5"/>
-      <c r="W64" s="36"/>
+      <c r="W64" s="51"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
@@ -5916,7 +5925,7 @@
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="34"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5943,7 +5952,7 @@
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="36"/>
+      <c r="M65" s="51"/>
       <c r="N65" s="7"/>
       <c r="O65" s="3"/>
       <c r="P65" s="6"/>
@@ -5952,7 +5961,7 @@
       <c r="S65" s="8"/>
       <c r="U65" s="32"/>
       <c r="V65" s="5"/>
-      <c r="W65" s="36"/>
+      <c r="W65" s="51"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
@@ -5963,7 +5972,7 @@
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="34"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5990,7 +5999,7 @@
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="36"/>
+      <c r="M66" s="51"/>
       <c r="N66" s="7"/>
       <c r="O66" s="3"/>
       <c r="P66" s="6"/>
@@ -5999,7 +6008,7 @@
       <c r="S66" s="8"/>
       <c r="U66" s="32"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="36"/>
+      <c r="W66" s="51"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
@@ -6010,7 +6019,7 @@
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="34"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6037,7 +6046,7 @@
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="36"/>
+      <c r="M67" s="51"/>
       <c r="N67" s="7"/>
       <c r="O67" s="3"/>
       <c r="P67" s="6"/>
@@ -6046,7 +6055,7 @@
       <c r="S67" s="8"/>
       <c r="U67" s="32"/>
       <c r="V67" s="5"/>
-      <c r="W67" s="36"/>
+      <c r="W67" s="51"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
@@ -6057,7 +6066,7 @@
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="34"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6084,7 +6093,7 @@
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="36"/>
+      <c r="M68" s="51"/>
       <c r="N68" s="7"/>
       <c r="O68" s="3"/>
       <c r="P68" s="6"/>
@@ -6093,7 +6102,7 @@
       <c r="S68" s="8"/>
       <c r="U68" s="32"/>
       <c r="V68" s="5"/>
-      <c r="W68" s="36"/>
+      <c r="W68" s="51"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
@@ -6104,7 +6113,7 @@
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="34"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6131,7 +6140,7 @@
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="36"/>
+      <c r="M69" s="51"/>
       <c r="N69" s="7"/>
       <c r="O69" s="3"/>
       <c r="P69" s="6"/>
@@ -6140,7 +6149,7 @@
       <c r="S69" s="8"/>
       <c r="U69" s="32"/>
       <c r="V69" s="5"/>
-      <c r="W69" s="36"/>
+      <c r="W69" s="51"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
@@ -6151,7 +6160,7 @@
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="34"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6178,7 +6187,7 @@
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="36"/>
+      <c r="M70" s="51"/>
       <c r="N70" s="7"/>
       <c r="O70" s="3"/>
       <c r="P70" s="6"/>
@@ -6187,7 +6196,7 @@
       <c r="S70" s="8"/>
       <c r="U70" s="32"/>
       <c r="V70" s="5"/>
-      <c r="W70" s="36"/>
+      <c r="W70" s="51"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -6198,7 +6207,7 @@
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="34"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6225,7 +6234,7 @@
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="36"/>
+      <c r="M71" s="51"/>
       <c r="N71" s="7"/>
       <c r="O71" s="3"/>
       <c r="P71" s="6"/>
@@ -6234,7 +6243,7 @@
       <c r="S71" s="8"/>
       <c r="U71" s="32"/>
       <c r="V71" s="5"/>
-      <c r="W71" s="36"/>
+      <c r="W71" s="51"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -6245,7 +6254,7 @@
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="34"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6272,7 +6281,7 @@
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="36"/>
+      <c r="M72" s="51"/>
       <c r="N72" s="7"/>
       <c r="O72" s="3"/>
       <c r="P72" s="6"/>
@@ -6281,7 +6290,7 @@
       <c r="S72" s="8"/>
       <c r="U72" s="32"/>
       <c r="V72" s="5"/>
-      <c r="W72" s="36"/>
+      <c r="W72" s="51"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
@@ -6292,7 +6301,7 @@
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="34"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6319,7 +6328,7 @@
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="36"/>
+      <c r="M73" s="51"/>
       <c r="N73" s="7"/>
       <c r="O73" s="3"/>
       <c r="P73" s="6"/>
@@ -6328,7 +6337,7 @@
       <c r="S73" s="8"/>
       <c r="U73" s="32"/>
       <c r="V73" s="5"/>
-      <c r="W73" s="36"/>
+      <c r="W73" s="51"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
@@ -6339,7 +6348,7 @@
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="34"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6366,7 +6375,7 @@
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="36"/>
+      <c r="M74" s="51"/>
       <c r="N74" s="7"/>
       <c r="O74" s="3"/>
       <c r="P74" s="6"/>
@@ -6375,7 +6384,7 @@
       <c r="S74" s="8"/>
       <c r="U74" s="32"/>
       <c r="V74" s="5"/>
-      <c r="W74" s="36"/>
+      <c r="W74" s="51"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
@@ -6386,7 +6395,7 @@
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="34"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6413,7 +6422,7 @@
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="36"/>
+      <c r="M75" s="51"/>
       <c r="N75" s="7"/>
       <c r="O75" s="3"/>
       <c r="P75" s="6"/>
@@ -6422,7 +6431,7 @@
       <c r="S75" s="8"/>
       <c r="U75" s="32"/>
       <c r="V75" s="5"/>
-      <c r="W75" s="36"/>
+      <c r="W75" s="51"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
@@ -6433,7 +6442,7 @@
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="32"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="34"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6460,7 +6469,7 @@
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="36"/>
+      <c r="M76" s="51"/>
       <c r="N76" s="7"/>
       <c r="O76" s="3"/>
       <c r="P76" s="6"/>
@@ -6469,7 +6478,7 @@
       <c r="S76" s="8"/>
       <c r="U76" s="32"/>
       <c r="V76" s="5"/>
-      <c r="W76" s="36"/>
+      <c r="W76" s="51"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
@@ -6480,7 +6489,7 @@
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="34"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6507,7 +6516,7 @@
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="36"/>
+      <c r="M77" s="51"/>
       <c r="N77" s="7"/>
       <c r="O77" s="3"/>
       <c r="P77" s="6"/>
@@ -6516,7 +6525,7 @@
       <c r="S77" s="8"/>
       <c r="U77" s="32"/>
       <c r="V77" s="5"/>
-      <c r="W77" s="36"/>
+      <c r="W77" s="51"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
@@ -6527,7 +6536,7 @@
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="34"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6554,7 +6563,7 @@
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="36"/>
+      <c r="M78" s="51"/>
       <c r="N78" s="7"/>
       <c r="O78" s="3"/>
       <c r="P78" s="6"/>
@@ -6563,7 +6572,7 @@
       <c r="S78" s="8"/>
       <c r="U78" s="32"/>
       <c r="V78" s="5"/>
-      <c r="W78" s="36"/>
+      <c r="W78" s="51"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
@@ -6574,7 +6583,7 @@
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="34"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6601,7 +6610,7 @@
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="36"/>
+      <c r="M79" s="51"/>
       <c r="N79" s="7"/>
       <c r="O79" s="3"/>
       <c r="P79" s="6"/>
@@ -6610,7 +6619,7 @@
       <c r="S79" s="8"/>
       <c r="U79" s="32"/>
       <c r="V79" s="5"/>
-      <c r="W79" s="36"/>
+      <c r="W79" s="51"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
@@ -6621,7 +6630,7 @@
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="32"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="34"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6648,7 +6657,7 @@
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="36"/>
+      <c r="M80" s="51"/>
       <c r="N80" s="7"/>
       <c r="O80" s="3"/>
       <c r="P80" s="6"/>
@@ -6657,7 +6666,7 @@
       <c r="S80" s="8"/>
       <c r="U80" s="32"/>
       <c r="V80" s="5"/>
-      <c r="W80" s="36"/>
+      <c r="W80" s="51"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
@@ -6668,7 +6677,7 @@
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="32"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="34"/>
+      <c r="C81" s="49"/>
       <c r="D81" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6695,7 +6704,7 @@
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="36"/>
+      <c r="M81" s="51"/>
       <c r="N81" s="7"/>
       <c r="O81" s="3"/>
       <c r="P81" s="6"/>
@@ -6704,7 +6713,7 @@
       <c r="S81" s="8"/>
       <c r="U81" s="32"/>
       <c r="V81" s="5"/>
-      <c r="W81" s="36"/>
+      <c r="W81" s="51"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
@@ -6715,7 +6724,7 @@
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="34"/>
+      <c r="C82" s="49"/>
       <c r="D82" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6742,7 +6751,7 @@
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="36"/>
+      <c r="M82" s="51"/>
       <c r="N82" s="7"/>
       <c r="O82" s="3"/>
       <c r="P82" s="6"/>
@@ -6751,7 +6760,7 @@
       <c r="S82" s="8"/>
       <c r="U82" s="32"/>
       <c r="V82" s="5"/>
-      <c r="W82" s="36"/>
+      <c r="W82" s="51"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
@@ -6762,7 +6771,7 @@
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="32"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="34"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6789,7 +6798,7 @@
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="36"/>
+      <c r="M83" s="51"/>
       <c r="N83" s="7"/>
       <c r="O83" s="3"/>
       <c r="P83" s="6"/>
@@ -6798,7 +6807,7 @@
       <c r="S83" s="8"/>
       <c r="U83" s="32"/>
       <c r="V83" s="5"/>
-      <c r="W83" s="36"/>
+      <c r="W83" s="51"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
@@ -6809,7 +6818,7 @@
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="32"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="34"/>
+      <c r="C84" s="49"/>
       <c r="D84" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6836,7 +6845,7 @@
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="36"/>
+      <c r="M84" s="51"/>
       <c r="N84" s="7"/>
       <c r="O84" s="3"/>
       <c r="P84" s="6"/>
@@ -6845,7 +6854,7 @@
       <c r="S84" s="8"/>
       <c r="U84" s="32"/>
       <c r="V84" s="5"/>
-      <c r="W84" s="36"/>
+      <c r="W84" s="51"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
@@ -6889,8 +6898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27DF361-DA08-4AD0-A8D3-AAE1E405B9EC}">
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView topLeftCell="D53" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="W5" activeCellId="3" sqref="C5:C84 M5:M62 M63:M84 W5:W84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6929,80 +6938,80 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="K2" s="37" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="K2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="U2" s="37" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="35"/>
+      <c r="U2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="39"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="35"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="K3" s="48" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="K3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="50"/>
-      <c r="U3" s="48" t="s">
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="46"/>
+      <c r="U3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="49"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="40" t="s">
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="42"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -7090,7 +7099,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="33"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="18" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7117,7 +7126,7 @@
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="35"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="13"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
@@ -7126,7 +7135,7 @@
       <c r="S5" s="28"/>
       <c r="U5" s="31"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="35"/>
+      <c r="W5" s="50"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
@@ -7137,7 +7146,7 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="34"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7164,7 +7173,7 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="36"/>
+      <c r="M6" s="51"/>
       <c r="N6" s="10"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -7173,7 +7182,7 @@
       <c r="S6" s="11"/>
       <c r="U6" s="32"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="36"/>
+      <c r="W6" s="51"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -7184,7 +7193,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="34"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7211,7 +7220,7 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="36"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="10"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -7220,7 +7229,7 @@
       <c r="S7" s="11"/>
       <c r="U7" s="32"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="36"/>
+      <c r="W7" s="51"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
@@ -7231,7 +7240,7 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="34"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7258,7 +7267,7 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="36"/>
+      <c r="M8" s="51"/>
       <c r="N8" s="10"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -7267,7 +7276,7 @@
       <c r="S8" s="11"/>
       <c r="U8" s="32"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="36"/>
+      <c r="W8" s="51"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -7278,7 +7287,7 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="34"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7305,7 +7314,7 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="36"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="10"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -7314,7 +7323,7 @@
       <c r="S9" s="11"/>
       <c r="U9" s="32"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="36"/>
+      <c r="W9" s="51"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
@@ -7325,7 +7334,7 @@
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="34"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7352,7 +7361,7 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="36"/>
+      <c r="M10" s="51"/>
       <c r="N10" s="10"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -7361,7 +7370,7 @@
       <c r="S10" s="11"/>
       <c r="U10" s="32"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="36"/>
+      <c r="W10" s="51"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -7372,7 +7381,7 @@
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="34"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7399,7 +7408,7 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="36"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="10"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -7408,7 +7417,7 @@
       <c r="S11" s="11"/>
       <c r="U11" s="32"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="36"/>
+      <c r="W11" s="51"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
@@ -7419,7 +7428,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="34"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7446,7 +7455,7 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="36"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="10"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -7455,7 +7464,7 @@
       <c r="S12" s="11"/>
       <c r="U12" s="32"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="36"/>
+      <c r="W12" s="51"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -7466,7 +7475,7 @@
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="34"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7493,7 +7502,7 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="36"/>
+      <c r="M13" s="51"/>
       <c r="N13" s="10"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -7502,7 +7511,7 @@
       <c r="S13" s="11"/>
       <c r="U13" s="32"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="36"/>
+      <c r="W13" s="51"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -7513,7 +7522,7 @@
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="34"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7540,7 +7549,7 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="36"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="10"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -7549,7 +7558,7 @@
       <c r="S14" s="11"/>
       <c r="U14" s="32"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="36"/>
+      <c r="W14" s="51"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -7560,7 +7569,7 @@
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7587,7 +7596,7 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="36"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="7"/>
       <c r="O15" s="3"/>
       <c r="P15" s="6"/>
@@ -7596,7 +7605,7 @@
       <c r="S15" s="8"/>
       <c r="U15" s="32"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="36"/>
+      <c r="W15" s="51"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -7607,7 +7616,7 @@
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="34"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7634,7 +7643,7 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="36"/>
+      <c r="M16" s="51"/>
       <c r="N16" s="7"/>
       <c r="O16" s="3"/>
       <c r="P16" s="6"/>
@@ -7643,7 +7652,7 @@
       <c r="S16" s="8"/>
       <c r="U16" s="32"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="36"/>
+      <c r="W16" s="51"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -7654,7 +7663,7 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="34"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7681,7 +7690,7 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="36"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="7"/>
       <c r="O17" s="3"/>
       <c r="P17" s="6"/>
@@ -7690,7 +7699,7 @@
       <c r="S17" s="8"/>
       <c r="U17" s="32"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="36"/>
+      <c r="W17" s="51"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -7701,7 +7710,7 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7728,7 +7737,7 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="7"/>
       <c r="O18" s="3"/>
       <c r="P18" s="6"/>
@@ -7737,7 +7746,7 @@
       <c r="S18" s="8"/>
       <c r="U18" s="32"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="36"/>
+      <c r="W18" s="51"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -7748,7 +7757,7 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="34"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7775,7 +7784,7 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="36"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="7"/>
       <c r="O19" s="3"/>
       <c r="P19" s="6"/>
@@ -7784,7 +7793,7 @@
       <c r="S19" s="8"/>
       <c r="U19" s="32"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="36"/>
+      <c r="W19" s="51"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -7795,7 +7804,7 @@
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7822,7 +7831,7 @@
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="36"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="7"/>
       <c r="O20" s="3"/>
       <c r="P20" s="6"/>
@@ -7831,7 +7840,7 @@
       <c r="S20" s="8"/>
       <c r="U20" s="32"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="36"/>
+      <c r="W20" s="51"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -7842,7 +7851,7 @@
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7869,7 +7878,7 @@
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="36"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="7"/>
       <c r="O21" s="3"/>
       <c r="P21" s="6"/>
@@ -7878,7 +7887,7 @@
       <c r="S21" s="8"/>
       <c r="U21" s="32"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="36"/>
+      <c r="W21" s="51"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -7889,7 +7898,7 @@
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="34"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7916,7 +7925,7 @@
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="36"/>
+      <c r="M22" s="51"/>
       <c r="N22" s="7"/>
       <c r="O22" s="3"/>
       <c r="P22" s="6"/>
@@ -7925,7 +7934,7 @@
       <c r="S22" s="8"/>
       <c r="U22" s="32"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="36"/>
+      <c r="W22" s="51"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -7936,7 +7945,7 @@
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="34"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7963,7 +7972,7 @@
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="36"/>
+      <c r="M23" s="51"/>
       <c r="N23" s="7"/>
       <c r="O23" s="3"/>
       <c r="P23" s="6"/>
@@ -7972,7 +7981,7 @@
       <c r="S23" s="8"/>
       <c r="U23" s="32"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="36"/>
+      <c r="W23" s="51"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -7983,7 +7992,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="34"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8010,7 +8019,7 @@
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="36"/>
+      <c r="M24" s="51"/>
       <c r="N24" s="7"/>
       <c r="O24" s="3"/>
       <c r="P24" s="6"/>
@@ -8019,7 +8028,7 @@
       <c r="S24" s="8"/>
       <c r="U24" s="32"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="36"/>
+      <c r="W24" s="51"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -8030,7 +8039,7 @@
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="34"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8057,7 +8066,7 @@
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="36"/>
+      <c r="M25" s="51"/>
       <c r="N25" s="7"/>
       <c r="O25" s="3"/>
       <c r="P25" s="6"/>
@@ -8066,7 +8075,7 @@
       <c r="S25" s="8"/>
       <c r="U25" s="32"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="36"/>
+      <c r="W25" s="51"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -8077,7 +8086,7 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="34"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8104,7 +8113,7 @@
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="36"/>
+      <c r="M26" s="51"/>
       <c r="N26" s="7"/>
       <c r="O26" s="3"/>
       <c r="P26" s="6"/>
@@ -8113,7 +8122,7 @@
       <c r="S26" s="8"/>
       <c r="U26" s="32"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="36"/>
+      <c r="W26" s="51"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -8124,7 +8133,7 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="34"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8151,7 +8160,7 @@
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="36"/>
+      <c r="M27" s="51"/>
       <c r="N27" s="7"/>
       <c r="O27" s="3"/>
       <c r="P27" s="6"/>
@@ -8160,7 +8169,7 @@
       <c r="S27" s="8"/>
       <c r="U27" s="32"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="36"/>
+      <c r="W27" s="51"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -8171,7 +8180,7 @@
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="34"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8198,7 +8207,7 @@
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="36"/>
+      <c r="M28" s="51"/>
       <c r="N28" s="7"/>
       <c r="O28" s="3"/>
       <c r="P28" s="6"/>
@@ -8207,7 +8216,7 @@
       <c r="S28" s="8"/>
       <c r="U28" s="32"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="36"/>
+      <c r="W28" s="51"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
@@ -8218,7 +8227,7 @@
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8245,7 +8254,7 @@
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="36"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="7"/>
       <c r="O29" s="3"/>
       <c r="P29" s="6"/>
@@ -8254,7 +8263,7 @@
       <c r="S29" s="8"/>
       <c r="U29" s="32"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="36"/>
+      <c r="W29" s="51"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
@@ -8265,7 +8274,7 @@
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="34"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8292,7 +8301,7 @@
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="36"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="7"/>
       <c r="O30" s="3"/>
       <c r="P30" s="6"/>
@@ -8301,7 +8310,7 @@
       <c r="S30" s="8"/>
       <c r="U30" s="32"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="36"/>
+      <c r="W30" s="51"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
@@ -8312,7 +8321,7 @@
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="34"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8339,7 +8348,7 @@
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="36"/>
+      <c r="M31" s="51"/>
       <c r="N31" s="7"/>
       <c r="O31" s="3"/>
       <c r="P31" s="6"/>
@@ -8348,7 +8357,7 @@
       <c r="S31" s="8"/>
       <c r="U31" s="32"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="36"/>
+      <c r="W31" s="51"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
@@ -8359,7 +8368,7 @@
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="34"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8386,7 +8395,7 @@
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="36"/>
+      <c r="M32" s="51"/>
       <c r="N32" s="7"/>
       <c r="O32" s="3"/>
       <c r="P32" s="6"/>
@@ -8395,7 +8404,7 @@
       <c r="S32" s="8"/>
       <c r="U32" s="32"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="36"/>
+      <c r="W32" s="51"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -8406,7 +8415,7 @@
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="34"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8433,7 +8442,7 @@
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="36"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="7"/>
       <c r="O33" s="3"/>
       <c r="P33" s="6"/>
@@ -8442,7 +8451,7 @@
       <c r="S33" s="8"/>
       <c r="U33" s="32"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="36"/>
+      <c r="W33" s="51"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -8453,7 +8462,7 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="34"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8480,7 +8489,7 @@
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="36"/>
+      <c r="M34" s="51"/>
       <c r="N34" s="7"/>
       <c r="O34" s="3"/>
       <c r="P34" s="6"/>
@@ -8489,7 +8498,7 @@
       <c r="S34" s="8"/>
       <c r="U34" s="32"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="36"/>
+      <c r="W34" s="51"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -8500,7 +8509,7 @@
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="34"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="36"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="7"/>
       <c r="O35" s="3"/>
       <c r="P35" s="6"/>
@@ -8536,7 +8545,7 @@
       <c r="S35" s="8"/>
       <c r="U35" s="32"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="36"/>
+      <c r="W35" s="51"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
@@ -8547,7 +8556,7 @@
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="34"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8574,7 +8583,7 @@
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="36"/>
+      <c r="M36" s="51"/>
       <c r="N36" s="7"/>
       <c r="O36" s="3"/>
       <c r="P36" s="6"/>
@@ -8583,7 +8592,7 @@
       <c r="S36" s="8"/>
       <c r="U36" s="32"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="36"/>
+      <c r="W36" s="51"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
@@ -8594,7 +8603,7 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="34"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8621,7 +8630,7 @@
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="36"/>
+      <c r="M37" s="51"/>
       <c r="N37" s="7"/>
       <c r="O37" s="3"/>
       <c r="P37" s="6"/>
@@ -8630,7 +8639,7 @@
       <c r="S37" s="8"/>
       <c r="U37" s="32"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="36"/>
+      <c r="W37" s="51"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
@@ -8641,7 +8650,7 @@
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="34"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8668,7 +8677,7 @@
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="36"/>
+      <c r="M38" s="51"/>
       <c r="N38" s="7"/>
       <c r="O38" s="3"/>
       <c r="P38" s="6"/>
@@ -8677,7 +8686,7 @@
       <c r="S38" s="8"/>
       <c r="U38" s="32"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="36"/>
+      <c r="W38" s="51"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -8688,7 +8697,7 @@
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="34"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8715,7 +8724,7 @@
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="36"/>
+      <c r="M39" s="51"/>
       <c r="N39" s="7"/>
       <c r="O39" s="3"/>
       <c r="P39" s="6"/>
@@ -8724,7 +8733,7 @@
       <c r="S39" s="8"/>
       <c r="U39" s="32"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="36"/>
+      <c r="W39" s="51"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -8735,7 +8744,7 @@
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="34"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8762,7 +8771,7 @@
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="36"/>
+      <c r="M40" s="51"/>
       <c r="N40" s="7"/>
       <c r="O40" s="3"/>
       <c r="P40" s="6"/>
@@ -8771,7 +8780,7 @@
       <c r="S40" s="8"/>
       <c r="U40" s="32"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="36"/>
+      <c r="W40" s="51"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -8782,7 +8791,7 @@
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="34"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8809,7 +8818,7 @@
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="36"/>
+      <c r="M41" s="51"/>
       <c r="N41" s="7"/>
       <c r="O41" s="3"/>
       <c r="P41" s="6"/>
@@ -8818,7 +8827,7 @@
       <c r="S41" s="8"/>
       <c r="U41" s="32"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="36"/>
+      <c r="W41" s="51"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -8829,7 +8838,7 @@
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8856,7 +8865,7 @@
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="36"/>
+      <c r="M42" s="51"/>
       <c r="N42" s="7"/>
       <c r="O42" s="3"/>
       <c r="P42" s="6"/>
@@ -8865,7 +8874,7 @@
       <c r="S42" s="8"/>
       <c r="U42" s="32"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="36"/>
+      <c r="W42" s="51"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
@@ -8876,7 +8885,7 @@
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="34"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8903,7 +8912,7 @@
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="36"/>
+      <c r="M43" s="51"/>
       <c r="N43" s="7"/>
       <c r="O43" s="3"/>
       <c r="P43" s="6"/>
@@ -8912,7 +8921,7 @@
       <c r="S43" s="8"/>
       <c r="U43" s="32"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="36"/>
+      <c r="W43" s="51"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
@@ -8923,7 +8932,7 @@
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="34"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8950,7 +8959,7 @@
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="36"/>
+      <c r="M44" s="51"/>
       <c r="N44" s="7"/>
       <c r="O44" s="3"/>
       <c r="P44" s="6"/>
@@ -8959,7 +8968,7 @@
       <c r="S44" s="8"/>
       <c r="U44" s="32"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="36"/>
+      <c r="W44" s="51"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
@@ -8970,7 +8979,7 @@
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="32"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8997,7 +9006,7 @@
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="36"/>
+      <c r="M45" s="51"/>
       <c r="N45" s="7"/>
       <c r="O45" s="3"/>
       <c r="P45" s="6"/>
@@ -9006,7 +9015,7 @@
       <c r="S45" s="8"/>
       <c r="U45" s="32"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="36"/>
+      <c r="W45" s="51"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -9017,7 +9026,7 @@
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="34"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9044,7 +9053,7 @@
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="36"/>
+      <c r="M46" s="51"/>
       <c r="N46" s="7"/>
       <c r="O46" s="3"/>
       <c r="P46" s="6"/>
@@ -9053,7 +9062,7 @@
       <c r="S46" s="8"/>
       <c r="U46" s="32"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="36"/>
+      <c r="W46" s="51"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -9064,7 +9073,7 @@
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="34"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9091,7 +9100,7 @@
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="36"/>
+      <c r="M47" s="51"/>
       <c r="N47" s="7"/>
       <c r="O47" s="3"/>
       <c r="P47" s="6"/>
@@ -9100,7 +9109,7 @@
       <c r="S47" s="8"/>
       <c r="U47" s="32"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="36"/>
+      <c r="W47" s="51"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -9111,7 +9120,7 @@
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9138,7 +9147,7 @@
       </c>
       <c r="K48" s="32"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="36"/>
+      <c r="M48" s="51"/>
       <c r="N48" s="7"/>
       <c r="O48" s="3"/>
       <c r="P48" s="6"/>
@@ -9147,7 +9156,7 @@
       <c r="S48" s="8"/>
       <c r="U48" s="32"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="36"/>
+      <c r="W48" s="51"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
@@ -9158,7 +9167,7 @@
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="32"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="34"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9185,7 +9194,7 @@
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="36"/>
+      <c r="M49" s="51"/>
       <c r="N49" s="7"/>
       <c r="O49" s="3"/>
       <c r="P49" s="6"/>
@@ -9194,7 +9203,7 @@
       <c r="S49" s="8"/>
       <c r="U49" s="32"/>
       <c r="V49" s="5"/>
-      <c r="W49" s="36"/>
+      <c r="W49" s="51"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
@@ -9205,7 +9214,7 @@
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="32"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="34"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9232,7 +9241,7 @@
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="36"/>
+      <c r="M50" s="51"/>
       <c r="N50" s="7"/>
       <c r="O50" s="3"/>
       <c r="P50" s="6"/>
@@ -9241,7 +9250,7 @@
       <c r="S50" s="8"/>
       <c r="U50" s="32"/>
       <c r="V50" s="5"/>
-      <c r="W50" s="36"/>
+      <c r="W50" s="51"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -9252,7 +9261,7 @@
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="32"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="34"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9279,7 +9288,7 @@
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="36"/>
+      <c r="M51" s="51"/>
       <c r="N51" s="7"/>
       <c r="O51" s="3"/>
       <c r="P51" s="6"/>
@@ -9288,7 +9297,7 @@
       <c r="S51" s="8"/>
       <c r="U51" s="32"/>
       <c r="V51" s="5"/>
-      <c r="W51" s="36"/>
+      <c r="W51" s="51"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -9299,7 +9308,7 @@
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="32"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9326,7 +9335,7 @@
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="36"/>
+      <c r="M52" s="51"/>
       <c r="N52" s="7"/>
       <c r="O52" s="3"/>
       <c r="P52" s="6"/>
@@ -9335,7 +9344,7 @@
       <c r="S52" s="8"/>
       <c r="U52" s="32"/>
       <c r="V52" s="5"/>
-      <c r="W52" s="36"/>
+      <c r="W52" s="51"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
@@ -9346,7 +9355,7 @@
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="34"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9373,7 +9382,7 @@
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="36"/>
+      <c r="M53" s="51"/>
       <c r="N53" s="7"/>
       <c r="O53" s="3"/>
       <c r="P53" s="6"/>
@@ -9382,7 +9391,7 @@
       <c r="S53" s="8"/>
       <c r="U53" s="32"/>
       <c r="V53" s="5"/>
-      <c r="W53" s="36"/>
+      <c r="W53" s="51"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
@@ -9393,7 +9402,7 @@
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="34"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9420,7 +9429,7 @@
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="36"/>
+      <c r="M54" s="51"/>
       <c r="N54" s="7"/>
       <c r="O54" s="3"/>
       <c r="P54" s="6"/>
@@ -9429,7 +9438,7 @@
       <c r="S54" s="8"/>
       <c r="U54" s="32"/>
       <c r="V54" s="5"/>
-      <c r="W54" s="36"/>
+      <c r="W54" s="51"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
@@ -9440,7 +9449,7 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="32"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="34"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9467,7 +9476,7 @@
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="36"/>
+      <c r="M55" s="51"/>
       <c r="N55" s="7"/>
       <c r="O55" s="3"/>
       <c r="P55" s="6"/>
@@ -9476,7 +9485,7 @@
       <c r="S55" s="8"/>
       <c r="U55" s="32"/>
       <c r="V55" s="5"/>
-      <c r="W55" s="36"/>
+      <c r="W55" s="51"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
@@ -9487,7 +9496,7 @@
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="32"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="34"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9514,7 +9523,7 @@
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="36"/>
+      <c r="M56" s="51"/>
       <c r="N56" s="7"/>
       <c r="O56" s="3"/>
       <c r="P56" s="6"/>
@@ -9523,7 +9532,7 @@
       <c r="S56" s="8"/>
       <c r="U56" s="32"/>
       <c r="V56" s="5"/>
-      <c r="W56" s="36"/>
+      <c r="W56" s="51"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
@@ -9534,7 +9543,7 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="32"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="34"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9561,7 +9570,7 @@
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="36"/>
+      <c r="M57" s="51"/>
       <c r="N57" s="7"/>
       <c r="O57" s="3"/>
       <c r="P57" s="6"/>
@@ -9570,7 +9579,7 @@
       <c r="S57" s="8"/>
       <c r="U57" s="32"/>
       <c r="V57" s="5"/>
-      <c r="W57" s="36"/>
+      <c r="W57" s="51"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
@@ -9581,7 +9590,7 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="32"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="34"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9608,7 +9617,7 @@
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="36"/>
+      <c r="M58" s="51"/>
       <c r="N58" s="7"/>
       <c r="O58" s="3"/>
       <c r="P58" s="6"/>
@@ -9617,7 +9626,7 @@
       <c r="S58" s="8"/>
       <c r="U58" s="32"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="36"/>
+      <c r="W58" s="51"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
@@ -9628,7 +9637,7 @@
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="32"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="34"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9655,7 +9664,7 @@
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="36"/>
+      <c r="M59" s="51"/>
       <c r="N59" s="7"/>
       <c r="O59" s="3"/>
       <c r="P59" s="6"/>
@@ -9664,7 +9673,7 @@
       <c r="S59" s="8"/>
       <c r="U59" s="32"/>
       <c r="V59" s="5"/>
-      <c r="W59" s="36"/>
+      <c r="W59" s="51"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
@@ -9675,7 +9684,7 @@
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="32"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="34"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9702,7 +9711,7 @@
       </c>
       <c r="K60" s="32"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="36"/>
+      <c r="M60" s="51"/>
       <c r="N60" s="7"/>
       <c r="O60" s="3"/>
       <c r="P60" s="6"/>
@@ -9711,7 +9720,7 @@
       <c r="S60" s="8"/>
       <c r="U60" s="32"/>
       <c r="V60" s="5"/>
-      <c r="W60" s="36"/>
+      <c r="W60" s="51"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -9722,7 +9731,7 @@
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="32"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="34"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9749,7 +9758,7 @@
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="36"/>
+      <c r="M61" s="51"/>
       <c r="N61" s="7"/>
       <c r="O61" s="3"/>
       <c r="P61" s="6"/>
@@ -9758,7 +9767,7 @@
       <c r="S61" s="8"/>
       <c r="U61" s="32"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="36"/>
+      <c r="W61" s="51"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
@@ -9769,7 +9778,7 @@
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="32"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="34"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9796,7 +9805,7 @@
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="36"/>
+      <c r="M62" s="51"/>
       <c r="N62" s="7"/>
       <c r="O62" s="3"/>
       <c r="P62" s="6"/>
@@ -9805,7 +9814,7 @@
       <c r="S62" s="8"/>
       <c r="U62" s="32"/>
       <c r="V62" s="5"/>
-      <c r="W62" s="36"/>
+      <c r="W62" s="51"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
@@ -9816,7 +9825,7 @@
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="34"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9843,7 +9852,7 @@
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="36"/>
+      <c r="M63" s="51"/>
       <c r="N63" s="7"/>
       <c r="O63" s="3"/>
       <c r="P63" s="6"/>
@@ -9852,7 +9861,7 @@
       <c r="S63" s="8"/>
       <c r="U63" s="32"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="36"/>
+      <c r="W63" s="51"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
@@ -9863,7 +9872,7 @@
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="32"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="34"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9890,7 +9899,7 @@
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="36"/>
+      <c r="M64" s="51"/>
       <c r="N64" s="7"/>
       <c r="O64" s="3"/>
       <c r="P64" s="6"/>
@@ -9899,7 +9908,7 @@
       <c r="S64" s="8"/>
       <c r="U64" s="32"/>
       <c r="V64" s="5"/>
-      <c r="W64" s="36"/>
+      <c r="W64" s="51"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
@@ -9910,7 +9919,7 @@
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="34"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9937,7 +9946,7 @@
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="36"/>
+      <c r="M65" s="51"/>
       <c r="N65" s="7"/>
       <c r="O65" s="3"/>
       <c r="P65" s="6"/>
@@ -9946,7 +9955,7 @@
       <c r="S65" s="8"/>
       <c r="U65" s="32"/>
       <c r="V65" s="5"/>
-      <c r="W65" s="36"/>
+      <c r="W65" s="51"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
@@ -9957,7 +9966,7 @@
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="34"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9984,7 +9993,7 @@
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="36"/>
+      <c r="M66" s="51"/>
       <c r="N66" s="7"/>
       <c r="O66" s="3"/>
       <c r="P66" s="6"/>
@@ -9993,7 +10002,7 @@
       <c r="S66" s="8"/>
       <c r="U66" s="32"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="36"/>
+      <c r="W66" s="51"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
@@ -10004,7 +10013,7 @@
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="34"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10031,7 +10040,7 @@
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="36"/>
+      <c r="M67" s="51"/>
       <c r="N67" s="7"/>
       <c r="O67" s="3"/>
       <c r="P67" s="6"/>
@@ -10040,7 +10049,7 @@
       <c r="S67" s="8"/>
       <c r="U67" s="32"/>
       <c r="V67" s="5"/>
-      <c r="W67" s="36"/>
+      <c r="W67" s="51"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
@@ -10051,7 +10060,7 @@
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="34"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10078,7 +10087,7 @@
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="36"/>
+      <c r="M68" s="51"/>
       <c r="N68" s="7"/>
       <c r="O68" s="3"/>
       <c r="P68" s="6"/>
@@ -10087,7 +10096,7 @@
       <c r="S68" s="8"/>
       <c r="U68" s="32"/>
       <c r="V68" s="5"/>
-      <c r="W68" s="36"/>
+      <c r="W68" s="51"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
@@ -10098,7 +10107,7 @@
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="34"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10125,7 +10134,7 @@
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="36"/>
+      <c r="M69" s="51"/>
       <c r="N69" s="7"/>
       <c r="O69" s="3"/>
       <c r="P69" s="6"/>
@@ -10134,7 +10143,7 @@
       <c r="S69" s="8"/>
       <c r="U69" s="32"/>
       <c r="V69" s="5"/>
-      <c r="W69" s="36"/>
+      <c r="W69" s="51"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
@@ -10145,7 +10154,7 @@
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="34"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10172,7 +10181,7 @@
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="36"/>
+      <c r="M70" s="51"/>
       <c r="N70" s="7"/>
       <c r="O70" s="3"/>
       <c r="P70" s="6"/>
@@ -10181,7 +10190,7 @@
       <c r="S70" s="8"/>
       <c r="U70" s="32"/>
       <c r="V70" s="5"/>
-      <c r="W70" s="36"/>
+      <c r="W70" s="51"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -10192,7 +10201,7 @@
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="34"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10219,7 +10228,7 @@
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="36"/>
+      <c r="M71" s="51"/>
       <c r="N71" s="7"/>
       <c r="O71" s="3"/>
       <c r="P71" s="6"/>
@@ -10228,7 +10237,7 @@
       <c r="S71" s="8"/>
       <c r="U71" s="32"/>
       <c r="V71" s="5"/>
-      <c r="W71" s="36"/>
+      <c r="W71" s="51"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -10239,7 +10248,7 @@
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="34"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10266,7 +10275,7 @@
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="36"/>
+      <c r="M72" s="51"/>
       <c r="N72" s="7"/>
       <c r="O72" s="3"/>
       <c r="P72" s="6"/>
@@ -10275,7 +10284,7 @@
       <c r="S72" s="8"/>
       <c r="U72" s="32"/>
       <c r="V72" s="5"/>
-      <c r="W72" s="36"/>
+      <c r="W72" s="51"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
@@ -10286,7 +10295,7 @@
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="34"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10313,7 +10322,7 @@
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="36"/>
+      <c r="M73" s="51"/>
       <c r="N73" s="7"/>
       <c r="O73" s="3"/>
       <c r="P73" s="6"/>
@@ -10322,7 +10331,7 @@
       <c r="S73" s="8"/>
       <c r="U73" s="32"/>
       <c r="V73" s="5"/>
-      <c r="W73" s="36"/>
+      <c r="W73" s="51"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
@@ -10333,7 +10342,7 @@
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="34"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10360,7 +10369,7 @@
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="36"/>
+      <c r="M74" s="51"/>
       <c r="N74" s="7"/>
       <c r="O74" s="3"/>
       <c r="P74" s="6"/>
@@ -10369,7 +10378,7 @@
       <c r="S74" s="8"/>
       <c r="U74" s="32"/>
       <c r="V74" s="5"/>
-      <c r="W74" s="36"/>
+      <c r="W74" s="51"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
@@ -10380,7 +10389,7 @@
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="34"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10407,7 +10416,7 @@
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="36"/>
+      <c r="M75" s="51"/>
       <c r="N75" s="7"/>
       <c r="O75" s="3"/>
       <c r="P75" s="6"/>
@@ -10416,7 +10425,7 @@
       <c r="S75" s="8"/>
       <c r="U75" s="32"/>
       <c r="V75" s="5"/>
-      <c r="W75" s="36"/>
+      <c r="W75" s="51"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
@@ -10427,7 +10436,7 @@
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="32"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="34"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10454,7 +10463,7 @@
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="36"/>
+      <c r="M76" s="51"/>
       <c r="N76" s="7"/>
       <c r="O76" s="3"/>
       <c r="P76" s="6"/>
@@ -10463,7 +10472,7 @@
       <c r="S76" s="8"/>
       <c r="U76" s="32"/>
       <c r="V76" s="5"/>
-      <c r="W76" s="36"/>
+      <c r="W76" s="51"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
@@ -10474,7 +10483,7 @@
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="34"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10501,7 +10510,7 @@
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="36"/>
+      <c r="M77" s="51"/>
       <c r="N77" s="7"/>
       <c r="O77" s="3"/>
       <c r="P77" s="6"/>
@@ -10510,7 +10519,7 @@
       <c r="S77" s="8"/>
       <c r="U77" s="32"/>
       <c r="V77" s="5"/>
-      <c r="W77" s="36"/>
+      <c r="W77" s="51"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
@@ -10521,7 +10530,7 @@
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="34"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10548,7 +10557,7 @@
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="36"/>
+      <c r="M78" s="51"/>
       <c r="N78" s="7"/>
       <c r="O78" s="3"/>
       <c r="P78" s="6"/>
@@ -10557,7 +10566,7 @@
       <c r="S78" s="8"/>
       <c r="U78" s="32"/>
       <c r="V78" s="5"/>
-      <c r="W78" s="36"/>
+      <c r="W78" s="51"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
@@ -10568,7 +10577,7 @@
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="34"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10595,7 +10604,7 @@
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="36"/>
+      <c r="M79" s="51"/>
       <c r="N79" s="7"/>
       <c r="O79" s="3"/>
       <c r="P79" s="6"/>
@@ -10604,7 +10613,7 @@
       <c r="S79" s="8"/>
       <c r="U79" s="32"/>
       <c r="V79" s="5"/>
-      <c r="W79" s="36"/>
+      <c r="W79" s="51"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
@@ -10615,7 +10624,7 @@
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="32"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="34"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10642,7 +10651,7 @@
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="36"/>
+      <c r="M80" s="51"/>
       <c r="N80" s="7"/>
       <c r="O80" s="3"/>
       <c r="P80" s="6"/>
@@ -10651,7 +10660,7 @@
       <c r="S80" s="8"/>
       <c r="U80" s="32"/>
       <c r="V80" s="5"/>
-      <c r="W80" s="36"/>
+      <c r="W80" s="51"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
@@ -10662,7 +10671,7 @@
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="32"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="34"/>
+      <c r="C81" s="49"/>
       <c r="D81" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10689,7 +10698,7 @@
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="36"/>
+      <c r="M81" s="51"/>
       <c r="N81" s="7"/>
       <c r="O81" s="3"/>
       <c r="P81" s="6"/>
@@ -10698,7 +10707,7 @@
       <c r="S81" s="8"/>
       <c r="U81" s="32"/>
       <c r="V81" s="5"/>
-      <c r="W81" s="36"/>
+      <c r="W81" s="51"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
@@ -10709,7 +10718,7 @@
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="34"/>
+      <c r="C82" s="49"/>
       <c r="D82" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10736,7 +10745,7 @@
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="36"/>
+      <c r="M82" s="51"/>
       <c r="N82" s="7"/>
       <c r="O82" s="3"/>
       <c r="P82" s="6"/>
@@ -10745,7 +10754,7 @@
       <c r="S82" s="8"/>
       <c r="U82" s="32"/>
       <c r="V82" s="5"/>
-      <c r="W82" s="36"/>
+      <c r="W82" s="51"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
@@ -10756,7 +10765,7 @@
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="32"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="34"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10783,7 +10792,7 @@
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="36"/>
+      <c r="M83" s="51"/>
       <c r="N83" s="7"/>
       <c r="O83" s="3"/>
       <c r="P83" s="6"/>
@@ -10792,7 +10801,7 @@
       <c r="S83" s="8"/>
       <c r="U83" s="32"/>
       <c r="V83" s="5"/>
-      <c r="W83" s="36"/>
+      <c r="W83" s="51"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
@@ -10803,7 +10812,7 @@
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="32"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="34"/>
+      <c r="C84" s="49"/>
       <c r="D84" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10830,7 +10839,7 @@
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="36"/>
+      <c r="M84" s="51"/>
       <c r="N84" s="7"/>
       <c r="O84" s="3"/>
       <c r="P84" s="6"/>
@@ -10839,7 +10848,7 @@
       <c r="S84" s="8"/>
       <c r="U84" s="32"/>
       <c r="V84" s="5"/>
-      <c r="W84" s="36"/>
+      <c r="W84" s="51"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
@@ -10860,12 +10869,12 @@
     <mergeCell ref="U3:W3"/>
   </mergeCells>
   <conditionalFormatting sqref="C86:H204 D5:I84">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I84">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThanOrEqual">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/vma_nginx_automation_results_template.xlsx
+++ b/vma_nginx_automation_results_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\simonra\tools\nginx\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58CFED-86B4-4052-AAA1-0EC0969A0F87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7E9E20-771E-4FBB-A7E2-8359E9F35005}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CDEA9967-368D-4D1E-9A91-3E5AE540AC71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDEA9967-368D-4D1E-9A91-3E5AE540AC71}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel vs VMA" sheetId="3" r:id="rId1"/>
@@ -900,6 +900,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="16" borderId="20" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,10 +949,6 @@
     <xf numFmtId="2" fontId="16" fillId="32" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -997,6 +997,166 @@
   </cellStyles>
   <dxfs count="72">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -1020,6 +1180,418 @@
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1098,6 +1670,227 @@
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1134,10 +1927,197 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
@@ -1152,6 +2132,197 @@
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1214,1177 +2385,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -2478,24 +2478,24 @@
   <autoFilter ref="A4:I84" xr:uid="{467C5C3E-61C6-41CD-B8E5-AD42EEC4E543}"/>
   <tableColumns count="9">
     <tableColumn id="10" xr3:uid="{FF0EEBD1-C25C-474D-A0B9-7A444B7EF30E}" name="Workers" dataDxfId="66" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{0871BA71-6922-4136-A6E8-FFE3136F10C6}" name="File" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{BBDDC5AC-4F84-4339-8B1B-390FD0E02129}" name="Connections" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{321649AB-4843-42F9-9B4F-0AAE9968CBEE}" name="Throughput[Gbps]" dataDxfId="65" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{0871BA71-6922-4136-A6E8-FFE3136F10C6}" name="File" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{BBDDC5AC-4F84-4339-8B1B-390FD0E02129}" name="Connections" dataDxfId="64" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{321649AB-4843-42F9-9B4F-0AAE9968CBEE}" name="Throughput[Gbps]" dataDxfId="63" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AB9D4CA1-2DAD-4F3B-BEE8-A5D23F1F0AB0}" name="Requests[RPS]" dataDxfId="64" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{AB9D4CA1-2DAD-4F3B-BEE8-A5D23F1F0AB0}" name="Requests[RPS]" dataDxfId="62" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table142[[#This Row],[Requests'[RPS']]]-Table14[[#This Row],[Requests'[RPS']]])/Table14[[#This Row],[Requests'[RPS']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4BB1A59F-B3DF-46B3-B292-DBBBAFD82688}" name="Concurrent Connections" dataDxfId="63" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{4BB1A59F-B3DF-46B3-B292-DBBBAFD82688}" name="Concurrent Connections" dataDxfId="61" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table142[[#This Row],[Concurrent Connections]]-Table14[[#This Row],[Concurrent Connections]])/Table14[[#This Row],[Concurrent Connections]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{61DCF569-DB4D-4E9B-9677-2F5EB0DE5C08}" name="CPU[%]" dataDxfId="62" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{61DCF569-DB4D-4E9B-9677-2F5EB0DE5C08}" name="CPU[%]" dataDxfId="60" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table14[[#This Row],[CPU'[%']]]-Table142[[#This Row],[CPU'[%']]])/Table142[[#This Row],[CPU'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9243F50B-1F91-4172-BA16-F1952802B1D8}" name="CPU/Gbps[%]" dataDxfId="61" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{9243F50B-1F91-4172-BA16-F1952802B1D8}" name="CPU/Gbps[%]" dataDxfId="59" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table14[[#This Row],[CPU/Gbps'[%']]]-Table142[[#This Row],[CPU/Gbps'[%']]])/Table142[[#This Row],[CPU/Gbps'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BEC83FEF-7D4D-438A-958A-12DEF9E768D2}" name="CPU/RPS[%]" dataDxfId="60" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{BEC83FEF-7D4D-438A-958A-12DEF9E768D2}" name="CPU/RPS[%]" dataDxfId="58" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table14[[#This Row],[CPU/RPS'[%']]]-Table142[[#This Row],[CPU/RPS'[%']]])/Table142[[#This Row],[CPU/RPS'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2504,64 +2504,64 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00E5F1BF-9231-4A78-B37E-CD3D6AD8A5F4}" name="Table14" displayName="Table14" ref="K4:S84" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00E5F1BF-9231-4A78-B37E-CD3D6AD8A5F4}" name="Table14" displayName="Table14" ref="K4:S84" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="56" dataCellStyle="Comma">
   <autoFilter ref="K4:S84" xr:uid="{85E040C1-2D37-4DD6-B0B5-D74C84FDDCD6}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{6B3BB97F-40AA-44CB-AD0B-C0DD12DF754B}" name="Workers" dataDxfId="57" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{3A596707-B87F-46D8-B9B5-783E4B2F6CE2}" name="File" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{73672578-8553-40F0-BF73-FC7BBFFEB165}" name="Connections" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{4065B148-1A23-4582-BFC1-1C2A2490F29B}" name="Throughput[Gbps]" dataDxfId="56" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E82AD12B-9E7B-4E80-B07C-8CFB05246641}" name="Requests[RPS]" dataDxfId="55" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{A434918F-9200-4557-A610-595D7507FFE5}" name="Concurrent Connections" dataDxfId="54" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{42F03FC7-3863-403E-A089-34FCD5AFF133}" name="CPU[%]" dataDxfId="53" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EE4DB8FD-6749-443F-89E8-7D8DDF4932FD}" name="CPU/Gbps[%]" dataDxfId="52" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{AAC6443F-0D66-4D7A-907B-532B0E798815}" name="CPU/RPS[%]" dataDxfId="51" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{6B3BB97F-40AA-44CB-AD0B-C0DD12DF754B}" name="Workers" dataDxfId="55" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{3A596707-B87F-46D8-B9B5-783E4B2F6CE2}" name="File" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{73672578-8553-40F0-BF73-FC7BBFFEB165}" name="Connections" dataDxfId="53" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{4065B148-1A23-4582-BFC1-1C2A2490F29B}" name="Throughput[Gbps]" dataDxfId="52" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E82AD12B-9E7B-4E80-B07C-8CFB05246641}" name="Requests[RPS]" dataDxfId="51" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{A434918F-9200-4557-A610-595D7507FFE5}" name="Concurrent Connections" dataDxfId="50" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{42F03FC7-3863-403E-A089-34FCD5AFF133}" name="CPU[%]" dataDxfId="49" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EE4DB8FD-6749-443F-89E8-7D8DDF4932FD}" name="CPU/Gbps[%]" dataDxfId="48" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{AAC6443F-0D66-4D7A-907B-532B0E798815}" name="CPU/RPS[%]" dataDxfId="47" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08B975D-68F1-46DC-8849-9E415DA88B79}" name="Table142" displayName="Table142" ref="U4:AC84" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08B975D-68F1-46DC-8849-9E415DA88B79}" name="Table142" displayName="Table142" ref="U4:AC84" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" dataCellStyle="Comma">
   <autoFilter ref="U4:AC84" xr:uid="{53F3EF40-0473-4CEF-A2FA-A5326FE07A42}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{9EF84575-8C30-4A98-BF1B-7A58772C4BD5}" name="Workers" dataDxfId="48" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{ED1BA587-7608-492A-9AE3-D19FE7AAE74B}" name="File" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C60166A3-6895-4FBF-8261-54302FEF2B4E}" name="Connections" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{6FA8BDE0-18A8-48D4-AE80-1CDC5CA2C8BB}" name="Throughput[Gbps]" dataDxfId="47" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C195FAB3-A7AB-4BFA-802D-3FC3AB5DEB87}" name="Requests[RPS]" dataDxfId="46" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{43C14FD6-1EC3-42F2-81F0-2E39FA50C799}" name="Concurrent Connections" dataDxfId="45" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{B37B812D-6B2B-47AD-9748-D079D5F39C8C}" name="CPU[%]" dataDxfId="44" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{94A6B269-EAD9-4D6A-8ABC-656D7CB3AE13}" name="CPU/Gbps[%]" dataDxfId="43" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{68BE4986-129A-4C04-803F-4FB8E1A369C7}" name="CPU/RPS[%]" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{9EF84575-8C30-4A98-BF1B-7A58772C4BD5}" name="Workers" dataDxfId="44" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{ED1BA587-7608-492A-9AE3-D19FE7AAE74B}" name="File" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{C60166A3-6895-4FBF-8261-54302FEF2B4E}" name="Connections" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{6FA8BDE0-18A8-48D4-AE80-1CDC5CA2C8BB}" name="Throughput[Gbps]" dataDxfId="41" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C195FAB3-A7AB-4BFA-802D-3FC3AB5DEB87}" name="Requests[RPS]" dataDxfId="40" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{43C14FD6-1EC3-42F2-81F0-2E39FA50C799}" name="Concurrent Connections" dataDxfId="39" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{B37B812D-6B2B-47AD-9748-D079D5F39C8C}" name="CPU[%]" dataDxfId="38" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{94A6B269-EAD9-4D6A-8ABC-656D7CB3AE13}" name="CPU/Gbps[%]" dataDxfId="37" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{68BE4986-129A-4C04-803F-4FB8E1A369C7}" name="CPU/RPS[%]" dataDxfId="36" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70981190-D163-4B4F-9E92-3E805D5C00BB}" name="Table1463" displayName="Table1463" ref="A4:I84" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70981190-D163-4B4F-9E92-3E805D5C00BB}" name="Table1463" displayName="Table1463" ref="A4:I84" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
   <autoFilter ref="A4:I84" xr:uid="{8B88463D-CFD0-49B0-90B0-05DAC137F60C}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{4FF9EDDA-3833-447D-A388-8F5B2C02E64E}" name="Workers" dataDxfId="36" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{6945879B-635B-4AE8-872A-D16862F6ED66}" name="File" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{549EBCCB-02D2-4251-9EAF-DDCA724E592B}" name="Connections" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{AB4A660D-4D7F-4789-9008-A56BFD1F325D}" name="Throughput[Gbps]" dataDxfId="35" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4FF9EDDA-3833-447D-A388-8F5B2C02E64E}" name="Workers" dataDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6945879B-635B-4AE8-872A-D16862F6ED66}" name="File" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{549EBCCB-02D2-4251-9EAF-DDCA724E592B}" name="Connections" dataDxfId="28" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{AB4A660D-4D7F-4789-9008-A56BFD1F325D}" name="Throughput[Gbps]" dataDxfId="27" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1CA2B4E2-B42F-41F5-B642-44443AB5CE89}" name="Requests[RPS]" dataDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{1CA2B4E2-B42F-41F5-B642-44443AB5CE89}" name="Requests[RPS]" dataDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Requests'[RPS']]]-Table145[[#This Row],[Requests'[RPS']]])/Table145[[#This Row],[Requests'[RPS']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{171EC064-96E0-4591-A352-15EEF3A5673A}" name="Concurrent Connections" dataDxfId="33" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{171EC064-96E0-4591-A352-15EEF3A5673A}" name="Concurrent Connections" dataDxfId="25" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Concurrent Connections]]-Table145[[#This Row],[Concurrent Connections]])/Table145[[#This Row],[Concurrent Connections]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9ABC272A-2D9E-42B0-843C-DD4944E31125}" name="CPU[%]" dataDxfId="32" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{9ABC272A-2D9E-42B0-843C-DD4944E31125}" name="CPU[%]" dataDxfId="24" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU'[%']]]-Table1427[[#This Row],[CPU'[%']]])/Table1427[[#This Row],[CPU'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1B3C2736-9CAE-4B7A-9456-A8FED3C20D50}" name="CPU/Gbps[%]" dataDxfId="31" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{1B3C2736-9CAE-4B7A-9456-A8FED3C20D50}" name="CPU/Gbps[%]" dataDxfId="23" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU/Gbps'[%']]]-Table1427[[#This Row],[CPU/Gbps'[%']]])/Table1427[[#This Row],[CPU/Gbps'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{829EE037-91D9-490D-BBC7-D513D8B14DCD}" name="CPU/RPS[%]" dataDxfId="30" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{829EE037-91D9-490D-BBC7-D513D8B14DCD}" name="CPU/RPS[%]" dataDxfId="22" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU/RPS'[%']]]-Table1427[[#This Row],[CPU/RPS'[%']]])/Table1427[[#This Row],[CPU/RPS'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2570,36 +2570,36 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8A02F56A-6D8C-414F-9385-10EDB5B8101F}" name="Table145" displayName="Table145" ref="K4:S84" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8A02F56A-6D8C-414F-9385-10EDB5B8101F}" name="Table145" displayName="Table145" ref="K4:S84" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" dataCellStyle="Comma">
   <autoFilter ref="K4:S84" xr:uid="{19944A0A-D5AB-4E11-81FF-07640B56A977}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{D0DBD1F2-CCA8-49C8-A600-A9895569C505}" name="Workers" dataDxfId="27" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{67BB9A8E-1B91-46CD-AE14-400C746449BE}" name="File" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{A739C08D-0028-4CAB-B842-E86E010843E7}" name="Connections" dataDxfId="25" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{22750044-C840-4268-B3BD-7F75A98E905F}" name="Throughput[Gbps]" dataDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{7C3861D2-92DE-496D-85B2-FD3833D2CB94}" name="Requests[RPS]" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{C866B3EF-EF3F-47CF-8386-AFCEF8A0C629}" name="Concurrent Connections" dataDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{56C2689B-3CD7-4E32-A192-416CE5E34014}" name="CPU[%]" dataDxfId="21" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{8BB7062E-D1F6-42A2-8024-837EE69180DB}" name="CPU/Gbps[%]" dataDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{79CC2B33-AC5E-4193-8BDE-8E890D75E630}" name="CPU/RPS[%]" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{D0DBD1F2-CCA8-49C8-A600-A9895569C505}" name="Workers" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{67BB9A8E-1B91-46CD-AE14-400C746449BE}" name="File" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{A739C08D-0028-4CAB-B842-E86E010843E7}" name="Connections" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{22750044-C840-4268-B3BD-7F75A98E905F}" name="Throughput[Gbps]" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7C3861D2-92DE-496D-85B2-FD3833D2CB94}" name="Requests[RPS]" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{C866B3EF-EF3F-47CF-8386-AFCEF8A0C629}" name="Concurrent Connections" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{56C2689B-3CD7-4E32-A192-416CE5E34014}" name="CPU[%]" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{8BB7062E-D1F6-42A2-8024-837EE69180DB}" name="CPU/Gbps[%]" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{79CC2B33-AC5E-4193-8BDE-8E890D75E630}" name="CPU/RPS[%]" dataDxfId="11" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA5EF2A2-C615-48AE-801B-E895375B7A2D}" name="Table1427" displayName="Table1427" ref="U4:AC84" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA5EF2A2-C615-48AE-801B-E895375B7A2D}" name="Table1427" displayName="Table1427" ref="U4:AC84" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" dataCellStyle="Comma">
   <autoFilter ref="U4:AC84" xr:uid="{2A4D145D-3E80-49EC-9E1A-C20755337594}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{C07B5643-19BC-4EBC-A48B-061E2B4E38C9}" name="Workers" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{BC7C6989-0264-48A1-87F9-9A55BB734236}" name="File" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D5D128D0-4D78-43DD-8B47-56DE53D51713}" name="Connections" dataDxfId="0" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{F9A4C812-3A1A-45E3-ACA4-A43538A4F909}" name="Throughput[Gbps]" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{FB323939-DB72-42A5-AFFB-2CFCEA95AEBE}" name="Requests[RPS]" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FB4237C5-C15C-4B5E-B1BA-2E100898828A}" name="Concurrent Connections" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{73CC4A3D-8EB2-40E7-8617-B78294EA9BE5}" name="CPU[%]" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EEA3B39F-C51C-4813-8B07-C14F79C77DD0}" name="CPU/Gbps[%]" dataDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{86C0766C-525A-43A1-B3D6-D7C7A60B94AF}" name="CPU/RPS[%]" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{C07B5643-19BC-4EBC-A48B-061E2B4E38C9}" name="Workers" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{BC7C6989-0264-48A1-87F9-9A55BB734236}" name="File" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D5D128D0-4D78-43DD-8B47-56DE53D51713}" name="Connections" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{F9A4C812-3A1A-45E3-ACA4-A43538A4F909}" name="Throughput[Gbps]" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{FB323939-DB72-42A5-AFFB-2CFCEA95AEBE}" name="Requests[RPS]" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FB4237C5-C15C-4B5E-B1BA-2E100898828A}" name="Concurrent Connections" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{73CC4A3D-8EB2-40E7-8617-B78294EA9BE5}" name="CPU[%]" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EEA3B39F-C51C-4813-8B07-C14F79C77DD0}" name="CPU/Gbps[%]" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{86C0766C-525A-43A1-B3D6-D7C7A60B94AF}" name="CPU/RPS[%]" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2904,8 +2904,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB86FFA-E82D-4EB3-B86A-EF8BD2E99E06}">
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="W5" activeCellId="2" sqref="C5:C84 M5:M84 W5:W84"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2944,80 +2946,80 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="K2" s="33" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="35"/>
-      <c r="U2" s="33" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="U2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="35"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="39"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="K3" s="44" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="K3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="46"/>
-      <c r="U3" s="44" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="50"/>
+      <c r="U3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="36" t="s">
+      <c r="V3" s="49"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="38"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="42"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -3105,7 +3107,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="18" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3132,7 +3134,7 @@
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="50"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="13"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
@@ -3141,7 +3143,7 @@
       <c r="S5" s="28"/>
       <c r="U5" s="31"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="50"/>
+      <c r="W5" s="35"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
@@ -3152,7 +3154,7 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="49"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3179,7 +3181,7 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="51"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="10"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -3188,7 +3190,7 @@
       <c r="S6" s="11"/>
       <c r="U6" s="32"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="51"/>
+      <c r="W6" s="36"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -3199,7 +3201,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3226,7 +3228,7 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="51"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="10"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -3235,7 +3237,7 @@
       <c r="S7" s="11"/>
       <c r="U7" s="32"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="51"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
@@ -3246,7 +3248,7 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="49"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3273,7 +3275,7 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="51"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="10"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -3282,7 +3284,7 @@
       <c r="S8" s="11"/>
       <c r="U8" s="32"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="51"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -3293,7 +3295,7 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3320,7 +3322,7 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="51"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="10"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -3329,7 +3331,7 @@
       <c r="S9" s="11"/>
       <c r="U9" s="32"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="51"/>
+      <c r="W9" s="36"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
@@ -3340,7 +3342,7 @@
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="49"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3367,7 +3369,7 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="51"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="10"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -3376,7 +3378,7 @@
       <c r="S10" s="11"/>
       <c r="U10" s="32"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="51"/>
+      <c r="W10" s="36"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -3387,7 +3389,7 @@
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3414,7 +3416,7 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="51"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="10"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -3423,7 +3425,7 @@
       <c r="S11" s="11"/>
       <c r="U11" s="32"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="51"/>
+      <c r="W11" s="36"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
@@ -3434,7 +3436,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3461,7 +3463,7 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="51"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="10"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -3470,7 +3472,7 @@
       <c r="S12" s="11"/>
       <c r="U12" s="32"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="51"/>
+      <c r="W12" s="36"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -3481,7 +3483,7 @@
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3508,7 +3510,7 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="51"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="10"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -3517,7 +3519,7 @@
       <c r="S13" s="11"/>
       <c r="U13" s="32"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="51"/>
+      <c r="W13" s="36"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -3528,7 +3530,7 @@
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="49"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3555,7 +3557,7 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="51"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="10"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -3564,7 +3566,7 @@
       <c r="S14" s="11"/>
       <c r="U14" s="32"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="51"/>
+      <c r="W14" s="36"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -3575,7 +3577,7 @@
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="49"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3602,7 +3604,7 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="51"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="7"/>
       <c r="O15" s="3"/>
       <c r="P15" s="6"/>
@@ -3611,7 +3613,7 @@
       <c r="S15" s="8"/>
       <c r="U15" s="32"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="51"/>
+      <c r="W15" s="36"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -3622,7 +3624,7 @@
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3649,7 +3651,7 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="51"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="7"/>
       <c r="O16" s="3"/>
       <c r="P16" s="6"/>
@@ -3658,7 +3660,7 @@
       <c r="S16" s="8"/>
       <c r="U16" s="32"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="51"/>
+      <c r="W16" s="36"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -3669,7 +3671,7 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="49"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3696,7 +3698,7 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="51"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="7"/>
       <c r="O17" s="3"/>
       <c r="P17" s="6"/>
@@ -3705,7 +3707,7 @@
       <c r="S17" s="8"/>
       <c r="U17" s="32"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="51"/>
+      <c r="W17" s="36"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -3716,7 +3718,7 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="49"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3743,7 +3745,7 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="51"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="7"/>
       <c r="O18" s="3"/>
       <c r="P18" s="6"/>
@@ -3752,7 +3754,7 @@
       <c r="S18" s="8"/>
       <c r="U18" s="32"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="51"/>
+      <c r="W18" s="36"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -3763,7 +3765,7 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3790,7 +3792,7 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="51"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="7"/>
       <c r="O19" s="3"/>
       <c r="P19" s="6"/>
@@ -3799,7 +3801,7 @@
       <c r="S19" s="8"/>
       <c r="U19" s="32"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="51"/>
+      <c r="W19" s="36"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -3810,7 +3812,7 @@
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3837,7 +3839,7 @@
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="51"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="7"/>
       <c r="O20" s="3"/>
       <c r="P20" s="6"/>
@@ -3846,7 +3848,7 @@
       <c r="S20" s="8"/>
       <c r="U20" s="32"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="51"/>
+      <c r="W20" s="36"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -3857,7 +3859,7 @@
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3884,7 +3886,7 @@
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="51"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="7"/>
       <c r="O21" s="3"/>
       <c r="P21" s="6"/>
@@ -3893,7 +3895,7 @@
       <c r="S21" s="8"/>
       <c r="U21" s="32"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="51"/>
+      <c r="W21" s="36"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -3904,7 +3906,7 @@
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3931,7 +3933,7 @@
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="51"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="7"/>
       <c r="O22" s="3"/>
       <c r="P22" s="6"/>
@@ -3940,7 +3942,7 @@
       <c r="S22" s="8"/>
       <c r="U22" s="32"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="51"/>
+      <c r="W22" s="36"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -3951,7 +3953,7 @@
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -3978,7 +3980,7 @@
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="51"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="7"/>
       <c r="O23" s="3"/>
       <c r="P23" s="6"/>
@@ -3987,7 +3989,7 @@
       <c r="S23" s="8"/>
       <c r="U23" s="32"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="51"/>
+      <c r="W23" s="36"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -3998,7 +4000,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="49"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4025,7 +4027,7 @@
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="51"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="7"/>
       <c r="O24" s="3"/>
       <c r="P24" s="6"/>
@@ -4034,7 +4036,7 @@
       <c r="S24" s="8"/>
       <c r="U24" s="32"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="51"/>
+      <c r="W24" s="36"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -4045,7 +4047,7 @@
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="49"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4072,7 +4074,7 @@
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="51"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="7"/>
       <c r="O25" s="3"/>
       <c r="P25" s="6"/>
@@ -4081,7 +4083,7 @@
       <c r="S25" s="8"/>
       <c r="U25" s="32"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="51"/>
+      <c r="W25" s="36"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -4092,7 +4094,7 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="49"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4119,7 +4121,7 @@
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="51"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="7"/>
       <c r="O26" s="3"/>
       <c r="P26" s="6"/>
@@ -4128,7 +4130,7 @@
       <c r="S26" s="8"/>
       <c r="U26" s="32"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="51"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -4139,7 +4141,7 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4166,7 +4168,7 @@
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="51"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="7"/>
       <c r="O27" s="3"/>
       <c r="P27" s="6"/>
@@ -4175,7 +4177,7 @@
       <c r="S27" s="8"/>
       <c r="U27" s="32"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="51"/>
+      <c r="W27" s="36"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -4186,7 +4188,7 @@
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4213,7 +4215,7 @@
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="51"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="7"/>
       <c r="O28" s="3"/>
       <c r="P28" s="6"/>
@@ -4222,7 +4224,7 @@
       <c r="S28" s="8"/>
       <c r="U28" s="32"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="51"/>
+      <c r="W28" s="36"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
@@ -4233,7 +4235,7 @@
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="49"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4260,7 +4262,7 @@
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="51"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="7"/>
       <c r="O29" s="3"/>
       <c r="P29" s="6"/>
@@ -4269,7 +4271,7 @@
       <c r="S29" s="8"/>
       <c r="U29" s="32"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="51"/>
+      <c r="W29" s="36"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
@@ -4280,7 +4282,7 @@
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="49"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4307,7 +4309,7 @@
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="51"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="7"/>
       <c r="O30" s="3"/>
       <c r="P30" s="6"/>
@@ -4316,7 +4318,7 @@
       <c r="S30" s="8"/>
       <c r="U30" s="32"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="51"/>
+      <c r="W30" s="36"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
@@ -4327,7 +4329,7 @@
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4354,7 +4356,7 @@
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="51"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="7"/>
       <c r="O31" s="3"/>
       <c r="P31" s="6"/>
@@ -4363,7 +4365,7 @@
       <c r="S31" s="8"/>
       <c r="U31" s="32"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="51"/>
+      <c r="W31" s="36"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
@@ -4374,7 +4376,7 @@
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="49"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4401,7 +4403,7 @@
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="51"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="7"/>
       <c r="O32" s="3"/>
       <c r="P32" s="6"/>
@@ -4410,7 +4412,7 @@
       <c r="S32" s="8"/>
       <c r="U32" s="32"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="51"/>
+      <c r="W32" s="36"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -4421,7 +4423,7 @@
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="49"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4448,7 +4450,7 @@
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="51"/>
+      <c r="M33" s="36"/>
       <c r="N33" s="7"/>
       <c r="O33" s="3"/>
       <c r="P33" s="6"/>
@@ -4457,7 +4459,7 @@
       <c r="S33" s="8"/>
       <c r="U33" s="32"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="51"/>
+      <c r="W33" s="36"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -4468,7 +4470,7 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="49"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4495,7 +4497,7 @@
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="51"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="7"/>
       <c r="O34" s="3"/>
       <c r="P34" s="6"/>
@@ -4504,7 +4506,7 @@
       <c r="S34" s="8"/>
       <c r="U34" s="32"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="51"/>
+      <c r="W34" s="36"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -4515,7 +4517,7 @@
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="49"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4542,7 +4544,7 @@
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="51"/>
+      <c r="M35" s="36"/>
       <c r="N35" s="7"/>
       <c r="O35" s="3"/>
       <c r="P35" s="6"/>
@@ -4551,7 +4553,7 @@
       <c r="S35" s="8"/>
       <c r="U35" s="32"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="51"/>
+      <c r="W35" s="36"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
@@ -4562,7 +4564,7 @@
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="49"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4589,7 +4591,7 @@
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="51"/>
+      <c r="M36" s="36"/>
       <c r="N36" s="7"/>
       <c r="O36" s="3"/>
       <c r="P36" s="6"/>
@@ -4598,7 +4600,7 @@
       <c r="S36" s="8"/>
       <c r="U36" s="32"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="51"/>
+      <c r="W36" s="36"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
@@ -4609,7 +4611,7 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="49"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4636,7 +4638,7 @@
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="51"/>
+      <c r="M37" s="36"/>
       <c r="N37" s="7"/>
       <c r="O37" s="3"/>
       <c r="P37" s="6"/>
@@ -4645,7 +4647,7 @@
       <c r="S37" s="8"/>
       <c r="U37" s="32"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="51"/>
+      <c r="W37" s="36"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
@@ -4656,7 +4658,7 @@
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="49"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4683,7 +4685,7 @@
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="7"/>
       <c r="O38" s="3"/>
       <c r="P38" s="6"/>
@@ -4692,7 +4694,7 @@
       <c r="S38" s="8"/>
       <c r="U38" s="32"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="51"/>
+      <c r="W38" s="36"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -4703,7 +4705,7 @@
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="49"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4730,7 +4732,7 @@
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="51"/>
+      <c r="M39" s="36"/>
       <c r="N39" s="7"/>
       <c r="O39" s="3"/>
       <c r="P39" s="6"/>
@@ -4739,7 +4741,7 @@
       <c r="S39" s="8"/>
       <c r="U39" s="32"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="51"/>
+      <c r="W39" s="36"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -4750,7 +4752,7 @@
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="49"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4777,7 +4779,7 @@
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="51"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="7"/>
       <c r="O40" s="3"/>
       <c r="P40" s="6"/>
@@ -4786,7 +4788,7 @@
       <c r="S40" s="8"/>
       <c r="U40" s="32"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="51"/>
+      <c r="W40" s="36"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -4797,7 +4799,7 @@
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="49"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4824,7 +4826,7 @@
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="51"/>
+      <c r="M41" s="36"/>
       <c r="N41" s="7"/>
       <c r="O41" s="3"/>
       <c r="P41" s="6"/>
@@ -4833,7 +4835,7 @@
       <c r="S41" s="8"/>
       <c r="U41" s="32"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="51"/>
+      <c r="W41" s="36"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -4844,7 +4846,7 @@
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="49"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4871,7 +4873,7 @@
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="51"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="7"/>
       <c r="O42" s="3"/>
       <c r="P42" s="6"/>
@@ -4880,7 +4882,7 @@
       <c r="S42" s="8"/>
       <c r="U42" s="32"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="51"/>
+      <c r="W42" s="36"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
@@ -4891,7 +4893,7 @@
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="49"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4918,7 +4920,7 @@
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="51"/>
+      <c r="M43" s="36"/>
       <c r="N43" s="7"/>
       <c r="O43" s="3"/>
       <c r="P43" s="6"/>
@@ -4927,7 +4929,7 @@
       <c r="S43" s="8"/>
       <c r="U43" s="32"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="51"/>
+      <c r="W43" s="36"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
@@ -4938,7 +4940,7 @@
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="49"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4965,7 +4967,7 @@
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="51"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="7"/>
       <c r="O44" s="3"/>
       <c r="P44" s="6"/>
@@ -4974,7 +4976,7 @@
       <c r="S44" s="8"/>
       <c r="U44" s="32"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="51"/>
+      <c r="W44" s="36"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
@@ -4985,7 +4987,7 @@
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="32"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="49"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5012,7 +5014,7 @@
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="51"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="7"/>
       <c r="O45" s="3"/>
       <c r="P45" s="6"/>
@@ -5021,7 +5023,7 @@
       <c r="S45" s="8"/>
       <c r="U45" s="32"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="51"/>
+      <c r="W45" s="36"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -5032,7 +5034,7 @@
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="49"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5059,7 +5061,7 @@
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="51"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="7"/>
       <c r="O46" s="3"/>
       <c r="P46" s="6"/>
@@ -5068,7 +5070,7 @@
       <c r="S46" s="8"/>
       <c r="U46" s="32"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="51"/>
+      <c r="W46" s="36"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -5079,7 +5081,7 @@
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="49"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5106,7 +5108,7 @@
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="51"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="7"/>
       <c r="O47" s="3"/>
       <c r="P47" s="6"/>
@@ -5115,7 +5117,7 @@
       <c r="S47" s="8"/>
       <c r="U47" s="32"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="51"/>
+      <c r="W47" s="36"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -5126,7 +5128,7 @@
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="49"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5153,7 +5155,7 @@
       </c>
       <c r="K48" s="32"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="51"/>
+      <c r="M48" s="36"/>
       <c r="N48" s="7"/>
       <c r="O48" s="3"/>
       <c r="P48" s="6"/>
@@ -5162,7 +5164,7 @@
       <c r="S48" s="8"/>
       <c r="U48" s="32"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="51"/>
+      <c r="W48" s="36"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
@@ -5173,7 +5175,7 @@
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="32"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="49"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5200,7 +5202,7 @@
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="51"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="7"/>
       <c r="O49" s="3"/>
       <c r="P49" s="6"/>
@@ -5209,7 +5211,7 @@
       <c r="S49" s="8"/>
       <c r="U49" s="32"/>
       <c r="V49" s="5"/>
-      <c r="W49" s="51"/>
+      <c r="W49" s="36"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
@@ -5220,7 +5222,7 @@
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="32"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="49"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5247,7 +5249,7 @@
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="51"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="7"/>
       <c r="O50" s="3"/>
       <c r="P50" s="6"/>
@@ -5256,7 +5258,7 @@
       <c r="S50" s="8"/>
       <c r="U50" s="32"/>
       <c r="V50" s="5"/>
-      <c r="W50" s="51"/>
+      <c r="W50" s="36"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -5267,7 +5269,7 @@
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="32"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="49"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5294,7 +5296,7 @@
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="51"/>
+      <c r="M51" s="36"/>
       <c r="N51" s="7"/>
       <c r="O51" s="3"/>
       <c r="P51" s="6"/>
@@ -5303,7 +5305,7 @@
       <c r="S51" s="8"/>
       <c r="U51" s="32"/>
       <c r="V51" s="5"/>
-      <c r="W51" s="51"/>
+      <c r="W51" s="36"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -5314,7 +5316,7 @@
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="32"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="49"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5341,7 +5343,7 @@
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="51"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="7"/>
       <c r="O52" s="3"/>
       <c r="P52" s="6"/>
@@ -5350,7 +5352,7 @@
       <c r="S52" s="8"/>
       <c r="U52" s="32"/>
       <c r="V52" s="5"/>
-      <c r="W52" s="51"/>
+      <c r="W52" s="36"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
@@ -5361,7 +5363,7 @@
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="49"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5388,7 +5390,7 @@
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="51"/>
+      <c r="M53" s="36"/>
       <c r="N53" s="7"/>
       <c r="O53" s="3"/>
       <c r="P53" s="6"/>
@@ -5397,7 +5399,7 @@
       <c r="S53" s="8"/>
       <c r="U53" s="32"/>
       <c r="V53" s="5"/>
-      <c r="W53" s="51"/>
+      <c r="W53" s="36"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
@@ -5408,7 +5410,7 @@
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="49"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5435,7 +5437,7 @@
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="51"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="7"/>
       <c r="O54" s="3"/>
       <c r="P54" s="6"/>
@@ -5444,7 +5446,7 @@
       <c r="S54" s="8"/>
       <c r="U54" s="32"/>
       <c r="V54" s="5"/>
-      <c r="W54" s="51"/>
+      <c r="W54" s="36"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
@@ -5455,7 +5457,7 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="32"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="49"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5482,7 +5484,7 @@
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="51"/>
+      <c r="M55" s="36"/>
       <c r="N55" s="7"/>
       <c r="O55" s="3"/>
       <c r="P55" s="6"/>
@@ -5491,7 +5493,7 @@
       <c r="S55" s="8"/>
       <c r="U55" s="32"/>
       <c r="V55" s="5"/>
-      <c r="W55" s="51"/>
+      <c r="W55" s="36"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
@@ -5502,7 +5504,7 @@
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="32"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="49"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5529,7 +5531,7 @@
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="51"/>
+      <c r="M56" s="36"/>
       <c r="N56" s="7"/>
       <c r="O56" s="3"/>
       <c r="P56" s="6"/>
@@ -5538,7 +5540,7 @@
       <c r="S56" s="8"/>
       <c r="U56" s="32"/>
       <c r="V56" s="5"/>
-      <c r="W56" s="51"/>
+      <c r="W56" s="36"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
@@ -5549,7 +5551,7 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="32"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="49"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5576,7 +5578,7 @@
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="51"/>
+      <c r="M57" s="36"/>
       <c r="N57" s="7"/>
       <c r="O57" s="3"/>
       <c r="P57" s="6"/>
@@ -5585,7 +5587,7 @@
       <c r="S57" s="8"/>
       <c r="U57" s="32"/>
       <c r="V57" s="5"/>
-      <c r="W57" s="51"/>
+      <c r="W57" s="36"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
@@ -5596,7 +5598,7 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="32"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="49"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5623,7 +5625,7 @@
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="51"/>
+      <c r="M58" s="36"/>
       <c r="N58" s="7"/>
       <c r="O58" s="3"/>
       <c r="P58" s="6"/>
@@ -5632,7 +5634,7 @@
       <c r="S58" s="8"/>
       <c r="U58" s="32"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="51"/>
+      <c r="W58" s="36"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
@@ -5643,7 +5645,7 @@
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="32"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="49"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5670,7 +5672,7 @@
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="51"/>
+      <c r="M59" s="36"/>
       <c r="N59" s="7"/>
       <c r="O59" s="3"/>
       <c r="P59" s="6"/>
@@ -5679,7 +5681,7 @@
       <c r="S59" s="8"/>
       <c r="U59" s="32"/>
       <c r="V59" s="5"/>
-      <c r="W59" s="51"/>
+      <c r="W59" s="36"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
@@ -5690,7 +5692,7 @@
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="32"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="49"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5717,7 +5719,7 @@
       </c>
       <c r="K60" s="32"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="51"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="7"/>
       <c r="O60" s="3"/>
       <c r="P60" s="6"/>
@@ -5726,7 +5728,7 @@
       <c r="S60" s="8"/>
       <c r="U60" s="32"/>
       <c r="V60" s="5"/>
-      <c r="W60" s="51"/>
+      <c r="W60" s="36"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -5737,7 +5739,7 @@
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="32"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="49"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5764,7 +5766,7 @@
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="51"/>
+      <c r="M61" s="36"/>
       <c r="N61" s="7"/>
       <c r="O61" s="3"/>
       <c r="P61" s="6"/>
@@ -5773,7 +5775,7 @@
       <c r="S61" s="8"/>
       <c r="U61" s="32"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="51"/>
+      <c r="W61" s="36"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
@@ -5784,7 +5786,7 @@
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="32"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="49"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5811,7 +5813,7 @@
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="51"/>
+      <c r="M62" s="36"/>
       <c r="N62" s="7"/>
       <c r="O62" s="3"/>
       <c r="P62" s="6"/>
@@ -5820,7 +5822,7 @@
       <c r="S62" s="8"/>
       <c r="U62" s="32"/>
       <c r="V62" s="5"/>
-      <c r="W62" s="51"/>
+      <c r="W62" s="36"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
@@ -5831,7 +5833,7 @@
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="49"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5858,7 +5860,7 @@
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="51"/>
+      <c r="M63" s="36"/>
       <c r="N63" s="7"/>
       <c r="O63" s="3"/>
       <c r="P63" s="6"/>
@@ -5867,7 +5869,7 @@
       <c r="S63" s="8"/>
       <c r="U63" s="32"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="51"/>
+      <c r="W63" s="36"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
@@ -5878,7 +5880,7 @@
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="32"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="49"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5905,7 +5907,7 @@
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="51"/>
+      <c r="M64" s="36"/>
       <c r="N64" s="7"/>
       <c r="O64" s="3"/>
       <c r="P64" s="6"/>
@@ -5914,7 +5916,7 @@
       <c r="S64" s="8"/>
       <c r="U64" s="32"/>
       <c r="V64" s="5"/>
-      <c r="W64" s="51"/>
+      <c r="W64" s="36"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
@@ -5925,7 +5927,7 @@
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="49"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5952,7 +5954,7 @@
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="51"/>
+      <c r="M65" s="36"/>
       <c r="N65" s="7"/>
       <c r="O65" s="3"/>
       <c r="P65" s="6"/>
@@ -5961,7 +5963,7 @@
       <c r="S65" s="8"/>
       <c r="U65" s="32"/>
       <c r="V65" s="5"/>
-      <c r="W65" s="51"/>
+      <c r="W65" s="36"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
@@ -5972,7 +5974,7 @@
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="49"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5999,7 +6001,7 @@
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="51"/>
+      <c r="M66" s="36"/>
       <c r="N66" s="7"/>
       <c r="O66" s="3"/>
       <c r="P66" s="6"/>
@@ -6008,7 +6010,7 @@
       <c r="S66" s="8"/>
       <c r="U66" s="32"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="51"/>
+      <c r="W66" s="36"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
@@ -6019,7 +6021,7 @@
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="49"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6046,7 +6048,7 @@
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="51"/>
+      <c r="M67" s="36"/>
       <c r="N67" s="7"/>
       <c r="O67" s="3"/>
       <c r="P67" s="6"/>
@@ -6055,7 +6057,7 @@
       <c r="S67" s="8"/>
       <c r="U67" s="32"/>
       <c r="V67" s="5"/>
-      <c r="W67" s="51"/>
+      <c r="W67" s="36"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
@@ -6066,7 +6068,7 @@
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="49"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6093,7 +6095,7 @@
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="51"/>
+      <c r="M68" s="36"/>
       <c r="N68" s="7"/>
       <c r="O68" s="3"/>
       <c r="P68" s="6"/>
@@ -6102,7 +6104,7 @@
       <c r="S68" s="8"/>
       <c r="U68" s="32"/>
       <c r="V68" s="5"/>
-      <c r="W68" s="51"/>
+      <c r="W68" s="36"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
@@ -6113,7 +6115,7 @@
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="49"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6140,7 +6142,7 @@
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="51"/>
+      <c r="M69" s="36"/>
       <c r="N69" s="7"/>
       <c r="O69" s="3"/>
       <c r="P69" s="6"/>
@@ -6149,7 +6151,7 @@
       <c r="S69" s="8"/>
       <c r="U69" s="32"/>
       <c r="V69" s="5"/>
-      <c r="W69" s="51"/>
+      <c r="W69" s="36"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
@@ -6160,7 +6162,7 @@
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="49"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6187,7 +6189,7 @@
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="51"/>
+      <c r="M70" s="36"/>
       <c r="N70" s="7"/>
       <c r="O70" s="3"/>
       <c r="P70" s="6"/>
@@ -6196,7 +6198,7 @@
       <c r="S70" s="8"/>
       <c r="U70" s="32"/>
       <c r="V70" s="5"/>
-      <c r="W70" s="51"/>
+      <c r="W70" s="36"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -6207,7 +6209,7 @@
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="49"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6234,7 +6236,7 @@
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="51"/>
+      <c r="M71" s="36"/>
       <c r="N71" s="7"/>
       <c r="O71" s="3"/>
       <c r="P71" s="6"/>
@@ -6243,7 +6245,7 @@
       <c r="S71" s="8"/>
       <c r="U71" s="32"/>
       <c r="V71" s="5"/>
-      <c r="W71" s="51"/>
+      <c r="W71" s="36"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -6254,7 +6256,7 @@
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="49"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6281,7 +6283,7 @@
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="51"/>
+      <c r="M72" s="36"/>
       <c r="N72" s="7"/>
       <c r="O72" s="3"/>
       <c r="P72" s="6"/>
@@ -6290,7 +6292,7 @@
       <c r="S72" s="8"/>
       <c r="U72" s="32"/>
       <c r="V72" s="5"/>
-      <c r="W72" s="51"/>
+      <c r="W72" s="36"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
@@ -6301,7 +6303,7 @@
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="49"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6328,7 +6330,7 @@
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="51"/>
+      <c r="M73" s="36"/>
       <c r="N73" s="7"/>
       <c r="O73" s="3"/>
       <c r="P73" s="6"/>
@@ -6337,7 +6339,7 @@
       <c r="S73" s="8"/>
       <c r="U73" s="32"/>
       <c r="V73" s="5"/>
-      <c r="W73" s="51"/>
+      <c r="W73" s="36"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
@@ -6348,7 +6350,7 @@
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="49"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6375,7 +6377,7 @@
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="51"/>
+      <c r="M74" s="36"/>
       <c r="N74" s="7"/>
       <c r="O74" s="3"/>
       <c r="P74" s="6"/>
@@ -6384,7 +6386,7 @@
       <c r="S74" s="8"/>
       <c r="U74" s="32"/>
       <c r="V74" s="5"/>
-      <c r="W74" s="51"/>
+      <c r="W74" s="36"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
@@ -6395,7 +6397,7 @@
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="49"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6422,7 +6424,7 @@
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="51"/>
+      <c r="M75" s="36"/>
       <c r="N75" s="7"/>
       <c r="O75" s="3"/>
       <c r="P75" s="6"/>
@@ -6431,7 +6433,7 @@
       <c r="S75" s="8"/>
       <c r="U75" s="32"/>
       <c r="V75" s="5"/>
-      <c r="W75" s="51"/>
+      <c r="W75" s="36"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
@@ -6442,7 +6444,7 @@
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="32"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="49"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6469,7 +6471,7 @@
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="51"/>
+      <c r="M76" s="36"/>
       <c r="N76" s="7"/>
       <c r="O76" s="3"/>
       <c r="P76" s="6"/>
@@ -6478,7 +6480,7 @@
       <c r="S76" s="8"/>
       <c r="U76" s="32"/>
       <c r="V76" s="5"/>
-      <c r="W76" s="51"/>
+      <c r="W76" s="36"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
@@ -6489,7 +6491,7 @@
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="49"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6516,7 +6518,7 @@
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="51"/>
+      <c r="M77" s="36"/>
       <c r="N77" s="7"/>
       <c r="O77" s="3"/>
       <c r="P77" s="6"/>
@@ -6525,7 +6527,7 @@
       <c r="S77" s="8"/>
       <c r="U77" s="32"/>
       <c r="V77" s="5"/>
-      <c r="W77" s="51"/>
+      <c r="W77" s="36"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
@@ -6536,7 +6538,7 @@
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="49"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6563,7 +6565,7 @@
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="51"/>
+      <c r="M78" s="36"/>
       <c r="N78" s="7"/>
       <c r="O78" s="3"/>
       <c r="P78" s="6"/>
@@ -6572,7 +6574,7 @@
       <c r="S78" s="8"/>
       <c r="U78" s="32"/>
       <c r="V78" s="5"/>
-      <c r="W78" s="51"/>
+      <c r="W78" s="36"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
@@ -6583,7 +6585,7 @@
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="49"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6610,7 +6612,7 @@
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="51"/>
+      <c r="M79" s="36"/>
       <c r="N79" s="7"/>
       <c r="O79" s="3"/>
       <c r="P79" s="6"/>
@@ -6619,7 +6621,7 @@
       <c r="S79" s="8"/>
       <c r="U79" s="32"/>
       <c r="V79" s="5"/>
-      <c r="W79" s="51"/>
+      <c r="W79" s="36"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
@@ -6630,7 +6632,7 @@
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="32"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="49"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6657,7 +6659,7 @@
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="51"/>
+      <c r="M80" s="36"/>
       <c r="N80" s="7"/>
       <c r="O80" s="3"/>
       <c r="P80" s="6"/>
@@ -6666,7 +6668,7 @@
       <c r="S80" s="8"/>
       <c r="U80" s="32"/>
       <c r="V80" s="5"/>
-      <c r="W80" s="51"/>
+      <c r="W80" s="36"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
@@ -6677,7 +6679,7 @@
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="32"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="49"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6704,7 +6706,7 @@
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="51"/>
+      <c r="M81" s="36"/>
       <c r="N81" s="7"/>
       <c r="O81" s="3"/>
       <c r="P81" s="6"/>
@@ -6713,7 +6715,7 @@
       <c r="S81" s="8"/>
       <c r="U81" s="32"/>
       <c r="V81" s="5"/>
-      <c r="W81" s="51"/>
+      <c r="W81" s="36"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
@@ -6724,7 +6726,7 @@
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="49"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6751,7 +6753,7 @@
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="51"/>
+      <c r="M82" s="36"/>
       <c r="N82" s="7"/>
       <c r="O82" s="3"/>
       <c r="P82" s="6"/>
@@ -6760,7 +6762,7 @@
       <c r="S82" s="8"/>
       <c r="U82" s="32"/>
       <c r="V82" s="5"/>
-      <c r="W82" s="51"/>
+      <c r="W82" s="36"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
@@ -6771,7 +6773,7 @@
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="32"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="49"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6798,7 +6800,7 @@
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="51"/>
+      <c r="M83" s="36"/>
       <c r="N83" s="7"/>
       <c r="O83" s="3"/>
       <c r="P83" s="6"/>
@@ -6807,7 +6809,7 @@
       <c r="S83" s="8"/>
       <c r="U83" s="32"/>
       <c r="V83" s="5"/>
-      <c r="W83" s="51"/>
+      <c r="W83" s="36"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
@@ -6818,7 +6820,7 @@
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="32"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="49"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6845,7 +6847,7 @@
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="51"/>
+      <c r="M84" s="36"/>
       <c r="N84" s="7"/>
       <c r="O84" s="3"/>
       <c r="P84" s="6"/>
@@ -6854,7 +6856,7 @@
       <c r="S84" s="8"/>
       <c r="U84" s="32"/>
       <c r="V84" s="5"/>
-      <c r="W84" s="51"/>
+      <c r="W84" s="36"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
@@ -6898,8 +6900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27DF361-DA08-4AD0-A8D3-AAE1E405B9EC}">
   <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="W5" activeCellId="3" sqref="C5:C84 M5:M62 M63:M84 W5:W84"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6938,80 +6941,80 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="K2" s="33" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="35"/>
-      <c r="U2" s="33" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="U2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="35"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="39"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="K3" s="44" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="K3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="46"/>
-      <c r="U3" s="44" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="50"/>
+      <c r="U3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="45"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="36" t="s">
+      <c r="V3" s="49"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="38"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="42"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -7099,7 +7102,7 @@
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="18" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7126,7 +7129,7 @@
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="50"/>
+      <c r="M5" s="35"/>
       <c r="N5" s="13"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
@@ -7135,7 +7138,7 @@
       <c r="S5" s="28"/>
       <c r="U5" s="31"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="50"/>
+      <c r="W5" s="35"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
@@ -7146,7 +7149,7 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="49"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7173,7 +7176,7 @@
       </c>
       <c r="K6" s="32"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="51"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="10"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -7182,7 +7185,7 @@
       <c r="S6" s="11"/>
       <c r="U6" s="32"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="51"/>
+      <c r="W6" s="36"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -7193,7 +7196,7 @@
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="49"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7220,7 +7223,7 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="51"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="10"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -7229,7 +7232,7 @@
       <c r="S7" s="11"/>
       <c r="U7" s="32"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="51"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
@@ -7240,7 +7243,7 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="49"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7267,7 +7270,7 @@
       </c>
       <c r="K8" s="32"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="51"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="10"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -7276,7 +7279,7 @@
       <c r="S8" s="11"/>
       <c r="U8" s="32"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="51"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -7287,7 +7290,7 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7314,7 +7317,7 @@
       </c>
       <c r="K9" s="32"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="51"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="10"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -7323,7 +7326,7 @@
       <c r="S9" s="11"/>
       <c r="U9" s="32"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="51"/>
+      <c r="W9" s="36"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
@@ -7334,7 +7337,7 @@
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="49"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7361,7 +7364,7 @@
       </c>
       <c r="K10" s="32"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="51"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="10"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -7370,7 +7373,7 @@
       <c r="S10" s="11"/>
       <c r="U10" s="32"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="51"/>
+      <c r="W10" s="36"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -7381,7 +7384,7 @@
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7408,7 +7411,7 @@
       </c>
       <c r="K11" s="32"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="51"/>
+      <c r="M11" s="36"/>
       <c r="N11" s="10"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -7417,7 +7420,7 @@
       <c r="S11" s="11"/>
       <c r="U11" s="32"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="51"/>
+      <c r="W11" s="36"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
@@ -7428,7 +7431,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7455,7 +7458,7 @@
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="51"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="10"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -7464,7 +7467,7 @@
       <c r="S12" s="11"/>
       <c r="U12" s="32"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="51"/>
+      <c r="W12" s="36"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -7475,7 +7478,7 @@
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7502,7 +7505,7 @@
       </c>
       <c r="K13" s="32"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="51"/>
+      <c r="M13" s="36"/>
       <c r="N13" s="10"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -7511,7 +7514,7 @@
       <c r="S13" s="11"/>
       <c r="U13" s="32"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="51"/>
+      <c r="W13" s="36"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -7522,7 +7525,7 @@
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="49"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7549,7 +7552,7 @@
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="51"/>
+      <c r="M14" s="36"/>
       <c r="N14" s="10"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -7558,7 +7561,7 @@
       <c r="S14" s="11"/>
       <c r="U14" s="32"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="51"/>
+      <c r="W14" s="36"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -7569,7 +7572,7 @@
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="49"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7596,7 +7599,7 @@
       </c>
       <c r="K15" s="32"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="51"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="7"/>
       <c r="O15" s="3"/>
       <c r="P15" s="6"/>
@@ -7605,7 +7608,7 @@
       <c r="S15" s="8"/>
       <c r="U15" s="32"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="51"/>
+      <c r="W15" s="36"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -7616,7 +7619,7 @@
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7643,7 +7646,7 @@
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="51"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="7"/>
       <c r="O16" s="3"/>
       <c r="P16" s="6"/>
@@ -7652,7 +7655,7 @@
       <c r="S16" s="8"/>
       <c r="U16" s="32"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="51"/>
+      <c r="W16" s="36"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -7663,7 +7666,7 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="49"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7690,7 +7693,7 @@
       </c>
       <c r="K17" s="32"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="51"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="7"/>
       <c r="O17" s="3"/>
       <c r="P17" s="6"/>
@@ -7699,7 +7702,7 @@
       <c r="S17" s="8"/>
       <c r="U17" s="32"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="51"/>
+      <c r="W17" s="36"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -7710,7 +7713,7 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="49"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7737,7 +7740,7 @@
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="51"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="7"/>
       <c r="O18" s="3"/>
       <c r="P18" s="6"/>
@@ -7746,7 +7749,7 @@
       <c r="S18" s="8"/>
       <c r="U18" s="32"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="51"/>
+      <c r="W18" s="36"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -7757,7 +7760,7 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7784,7 +7787,7 @@
       </c>
       <c r="K19" s="32"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="51"/>
+      <c r="M19" s="36"/>
       <c r="N19" s="7"/>
       <c r="O19" s="3"/>
       <c r="P19" s="6"/>
@@ -7793,7 +7796,7 @@
       <c r="S19" s="8"/>
       <c r="U19" s="32"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="51"/>
+      <c r="W19" s="36"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -7804,7 +7807,7 @@
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7831,7 +7834,7 @@
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="51"/>
+      <c r="M20" s="36"/>
       <c r="N20" s="7"/>
       <c r="O20" s="3"/>
       <c r="P20" s="6"/>
@@ -7840,7 +7843,7 @@
       <c r="S20" s="8"/>
       <c r="U20" s="32"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="51"/>
+      <c r="W20" s="36"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -7851,7 +7854,7 @@
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7878,7 +7881,7 @@
       </c>
       <c r="K21" s="32"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="51"/>
+      <c r="M21" s="36"/>
       <c r="N21" s="7"/>
       <c r="O21" s="3"/>
       <c r="P21" s="6"/>
@@ -7887,7 +7890,7 @@
       <c r="S21" s="8"/>
       <c r="U21" s="32"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="51"/>
+      <c r="W21" s="36"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -7898,7 +7901,7 @@
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7925,7 +7928,7 @@
       </c>
       <c r="K22" s="32"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="51"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="7"/>
       <c r="O22" s="3"/>
       <c r="P22" s="6"/>
@@ -7934,7 +7937,7 @@
       <c r="S22" s="8"/>
       <c r="U22" s="32"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="51"/>
+      <c r="W22" s="36"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -7945,7 +7948,7 @@
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -7972,7 +7975,7 @@
       </c>
       <c r="K23" s="32"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="51"/>
+      <c r="M23" s="36"/>
       <c r="N23" s="7"/>
       <c r="O23" s="3"/>
       <c r="P23" s="6"/>
@@ -7981,7 +7984,7 @@
       <c r="S23" s="8"/>
       <c r="U23" s="32"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="51"/>
+      <c r="W23" s="36"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -7992,7 +7995,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="49"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8019,7 +8022,7 @@
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="51"/>
+      <c r="M24" s="36"/>
       <c r="N24" s="7"/>
       <c r="O24" s="3"/>
       <c r="P24" s="6"/>
@@ -8028,7 +8031,7 @@
       <c r="S24" s="8"/>
       <c r="U24" s="32"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="51"/>
+      <c r="W24" s="36"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -8039,7 +8042,7 @@
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="49"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8066,7 +8069,7 @@
       </c>
       <c r="K25" s="32"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="51"/>
+      <c r="M25" s="36"/>
       <c r="N25" s="7"/>
       <c r="O25" s="3"/>
       <c r="P25" s="6"/>
@@ -8075,7 +8078,7 @@
       <c r="S25" s="8"/>
       <c r="U25" s="32"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="51"/>
+      <c r="W25" s="36"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -8086,7 +8089,7 @@
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="49"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8113,7 +8116,7 @@
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="51"/>
+      <c r="M26" s="36"/>
       <c r="N26" s="7"/>
       <c r="O26" s="3"/>
       <c r="P26" s="6"/>
@@ -8122,7 +8125,7 @@
       <c r="S26" s="8"/>
       <c r="U26" s="32"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="51"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -8133,7 +8136,7 @@
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8160,7 +8163,7 @@
       </c>
       <c r="K27" s="32"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="51"/>
+      <c r="M27" s="36"/>
       <c r="N27" s="7"/>
       <c r="O27" s="3"/>
       <c r="P27" s="6"/>
@@ -8169,7 +8172,7 @@
       <c r="S27" s="8"/>
       <c r="U27" s="32"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="51"/>
+      <c r="W27" s="36"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -8180,7 +8183,7 @@
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8207,7 +8210,7 @@
       </c>
       <c r="K28" s="32"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="51"/>
+      <c r="M28" s="36"/>
       <c r="N28" s="7"/>
       <c r="O28" s="3"/>
       <c r="P28" s="6"/>
@@ -8216,7 +8219,7 @@
       <c r="S28" s="8"/>
       <c r="U28" s="32"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="51"/>
+      <c r="W28" s="36"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
@@ -8227,7 +8230,7 @@
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="49"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8254,7 +8257,7 @@
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="51"/>
+      <c r="M29" s="36"/>
       <c r="N29" s="7"/>
       <c r="O29" s="3"/>
       <c r="P29" s="6"/>
@@ -8263,7 +8266,7 @@
       <c r="S29" s="8"/>
       <c r="U29" s="32"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="51"/>
+      <c r="W29" s="36"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
@@ -8274,7 +8277,7 @@
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="49"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8301,7 +8304,7 @@
       </c>
       <c r="K30" s="32"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="51"/>
+      <c r="M30" s="36"/>
       <c r="N30" s="7"/>
       <c r="O30" s="3"/>
       <c r="P30" s="6"/>
@@ -8310,7 +8313,7 @@
       <c r="S30" s="8"/>
       <c r="U30" s="32"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="51"/>
+      <c r="W30" s="36"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
@@ -8321,7 +8324,7 @@
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8348,7 +8351,7 @@
       </c>
       <c r="K31" s="32"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="51"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="7"/>
       <c r="O31" s="3"/>
       <c r="P31" s="6"/>
@@ -8357,7 +8360,7 @@
       <c r="S31" s="8"/>
       <c r="U31" s="32"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="51"/>
+      <c r="W31" s="36"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
@@ -8368,7 +8371,7 @@
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="49"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8395,7 +8398,7 @@
       </c>
       <c r="K32" s="32"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="51"/>
+      <c r="M32" s="36"/>
       <c r="N32" s="7"/>
       <c r="O32" s="3"/>
       <c r="P32" s="6"/>
@@ -8404,7 +8407,7 @@
       <c r="S32" s="8"/>
       <c r="U32" s="32"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="51"/>
+      <c r="W32" s="36"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -8415,7 +8418,7 @@
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="49"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8442,7 +8445,7 @@
       </c>
       <c r="K33" s="32"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="51"/>
+      <c r="M33" s="36"/>
       <c r="N33" s="7"/>
       <c r="O33" s="3"/>
       <c r="P33" s="6"/>
@@ -8451,7 +8454,7 @@
       <c r="S33" s="8"/>
       <c r="U33" s="32"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="51"/>
+      <c r="W33" s="36"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -8462,7 +8465,7 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="49"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8489,7 +8492,7 @@
       </c>
       <c r="K34" s="32"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="51"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="7"/>
       <c r="O34" s="3"/>
       <c r="P34" s="6"/>
@@ -8498,7 +8501,7 @@
       <c r="S34" s="8"/>
       <c r="U34" s="32"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="51"/>
+      <c r="W34" s="36"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -8509,7 +8512,7 @@
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="49"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8536,7 +8539,7 @@
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="51"/>
+      <c r="M35" s="36"/>
       <c r="N35" s="7"/>
       <c r="O35" s="3"/>
       <c r="P35" s="6"/>
@@ -8545,7 +8548,7 @@
       <c r="S35" s="8"/>
       <c r="U35" s="32"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="51"/>
+      <c r="W35" s="36"/>
       <c r="X35" s="9"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
@@ -8556,7 +8559,7 @@
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="49"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8583,7 +8586,7 @@
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="51"/>
+      <c r="M36" s="36"/>
       <c r="N36" s="7"/>
       <c r="O36" s="3"/>
       <c r="P36" s="6"/>
@@ -8592,7 +8595,7 @@
       <c r="S36" s="8"/>
       <c r="U36" s="32"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="51"/>
+      <c r="W36" s="36"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
@@ -8603,7 +8606,7 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="49"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8630,7 +8633,7 @@
       </c>
       <c r="K37" s="32"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="51"/>
+      <c r="M37" s="36"/>
       <c r="N37" s="7"/>
       <c r="O37" s="3"/>
       <c r="P37" s="6"/>
@@ -8639,7 +8642,7 @@
       <c r="S37" s="8"/>
       <c r="U37" s="32"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="51"/>
+      <c r="W37" s="36"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
@@ -8650,7 +8653,7 @@
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="49"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8677,7 +8680,7 @@
       </c>
       <c r="K38" s="32"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="36"/>
       <c r="N38" s="7"/>
       <c r="O38" s="3"/>
       <c r="P38" s="6"/>
@@ -8686,7 +8689,7 @@
       <c r="S38" s="8"/>
       <c r="U38" s="32"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="51"/>
+      <c r="W38" s="36"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -8697,7 +8700,7 @@
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="49"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8724,7 +8727,7 @@
       </c>
       <c r="K39" s="32"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="51"/>
+      <c r="M39" s="36"/>
       <c r="N39" s="7"/>
       <c r="O39" s="3"/>
       <c r="P39" s="6"/>
@@ -8733,7 +8736,7 @@
       <c r="S39" s="8"/>
       <c r="U39" s="32"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="51"/>
+      <c r="W39" s="36"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -8744,7 +8747,7 @@
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="49"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8771,7 +8774,7 @@
       </c>
       <c r="K40" s="32"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="51"/>
+      <c r="M40" s="36"/>
       <c r="N40" s="7"/>
       <c r="O40" s="3"/>
       <c r="P40" s="6"/>
@@ -8780,7 +8783,7 @@
       <c r="S40" s="8"/>
       <c r="U40" s="32"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="51"/>
+      <c r="W40" s="36"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -8791,7 +8794,7 @@
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="49"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8818,7 +8821,7 @@
       </c>
       <c r="K41" s="32"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="51"/>
+      <c r="M41" s="36"/>
       <c r="N41" s="7"/>
       <c r="O41" s="3"/>
       <c r="P41" s="6"/>
@@ -8827,7 +8830,7 @@
       <c r="S41" s="8"/>
       <c r="U41" s="32"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="51"/>
+      <c r="W41" s="36"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -8838,7 +8841,7 @@
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="49"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8865,7 +8868,7 @@
       </c>
       <c r="K42" s="32"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="51"/>
+      <c r="M42" s="36"/>
       <c r="N42" s="7"/>
       <c r="O42" s="3"/>
       <c r="P42" s="6"/>
@@ -8874,7 +8877,7 @@
       <c r="S42" s="8"/>
       <c r="U42" s="32"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="51"/>
+      <c r="W42" s="36"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
@@ -8885,7 +8888,7 @@
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="49"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8912,7 +8915,7 @@
       </c>
       <c r="K43" s="32"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="51"/>
+      <c r="M43" s="36"/>
       <c r="N43" s="7"/>
       <c r="O43" s="3"/>
       <c r="P43" s="6"/>
@@ -8921,7 +8924,7 @@
       <c r="S43" s="8"/>
       <c r="U43" s="32"/>
       <c r="V43" s="5"/>
-      <c r="W43" s="51"/>
+      <c r="W43" s="36"/>
       <c r="X43" s="9"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
@@ -8932,7 +8935,7 @@
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="49"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -8959,7 +8962,7 @@
       </c>
       <c r="K44" s="32"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="51"/>
+      <c r="M44" s="36"/>
       <c r="N44" s="7"/>
       <c r="O44" s="3"/>
       <c r="P44" s="6"/>
@@ -8968,7 +8971,7 @@
       <c r="S44" s="8"/>
       <c r="U44" s="32"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="51"/>
+      <c r="W44" s="36"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
@@ -8979,7 +8982,7 @@
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="32"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="49"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9006,7 +9009,7 @@
       </c>
       <c r="K45" s="32"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="51"/>
+      <c r="M45" s="36"/>
       <c r="N45" s="7"/>
       <c r="O45" s="3"/>
       <c r="P45" s="6"/>
@@ -9015,7 +9018,7 @@
       <c r="S45" s="8"/>
       <c r="U45" s="32"/>
       <c r="V45" s="5"/>
-      <c r="W45" s="51"/>
+      <c r="W45" s="36"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -9026,7 +9029,7 @@
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="49"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9053,7 +9056,7 @@
       </c>
       <c r="K46" s="32"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="51"/>
+      <c r="M46" s="36"/>
       <c r="N46" s="7"/>
       <c r="O46" s="3"/>
       <c r="P46" s="6"/>
@@ -9062,7 +9065,7 @@
       <c r="S46" s="8"/>
       <c r="U46" s="32"/>
       <c r="V46" s="5"/>
-      <c r="W46" s="51"/>
+      <c r="W46" s="36"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -9073,7 +9076,7 @@
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="49"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9100,7 +9103,7 @@
       </c>
       <c r="K47" s="32"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="51"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="7"/>
       <c r="O47" s="3"/>
       <c r="P47" s="6"/>
@@ -9109,7 +9112,7 @@
       <c r="S47" s="8"/>
       <c r="U47" s="32"/>
       <c r="V47" s="5"/>
-      <c r="W47" s="51"/>
+      <c r="W47" s="36"/>
       <c r="X47" s="9"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -9120,7 +9123,7 @@
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="49"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9147,7 +9150,7 @@
       </c>
       <c r="K48" s="32"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="51"/>
+      <c r="M48" s="36"/>
       <c r="N48" s="7"/>
       <c r="O48" s="3"/>
       <c r="P48" s="6"/>
@@ -9156,7 +9159,7 @@
       <c r="S48" s="8"/>
       <c r="U48" s="32"/>
       <c r="V48" s="5"/>
-      <c r="W48" s="51"/>
+      <c r="W48" s="36"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
@@ -9167,7 +9170,7 @@
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="32"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="49"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9194,7 +9197,7 @@
       </c>
       <c r="K49" s="32"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="51"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="7"/>
       <c r="O49" s="3"/>
       <c r="P49" s="6"/>
@@ -9203,7 +9206,7 @@
       <c r="S49" s="8"/>
       <c r="U49" s="32"/>
       <c r="V49" s="5"/>
-      <c r="W49" s="51"/>
+      <c r="W49" s="36"/>
       <c r="X49" s="9"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
@@ -9214,7 +9217,7 @@
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="32"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="49"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9241,7 +9244,7 @@
       </c>
       <c r="K50" s="32"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="51"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="7"/>
       <c r="O50" s="3"/>
       <c r="P50" s="6"/>
@@ -9250,7 +9253,7 @@
       <c r="S50" s="8"/>
       <c r="U50" s="32"/>
       <c r="V50" s="5"/>
-      <c r="W50" s="51"/>
+      <c r="W50" s="36"/>
       <c r="X50" s="9"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -9261,7 +9264,7 @@
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="32"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="49"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9288,7 +9291,7 @@
       </c>
       <c r="K51" s="32"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="51"/>
+      <c r="M51" s="36"/>
       <c r="N51" s="7"/>
       <c r="O51" s="3"/>
       <c r="P51" s="6"/>
@@ -9297,7 +9300,7 @@
       <c r="S51" s="8"/>
       <c r="U51" s="32"/>
       <c r="V51" s="5"/>
-      <c r="W51" s="51"/>
+      <c r="W51" s="36"/>
       <c r="X51" s="9"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -9308,7 +9311,7 @@
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="32"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="49"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9335,7 +9338,7 @@
       </c>
       <c r="K52" s="32"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="51"/>
+      <c r="M52" s="36"/>
       <c r="N52" s="7"/>
       <c r="O52" s="3"/>
       <c r="P52" s="6"/>
@@ -9344,7 +9347,7 @@
       <c r="S52" s="8"/>
       <c r="U52" s="32"/>
       <c r="V52" s="5"/>
-      <c r="W52" s="51"/>
+      <c r="W52" s="36"/>
       <c r="X52" s="9"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
@@ -9355,7 +9358,7 @@
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="49"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9382,7 +9385,7 @@
       </c>
       <c r="K53" s="32"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="51"/>
+      <c r="M53" s="36"/>
       <c r="N53" s="7"/>
       <c r="O53" s="3"/>
       <c r="P53" s="6"/>
@@ -9391,7 +9394,7 @@
       <c r="S53" s="8"/>
       <c r="U53" s="32"/>
       <c r="V53" s="5"/>
-      <c r="W53" s="51"/>
+      <c r="W53" s="36"/>
       <c r="X53" s="9"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
@@ -9402,7 +9405,7 @@
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="49"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9429,7 +9432,7 @@
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="51"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="7"/>
       <c r="O54" s="3"/>
       <c r="P54" s="6"/>
@@ -9438,7 +9441,7 @@
       <c r="S54" s="8"/>
       <c r="U54" s="32"/>
       <c r="V54" s="5"/>
-      <c r="W54" s="51"/>
+      <c r="W54" s="36"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
@@ -9449,7 +9452,7 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="32"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="49"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9476,7 +9479,7 @@
       </c>
       <c r="K55" s="32"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="51"/>
+      <c r="M55" s="36"/>
       <c r="N55" s="7"/>
       <c r="O55" s="3"/>
       <c r="P55" s="6"/>
@@ -9485,7 +9488,7 @@
       <c r="S55" s="8"/>
       <c r="U55" s="32"/>
       <c r="V55" s="5"/>
-      <c r="W55" s="51"/>
+      <c r="W55" s="36"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
@@ -9496,7 +9499,7 @@
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="32"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="49"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9523,7 +9526,7 @@
       </c>
       <c r="K56" s="32"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="51"/>
+      <c r="M56" s="36"/>
       <c r="N56" s="7"/>
       <c r="O56" s="3"/>
       <c r="P56" s="6"/>
@@ -9532,7 +9535,7 @@
       <c r="S56" s="8"/>
       <c r="U56" s="32"/>
       <c r="V56" s="5"/>
-      <c r="W56" s="51"/>
+      <c r="W56" s="36"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
@@ -9543,7 +9546,7 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="32"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="49"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9570,7 +9573,7 @@
       </c>
       <c r="K57" s="32"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="51"/>
+      <c r="M57" s="36"/>
       <c r="N57" s="7"/>
       <c r="O57" s="3"/>
       <c r="P57" s="6"/>
@@ -9579,7 +9582,7 @@
       <c r="S57" s="8"/>
       <c r="U57" s="32"/>
       <c r="V57" s="5"/>
-      <c r="W57" s="51"/>
+      <c r="W57" s="36"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
@@ -9590,7 +9593,7 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="32"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="49"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9617,7 +9620,7 @@
       </c>
       <c r="K58" s="32"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="51"/>
+      <c r="M58" s="36"/>
       <c r="N58" s="7"/>
       <c r="O58" s="3"/>
       <c r="P58" s="6"/>
@@ -9626,7 +9629,7 @@
       <c r="S58" s="8"/>
       <c r="U58" s="32"/>
       <c r="V58" s="5"/>
-      <c r="W58" s="51"/>
+      <c r="W58" s="36"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
@@ -9637,7 +9640,7 @@
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="32"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="49"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9664,7 +9667,7 @@
       </c>
       <c r="K59" s="32"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="51"/>
+      <c r="M59" s="36"/>
       <c r="N59" s="7"/>
       <c r="O59" s="3"/>
       <c r="P59" s="6"/>
@@ -9673,7 +9676,7 @@
       <c r="S59" s="8"/>
       <c r="U59" s="32"/>
       <c r="V59" s="5"/>
-      <c r="W59" s="51"/>
+      <c r="W59" s="36"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
@@ -9684,7 +9687,7 @@
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="32"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="49"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9711,7 +9714,7 @@
       </c>
       <c r="K60" s="32"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="51"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="7"/>
       <c r="O60" s="3"/>
       <c r="P60" s="6"/>
@@ -9720,7 +9723,7 @@
       <c r="S60" s="8"/>
       <c r="U60" s="32"/>
       <c r="V60" s="5"/>
-      <c r="W60" s="51"/>
+      <c r="W60" s="36"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -9731,7 +9734,7 @@
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="32"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="49"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9758,7 +9761,7 @@
       </c>
       <c r="K61" s="32"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="51"/>
+      <c r="M61" s="36"/>
       <c r="N61" s="7"/>
       <c r="O61" s="3"/>
       <c r="P61" s="6"/>
@@ -9767,7 +9770,7 @@
       <c r="S61" s="8"/>
       <c r="U61" s="32"/>
       <c r="V61" s="5"/>
-      <c r="W61" s="51"/>
+      <c r="W61" s="36"/>
       <c r="X61" s="9"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
@@ -9778,7 +9781,7 @@
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="32"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="49"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9805,7 +9808,7 @@
       </c>
       <c r="K62" s="32"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="51"/>
+      <c r="M62" s="36"/>
       <c r="N62" s="7"/>
       <c r="O62" s="3"/>
       <c r="P62" s="6"/>
@@ -9814,7 +9817,7 @@
       <c r="S62" s="8"/>
       <c r="U62" s="32"/>
       <c r="V62" s="5"/>
-      <c r="W62" s="51"/>
+      <c r="W62" s="36"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
@@ -9825,7 +9828,7 @@
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="49"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9852,7 +9855,7 @@
       </c>
       <c r="K63" s="32"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="51"/>
+      <c r="M63" s="36"/>
       <c r="N63" s="7"/>
       <c r="O63" s="3"/>
       <c r="P63" s="6"/>
@@ -9861,7 +9864,7 @@
       <c r="S63" s="8"/>
       <c r="U63" s="32"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="51"/>
+      <c r="W63" s="36"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
@@ -9872,7 +9875,7 @@
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="32"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="49"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9899,7 +9902,7 @@
       </c>
       <c r="K64" s="32"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="51"/>
+      <c r="M64" s="36"/>
       <c r="N64" s="7"/>
       <c r="O64" s="3"/>
       <c r="P64" s="6"/>
@@ -9908,7 +9911,7 @@
       <c r="S64" s="8"/>
       <c r="U64" s="32"/>
       <c r="V64" s="5"/>
-      <c r="W64" s="51"/>
+      <c r="W64" s="36"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
@@ -9919,7 +9922,7 @@
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="49"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9946,7 +9949,7 @@
       </c>
       <c r="K65" s="32"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="51"/>
+      <c r="M65" s="36"/>
       <c r="N65" s="7"/>
       <c r="O65" s="3"/>
       <c r="P65" s="6"/>
@@ -9955,7 +9958,7 @@
       <c r="S65" s="8"/>
       <c r="U65" s="32"/>
       <c r="V65" s="5"/>
-      <c r="W65" s="51"/>
+      <c r="W65" s="36"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
@@ -9966,7 +9969,7 @@
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="49"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -9993,7 +9996,7 @@
       </c>
       <c r="K66" s="32"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="51"/>
+      <c r="M66" s="36"/>
       <c r="N66" s="7"/>
       <c r="O66" s="3"/>
       <c r="P66" s="6"/>
@@ -10002,7 +10005,7 @@
       <c r="S66" s="8"/>
       <c r="U66" s="32"/>
       <c r="V66" s="5"/>
-      <c r="W66" s="51"/>
+      <c r="W66" s="36"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
@@ -10013,7 +10016,7 @@
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="49"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10040,7 +10043,7 @@
       </c>
       <c r="K67" s="32"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="51"/>
+      <c r="M67" s="36"/>
       <c r="N67" s="7"/>
       <c r="O67" s="3"/>
       <c r="P67" s="6"/>
@@ -10049,7 +10052,7 @@
       <c r="S67" s="8"/>
       <c r="U67" s="32"/>
       <c r="V67" s="5"/>
-      <c r="W67" s="51"/>
+      <c r="W67" s="36"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
@@ -10060,7 +10063,7 @@
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="49"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10087,7 +10090,7 @@
       </c>
       <c r="K68" s="32"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="51"/>
+      <c r="M68" s="36"/>
       <c r="N68" s="7"/>
       <c r="O68" s="3"/>
       <c r="P68" s="6"/>
@@ -10096,7 +10099,7 @@
       <c r="S68" s="8"/>
       <c r="U68" s="32"/>
       <c r="V68" s="5"/>
-      <c r="W68" s="51"/>
+      <c r="W68" s="36"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
@@ -10107,7 +10110,7 @@
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="49"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10134,7 +10137,7 @@
       </c>
       <c r="K69" s="32"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="51"/>
+      <c r="M69" s="36"/>
       <c r="N69" s="7"/>
       <c r="O69" s="3"/>
       <c r="P69" s="6"/>
@@ -10143,7 +10146,7 @@
       <c r="S69" s="8"/>
       <c r="U69" s="32"/>
       <c r="V69" s="5"/>
-      <c r="W69" s="51"/>
+      <c r="W69" s="36"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
@@ -10154,7 +10157,7 @@
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="49"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10181,7 +10184,7 @@
       </c>
       <c r="K70" s="32"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="51"/>
+      <c r="M70" s="36"/>
       <c r="N70" s="7"/>
       <c r="O70" s="3"/>
       <c r="P70" s="6"/>
@@ -10190,7 +10193,7 @@
       <c r="S70" s="8"/>
       <c r="U70" s="32"/>
       <c r="V70" s="5"/>
-      <c r="W70" s="51"/>
+      <c r="W70" s="36"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
@@ -10201,7 +10204,7 @@
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="49"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10228,7 +10231,7 @@
       </c>
       <c r="K71" s="32"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="51"/>
+      <c r="M71" s="36"/>
       <c r="N71" s="7"/>
       <c r="O71" s="3"/>
       <c r="P71" s="6"/>
@@ -10237,7 +10240,7 @@
       <c r="S71" s="8"/>
       <c r="U71" s="32"/>
       <c r="V71" s="5"/>
-      <c r="W71" s="51"/>
+      <c r="W71" s="36"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
@@ -10248,7 +10251,7 @@
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="49"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10275,7 +10278,7 @@
       </c>
       <c r="K72" s="32"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="51"/>
+      <c r="M72" s="36"/>
       <c r="N72" s="7"/>
       <c r="O72" s="3"/>
       <c r="P72" s="6"/>
@@ -10284,7 +10287,7 @@
       <c r="S72" s="8"/>
       <c r="U72" s="32"/>
       <c r="V72" s="5"/>
-      <c r="W72" s="51"/>
+      <c r="W72" s="36"/>
       <c r="X72" s="9"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
@@ -10295,7 +10298,7 @@
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="49"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10322,7 +10325,7 @@
       </c>
       <c r="K73" s="32"/>
       <c r="L73" s="2"/>
-      <c r="M73" s="51"/>
+      <c r="M73" s="36"/>
       <c r="N73" s="7"/>
       <c r="O73" s="3"/>
       <c r="P73" s="6"/>
@@ -10331,7 +10334,7 @@
       <c r="S73" s="8"/>
       <c r="U73" s="32"/>
       <c r="V73" s="5"/>
-      <c r="W73" s="51"/>
+      <c r="W73" s="36"/>
       <c r="X73" s="9"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
@@ -10342,7 +10345,7 @@
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="49"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10369,7 +10372,7 @@
       </c>
       <c r="K74" s="32"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="51"/>
+      <c r="M74" s="36"/>
       <c r="N74" s="7"/>
       <c r="O74" s="3"/>
       <c r="P74" s="6"/>
@@ -10378,7 +10381,7 @@
       <c r="S74" s="8"/>
       <c r="U74" s="32"/>
       <c r="V74" s="5"/>
-      <c r="W74" s="51"/>
+      <c r="W74" s="36"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
@@ -10389,7 +10392,7 @@
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="49"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10416,7 +10419,7 @@
       </c>
       <c r="K75" s="32"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="51"/>
+      <c r="M75" s="36"/>
       <c r="N75" s="7"/>
       <c r="O75" s="3"/>
       <c r="P75" s="6"/>
@@ -10425,7 +10428,7 @@
       <c r="S75" s="8"/>
       <c r="U75" s="32"/>
       <c r="V75" s="5"/>
-      <c r="W75" s="51"/>
+      <c r="W75" s="36"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
@@ -10436,7 +10439,7 @@
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="32"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="49"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10463,7 +10466,7 @@
       </c>
       <c r="K76" s="32"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="51"/>
+      <c r="M76" s="36"/>
       <c r="N76" s="7"/>
       <c r="O76" s="3"/>
       <c r="P76" s="6"/>
@@ -10472,7 +10475,7 @@
       <c r="S76" s="8"/>
       <c r="U76" s="32"/>
       <c r="V76" s="5"/>
-      <c r="W76" s="51"/>
+      <c r="W76" s="36"/>
       <c r="X76" s="9"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
@@ -10483,7 +10486,7 @@
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="49"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10510,7 +10513,7 @@
       </c>
       <c r="K77" s="32"/>
       <c r="L77" s="2"/>
-      <c r="M77" s="51"/>
+      <c r="M77" s="36"/>
       <c r="N77" s="7"/>
       <c r="O77" s="3"/>
       <c r="P77" s="6"/>
@@ -10519,7 +10522,7 @@
       <c r="S77" s="8"/>
       <c r="U77" s="32"/>
       <c r="V77" s="5"/>
-      <c r="W77" s="51"/>
+      <c r="W77" s="36"/>
       <c r="X77" s="9"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
@@ -10530,7 +10533,7 @@
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="49"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10557,7 +10560,7 @@
       </c>
       <c r="K78" s="32"/>
       <c r="L78" s="2"/>
-      <c r="M78" s="51"/>
+      <c r="M78" s="36"/>
       <c r="N78" s="7"/>
       <c r="O78" s="3"/>
       <c r="P78" s="6"/>
@@ -10566,7 +10569,7 @@
       <c r="S78" s="8"/>
       <c r="U78" s="32"/>
       <c r="V78" s="5"/>
-      <c r="W78" s="51"/>
+      <c r="W78" s="36"/>
       <c r="X78" s="9"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
@@ -10577,7 +10580,7 @@
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="49"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10604,7 +10607,7 @@
       </c>
       <c r="K79" s="32"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="51"/>
+      <c r="M79" s="36"/>
       <c r="N79" s="7"/>
       <c r="O79" s="3"/>
       <c r="P79" s="6"/>
@@ -10613,7 +10616,7 @@
       <c r="S79" s="8"/>
       <c r="U79" s="32"/>
       <c r="V79" s="5"/>
-      <c r="W79" s="51"/>
+      <c r="W79" s="36"/>
       <c r="X79" s="9"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
@@ -10624,7 +10627,7 @@
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="32"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="49"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10651,7 +10654,7 @@
       </c>
       <c r="K80" s="32"/>
       <c r="L80" s="2"/>
-      <c r="M80" s="51"/>
+      <c r="M80" s="36"/>
       <c r="N80" s="7"/>
       <c r="O80" s="3"/>
       <c r="P80" s="6"/>
@@ -10660,7 +10663,7 @@
       <c r="S80" s="8"/>
       <c r="U80" s="32"/>
       <c r="V80" s="5"/>
-      <c r="W80" s="51"/>
+      <c r="W80" s="36"/>
       <c r="X80" s="9"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
@@ -10671,7 +10674,7 @@
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="32"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="49"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10698,7 +10701,7 @@
       </c>
       <c r="K81" s="32"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="51"/>
+      <c r="M81" s="36"/>
       <c r="N81" s="7"/>
       <c r="O81" s="3"/>
       <c r="P81" s="6"/>
@@ -10707,7 +10710,7 @@
       <c r="S81" s="8"/>
       <c r="U81" s="32"/>
       <c r="V81" s="5"/>
-      <c r="W81" s="51"/>
+      <c r="W81" s="36"/>
       <c r="X81" s="9"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
@@ -10718,7 +10721,7 @@
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="49"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10745,7 +10748,7 @@
       </c>
       <c r="K82" s="32"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="51"/>
+      <c r="M82" s="36"/>
       <c r="N82" s="7"/>
       <c r="O82" s="3"/>
       <c r="P82" s="6"/>
@@ -10754,7 +10757,7 @@
       <c r="S82" s="8"/>
       <c r="U82" s="32"/>
       <c r="V82" s="5"/>
-      <c r="W82" s="51"/>
+      <c r="W82" s="36"/>
       <c r="X82" s="9"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
@@ -10765,7 +10768,7 @@
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="32"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="49"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10792,7 +10795,7 @@
       </c>
       <c r="K83" s="32"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="51"/>
+      <c r="M83" s="36"/>
       <c r="N83" s="7"/>
       <c r="O83" s="3"/>
       <c r="P83" s="6"/>
@@ -10801,7 +10804,7 @@
       <c r="S83" s="8"/>
       <c r="U83" s="32"/>
       <c r="V83" s="5"/>
-      <c r="W83" s="51"/>
+      <c r="W83" s="36"/>
       <c r="X83" s="9"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
@@ -10812,7 +10815,7 @@
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="32"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="49"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="7" t="e">
         <f>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -10839,7 +10842,7 @@
       </c>
       <c r="K84" s="32"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="51"/>
+      <c r="M84" s="36"/>
       <c r="N84" s="7"/>
       <c r="O84" s="3"/>
       <c r="P84" s="6"/>
@@ -10848,7 +10851,7 @@
       <c r="S84" s="8"/>
       <c r="U84" s="32"/>
       <c r="V84" s="5"/>
-      <c r="W84" s="51"/>
+      <c r="W84" s="36"/>
       <c r="X84" s="9"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
@@ -10869,12 +10872,12 @@
     <mergeCell ref="U3:W3"/>
   </mergeCells>
   <conditionalFormatting sqref="C86:H204 D5:I84">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I84">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="lessThanOrEqual">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/vma_nginx_automation_results_template.xlsx
+++ b/vma_nginx_automation_results_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\simonra\tools\nginx\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759DE894-DBB5-4076-ADF0-7C7EF00CECE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34A5EFC-E4FE-4740-AE11-836B093B5B8C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CDEA9967-368D-4D1E-9A91-3E5AE540AC71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDEA9967-368D-4D1E-9A91-3E5AE540AC71}"/>
   </bookViews>
   <sheets>
     <sheet name="Kernel vs VMA" sheetId="3" r:id="rId1"/>
@@ -86,8 +86,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -951,7 +953,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -996,7 +998,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1049,6 +1050,20 @@
     <xf numFmtId="2" fontId="16" fillId="32" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1097,29 +1112,42 @@
   </cellStyles>
   <dxfs count="72">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1132,17 +1160,45 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1155,12 +1211,55 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0000"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1336,75 +1435,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2058,75 +2088,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2613,55 +2574,55 @@
     <tableColumn id="3" xr3:uid="{4065B148-1A23-4582-BFC1-1C2A2490F29B}" name="Throughput[Gbps]" dataDxfId="52" dataCellStyle="Comma"/>
     <tableColumn id="4" xr3:uid="{E82AD12B-9E7B-4E80-B07C-8CFB05246641}" name="Requests[RPS]" dataDxfId="51" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{A434918F-9200-4557-A610-595D7507FFE5}" name="Concurrent Connections" dataDxfId="50" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{42F03FC7-3863-403E-A089-34FCD5AFF133}" name="CPU[%]" dataDxfId="49" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EE4DB8FD-6749-443F-89E8-7D8DDF4932FD}" name="CPU/Gbps[%]" dataDxfId="48" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{AAC6443F-0D66-4D7A-907B-532B0E798815}" name="CPU/RPS[%]" dataDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{42F03FC7-3863-403E-A089-34FCD5AFF133}" name="CPU[%]" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EE4DB8FD-6749-443F-89E8-7D8DDF4932FD}" name="CPU/Gbps[%]" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{AAC6443F-0D66-4D7A-907B-532B0E798815}" name="CPU/RPS[%]" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08B975D-68F1-46DC-8849-9E415DA88B79}" name="Table142" displayName="Table142" ref="U4:AC204" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C08B975D-68F1-46DC-8849-9E415DA88B79}" name="Table142" displayName="Table142" ref="U4:AC204" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" dataCellStyle="Comma">
   <autoFilter ref="U4:AC204" xr:uid="{53F3EF40-0473-4CEF-A2FA-A5326FE07A42}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{9EF84575-8C30-4A98-BF1B-7A58772C4BD5}" name="Workers" dataDxfId="44" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{ED1BA587-7608-492A-9AE3-D19FE7AAE74B}" name="File" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{C60166A3-6895-4FBF-8261-54302FEF2B4E}" name="Connections" dataDxfId="42" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{6FA8BDE0-18A8-48D4-AE80-1CDC5CA2C8BB}" name="Throughput[Gbps]" dataDxfId="41" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{C195FAB3-A7AB-4BFA-802D-3FC3AB5DEB87}" name="Requests[RPS]" dataDxfId="40" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{43C14FD6-1EC3-42F2-81F0-2E39FA50C799}" name="Concurrent Connections" dataDxfId="39" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{B37B812D-6B2B-47AD-9748-D079D5F39C8C}" name="CPU[%]" dataDxfId="38" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{94A6B269-EAD9-4D6A-8ABC-656D7CB3AE13}" name="CPU/Gbps[%]" dataDxfId="37" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{68BE4986-129A-4C04-803F-4FB8E1A369C7}" name="CPU/RPS[%]" dataDxfId="36" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{9EF84575-8C30-4A98-BF1B-7A58772C4BD5}" name="Workers" dataDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{ED1BA587-7608-492A-9AE3-D19FE7AAE74B}" name="File" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{C60166A3-6895-4FBF-8261-54302FEF2B4E}" name="Connections" dataDxfId="45" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{6FA8BDE0-18A8-48D4-AE80-1CDC5CA2C8BB}" name="Throughput[Gbps]" dataDxfId="44" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{C195FAB3-A7AB-4BFA-802D-3FC3AB5DEB87}" name="Requests[RPS]" dataDxfId="43" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{43C14FD6-1EC3-42F2-81F0-2E39FA50C799}" name="Concurrent Connections" dataDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{B37B812D-6B2B-47AD-9748-D079D5F39C8C}" name="CPU[%]" dataDxfId="41" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{94A6B269-EAD9-4D6A-8ABC-656D7CB3AE13}" name="CPU/Gbps[%]" dataDxfId="40" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{68BE4986-129A-4C04-803F-4FB8E1A369C7}" name="CPU/RPS[%]" dataDxfId="39" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70981190-D163-4B4F-9E92-3E805D5C00BB}" name="Table1463" displayName="Table1463" ref="A4:I204" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{70981190-D163-4B4F-9E92-3E805D5C00BB}" name="Table1463" displayName="Table1463" ref="A4:I204" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35">
   <autoFilter ref="A4:I204" xr:uid="{8B88463D-CFD0-49B0-90B0-05DAC137F60C}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{4FF9EDDA-3833-447D-A388-8F5B2C02E64E}" name="Workers" dataDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{6945879B-635B-4AE8-872A-D16862F6ED66}" name="File" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{549EBCCB-02D2-4251-9EAF-DDCA724E592B}" name="Connections" dataDxfId="28" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{AB4A660D-4D7F-4789-9008-A56BFD1F325D}" name="Throughput[Gbps]" dataDxfId="27" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4FF9EDDA-3833-447D-A388-8F5B2C02E64E}" name="Workers" dataDxfId="33" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{6945879B-635B-4AE8-872A-D16862F6ED66}" name="File" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{549EBCCB-02D2-4251-9EAF-DDCA724E592B}" name="Connections" dataDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{AB4A660D-4D7F-4789-9008-A56BFD1F325D}" name="Throughput[Gbps]" dataDxfId="30" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Throughput'[Gbps']]]-Table145[[#This Row],[Throughput'[Gbps']]])/Table145[[#This Row],[Throughput'[Gbps']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1CA2B4E2-B42F-41F5-B642-44443AB5CE89}" name="Requests[RPS]" dataDxfId="26" dataCellStyle="Comma">
+    <tableColumn id="3" xr3:uid="{1CA2B4E2-B42F-41F5-B642-44443AB5CE89}" name="Requests[RPS]" dataDxfId="29" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Requests'[RPS']]]-Table145[[#This Row],[Requests'[RPS']]])/Table145[[#This Row],[Requests'[RPS']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{171EC064-96E0-4591-A352-15EEF3A5673A}" name="Concurrent Connections" dataDxfId="25" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{171EC064-96E0-4591-A352-15EEF3A5673A}" name="Concurrent Connections" dataDxfId="28" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table1427[[#This Row],[Concurrent Connections]]-Table145[[#This Row],[Concurrent Connections]])/Table145[[#This Row],[Concurrent Connections]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9ABC272A-2D9E-42B0-843C-DD4944E31125}" name="CPU[%]" dataDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{9ABC272A-2D9E-42B0-843C-DD4944E31125}" name="CPU[%]" dataDxfId="27" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU'[%']]]-Table1427[[#This Row],[CPU'[%']]])/Table1427[[#This Row],[CPU'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1B3C2736-9CAE-4B7A-9456-A8FED3C20D50}" name="CPU/Gbps[%]" dataDxfId="23" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{1B3C2736-9CAE-4B7A-9456-A8FED3C20D50}" name="CPU/Gbps[%]" dataDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU/Gbps'[%']]]-Table1427[[#This Row],[CPU/Gbps'[%']]])/Table1427[[#This Row],[CPU/Gbps'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{829EE037-91D9-490D-BBC7-D513D8B14DCD}" name="CPU/RPS[%]" dataDxfId="22" dataCellStyle="Comma">
+    <tableColumn id="7" xr3:uid="{829EE037-91D9-490D-BBC7-D513D8B14DCD}" name="CPU/RPS[%]" dataDxfId="25" dataCellStyle="Comma">
       <calculatedColumnFormula>((Table145[[#This Row],[CPU/RPS'[%']]]-Table1427[[#This Row],[CPU/RPS'[%']]])/Table1427[[#This Row],[CPU/RPS'[%']]])*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2670,36 +2631,36 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8A02F56A-6D8C-414F-9385-10EDB5B8101F}" name="Table145" displayName="Table145" ref="K4:S204" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8A02F56A-6D8C-414F-9385-10EDB5B8101F}" name="Table145" displayName="Table145" ref="K4:S204" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" dataCellStyle="Comma">
   <autoFilter ref="K4:S204" xr:uid="{19944A0A-D5AB-4E11-81FF-07640B56A977}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{D0DBD1F2-CCA8-49C8-A600-A9895569C505}" name="Workers" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{67BB9A8E-1B91-46CD-AE14-400C746449BE}" name="File" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A739C08D-0028-4CAB-B842-E86E010843E7}" name="Connections" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{22750044-C840-4268-B3BD-7F75A98E905F}" name="Throughput[Gbps]" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{7C3861D2-92DE-496D-85B2-FD3833D2CB94}" name="Requests[RPS]" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{C866B3EF-EF3F-47CF-8386-AFCEF8A0C629}" name="Concurrent Connections" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{56C2689B-3CD7-4E32-A192-416CE5E34014}" name="CPU[%]" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{8BB7062E-D1F6-42A2-8024-837EE69180DB}" name="CPU/Gbps[%]" dataDxfId="12" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{79CC2B33-AC5E-4193-8BDE-8E890D75E630}" name="CPU/RPS[%]" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{D0DBD1F2-CCA8-49C8-A600-A9895569C505}" name="Workers" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{67BB9A8E-1B91-46CD-AE14-400C746449BE}" name="File" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{A739C08D-0028-4CAB-B842-E86E010843E7}" name="Connections" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{22750044-C840-4268-B3BD-7F75A98E905F}" name="Throughput[Gbps]" dataDxfId="19" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{7C3861D2-92DE-496D-85B2-FD3833D2CB94}" name="Requests[RPS]" dataDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{C866B3EF-EF3F-47CF-8386-AFCEF8A0C629}" name="Concurrent Connections" dataDxfId="17" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{56C2689B-3CD7-4E32-A192-416CE5E34014}" name="CPU[%]" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{8BB7062E-D1F6-42A2-8024-837EE69180DB}" name="CPU/Gbps[%]" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{79CC2B33-AC5E-4193-8BDE-8E890D75E630}" name="CPU/RPS[%]" dataDxfId="3" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA5EF2A2-C615-48AE-801B-E895375B7A2D}" name="Table1427" displayName="Table1427" ref="U4:AC204" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA5EF2A2-C615-48AE-801B-E895375B7A2D}" name="Table1427" displayName="Table1427" ref="U4:AC204" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" dataCellStyle="Comma">
   <autoFilter ref="U4:AC204" xr:uid="{2A4D145D-3E80-49EC-9E1A-C20755337594}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{C07B5643-19BC-4EBC-A48B-061E2B4E38C9}" name="Workers" dataDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="1" xr3:uid="{BC7C6989-0264-48A1-87F9-9A55BB734236}" name="File" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{D5D128D0-4D78-43DD-8B47-56DE53D51713}" name="Connections" dataDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{F9A4C812-3A1A-45E3-ACA4-A43538A4F909}" name="Throughput[Gbps]" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{FB323939-DB72-42A5-AFFB-2CFCEA95AEBE}" name="Requests[RPS]" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FB4237C5-C15C-4B5E-B1BA-2E100898828A}" name="Concurrent Connections" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{73CC4A3D-8EB2-40E7-8617-B78294EA9BE5}" name="CPU[%]" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EEA3B39F-C51C-4813-8B07-C14F79C77DD0}" name="CPU/Gbps[%]" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{86C0766C-525A-43A1-B3D6-D7C7A60B94AF}" name="CPU/RPS[%]" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{C07B5643-19BC-4EBC-A48B-061E2B4E38C9}" name="Workers" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{BC7C6989-0264-48A1-87F9-9A55BB734236}" name="File" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D5D128D0-4D78-43DD-8B47-56DE53D51713}" name="Connections" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{F9A4C812-3A1A-45E3-ACA4-A43538A4F909}" name="Throughput[Gbps]" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{FB323939-DB72-42A5-AFFB-2CFCEA95AEBE}" name="Requests[RPS]" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FB4237C5-C15C-4B5E-B1BA-2E100898828A}" name="Concurrent Connections" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{73CC4A3D-8EB2-40E7-8617-B78294EA9BE5}" name="CPU[%]" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EEA3B39F-C51C-4813-8B07-C14F79C77DD0}" name="CPU/Gbps[%]" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{86C0766C-525A-43A1-B3D6-D7C7A60B94AF}" name="CPU/RPS[%]" dataDxfId="6" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3004,10 +2965,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB86FFA-E82D-4EB3-B86A-EF8BD2E99E06}">
   <dimension ref="A1:AC204"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomLeft" activeCell="R204" sqref="R5:S204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3046,80 +3007,80 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="K2" s="52" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="54"/>
-      <c r="U2" s="52" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="53"/>
+      <c r="U2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="54"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="53"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="63" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="K3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
-      <c r="U3" s="63" t="s">
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="U3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="55" t="s">
+      <c r="V3" s="63"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="57"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="56"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -3239,8 +3200,8 @@
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="U5" s="31"/>
       <c r="V5" s="12"/>
       <c r="W5" s="35"/>
@@ -3286,8 +3247,8 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="11"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="70"/>
       <c r="U6" s="32"/>
       <c r="V6" s="5"/>
       <c r="W6" s="36"/>
@@ -3333,8 +3294,8 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="11"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="70"/>
       <c r="U7" s="32"/>
       <c r="V7" s="5"/>
       <c r="W7" s="36"/>
@@ -3380,8 +3341,8 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="11"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
       <c r="U8" s="32"/>
       <c r="V8" s="5"/>
       <c r="W8" s="36"/>
@@ -3427,8 +3388,8 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="11"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
       <c r="U9" s="32"/>
       <c r="V9" s="5"/>
       <c r="W9" s="36"/>
@@ -3474,8 +3435,8 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="11"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="70"/>
       <c r="U10" s="32"/>
       <c r="V10" s="5"/>
       <c r="W10" s="36"/>
@@ -3521,8 +3482,8 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="11"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="70"/>
       <c r="U11" s="32"/>
       <c r="V11" s="5"/>
       <c r="W11" s="36"/>
@@ -3568,8 +3529,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="11"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="70"/>
       <c r="U12" s="32"/>
       <c r="V12" s="5"/>
       <c r="W12" s="36"/>
@@ -3615,8 +3576,8 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="11"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="70"/>
       <c r="U13" s="32"/>
       <c r="V13" s="5"/>
       <c r="W13" s="36"/>
@@ -3662,8 +3623,8 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="11"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="70"/>
       <c r="U14" s="32"/>
       <c r="V14" s="5"/>
       <c r="W14" s="36"/>
@@ -3709,8 +3670,8 @@
       <c r="O15" s="3"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="8"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="71"/>
       <c r="U15" s="32"/>
       <c r="V15" s="5"/>
       <c r="W15" s="36"/>
@@ -3756,8 +3717,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="8"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="71"/>
       <c r="U16" s="32"/>
       <c r="V16" s="5"/>
       <c r="W16" s="36"/>
@@ -3803,8 +3764,8 @@
       <c r="O17" s="3"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="8"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="71"/>
       <c r="U17" s="32"/>
       <c r="V17" s="5"/>
       <c r="W17" s="36"/>
@@ -3850,8 +3811,8 @@
       <c r="O18" s="3"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="8"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="71"/>
       <c r="U18" s="32"/>
       <c r="V18" s="5"/>
       <c r="W18" s="36"/>
@@ -3897,8 +3858,8 @@
       <c r="O19" s="3"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="8"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="71"/>
       <c r="U19" s="32"/>
       <c r="V19" s="5"/>
       <c r="W19" s="36"/>
@@ -3944,8 +3905,8 @@
       <c r="O20" s="3"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="8"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="71"/>
       <c r="U20" s="32"/>
       <c r="V20" s="5"/>
       <c r="W20" s="36"/>
@@ -3991,8 +3952,8 @@
       <c r="O21" s="3"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="8"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="71"/>
       <c r="U21" s="32"/>
       <c r="V21" s="5"/>
       <c r="W21" s="36"/>
@@ -4007,7 +3968,7 @@
       <c r="A22" s="32"/>
       <c r="B22" s="2"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="49" t="e">
+      <c r="D22" s="48" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -4038,8 +3999,8 @@
       <c r="O22" s="3"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="8"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="71"/>
       <c r="U22" s="32"/>
       <c r="V22" s="5"/>
       <c r="W22" s="36"/>
@@ -4054,7 +4015,7 @@
       <c r="A23" s="32"/>
       <c r="B23" s="2"/>
       <c r="C23" s="34"/>
-      <c r="D23" s="50" t="e">
+      <c r="D23" s="49" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
       </c>
@@ -4085,8 +4046,8 @@
       <c r="O23" s="3"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="8"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="71"/>
       <c r="U23" s="32"/>
       <c r="V23" s="5"/>
       <c r="W23" s="36"/>
@@ -4132,8 +4093,8 @@
       <c r="O24" s="3"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="8"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="71"/>
       <c r="U24" s="32"/>
       <c r="V24" s="5"/>
       <c r="W24" s="36"/>
@@ -4179,8 +4140,8 @@
       <c r="O25" s="3"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="8"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="71"/>
       <c r="U25" s="32"/>
       <c r="V25" s="5"/>
       <c r="W25" s="36"/>
@@ -4226,8 +4187,8 @@
       <c r="O26" s="3"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="8"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="71"/>
       <c r="U26" s="32"/>
       <c r="V26" s="5"/>
       <c r="W26" s="36"/>
@@ -4273,8 +4234,8 @@
       <c r="O27" s="3"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="8"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="71"/>
       <c r="U27" s="32"/>
       <c r="V27" s="5"/>
       <c r="W27" s="36"/>
@@ -4320,8 +4281,8 @@
       <c r="O28" s="3"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="8"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="71"/>
       <c r="U28" s="32"/>
       <c r="V28" s="5"/>
       <c r="W28" s="36"/>
@@ -4367,8 +4328,8 @@
       <c r="O29" s="3"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="8"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="71"/>
       <c r="U29" s="32"/>
       <c r="V29" s="5"/>
       <c r="W29" s="36"/>
@@ -4414,8 +4375,8 @@
       <c r="O30" s="3"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="8"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="71"/>
       <c r="U30" s="32"/>
       <c r="V30" s="5"/>
       <c r="W30" s="36"/>
@@ -4461,8 +4422,8 @@
       <c r="O31" s="3"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="8"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="71"/>
       <c r="U31" s="32"/>
       <c r="V31" s="5"/>
       <c r="W31" s="36"/>
@@ -4475,7 +4436,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
-      <c r="B32" s="47"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="34"/>
       <c r="D32" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
@@ -4508,8 +4469,8 @@
       <c r="O32" s="3"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="8"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="71"/>
       <c r="U32" s="32"/>
       <c r="V32" s="5"/>
       <c r="W32" s="36"/>
@@ -4523,7 +4484,7 @@
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="48"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4555,8 +4516,8 @@
       <c r="O33" s="3"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="8"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="71"/>
       <c r="U33" s="32"/>
       <c r="V33" s="5"/>
       <c r="W33" s="36"/>
@@ -4570,7 +4531,7 @@
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="48"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4602,8 +4563,8 @@
       <c r="O34" s="3"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="8"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="71"/>
       <c r="U34" s="32"/>
       <c r="V34" s="5"/>
       <c r="W34" s="36"/>
@@ -4617,7 +4578,7 @@
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="48"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4649,8 +4610,8 @@
       <c r="O35" s="3"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="8"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="71"/>
       <c r="U35" s="32"/>
       <c r="V35" s="5"/>
       <c r="W35" s="36"/>
@@ -4664,7 +4625,7 @@
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="37"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="48"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4696,8 +4657,8 @@
       <c r="O36" s="3"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="8"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="71"/>
       <c r="U36" s="32"/>
       <c r="V36" s="5"/>
       <c r="W36" s="36"/>
@@ -4711,7 +4672,7 @@
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="48"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4743,8 +4704,8 @@
       <c r="O37" s="3"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="8"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="71"/>
       <c r="U37" s="32"/>
       <c r="V37" s="5"/>
       <c r="W37" s="36"/>
@@ -4758,7 +4719,7 @@
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="48"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4790,8 +4751,8 @@
       <c r="O38" s="3"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="8"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="71"/>
       <c r="U38" s="32"/>
       <c r="V38" s="5"/>
       <c r="W38" s="36"/>
@@ -4805,7 +4766,7 @@
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="48"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4837,8 +4798,8 @@
       <c r="O39" s="3"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="8"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="71"/>
       <c r="U39" s="32"/>
       <c r="V39" s="5"/>
       <c r="W39" s="36"/>
@@ -4852,7 +4813,7 @@
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="48"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4884,8 +4845,8 @@
       <c r="O40" s="3"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="8"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="71"/>
       <c r="U40" s="32"/>
       <c r="V40" s="5"/>
       <c r="W40" s="36"/>
@@ -4899,7 +4860,7 @@
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="48"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4931,8 +4892,8 @@
       <c r="O41" s="3"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="8"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="71"/>
       <c r="U41" s="32"/>
       <c r="V41" s="5"/>
       <c r="W41" s="36"/>
@@ -4946,7 +4907,7 @@
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="48"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -4978,8 +4939,8 @@
       <c r="O42" s="3"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="8"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="71"/>
       <c r="U42" s="32"/>
       <c r="V42" s="5"/>
       <c r="W42" s="36"/>
@@ -4993,7 +4954,7 @@
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="37"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="48"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5025,8 +4986,8 @@
       <c r="O43" s="3"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="8"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="71"/>
       <c r="U43" s="32"/>
       <c r="V43" s="5"/>
       <c r="W43" s="36"/>
@@ -5040,7 +5001,7 @@
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="48"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5072,8 +5033,8 @@
       <c r="O44" s="3"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="8"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="71"/>
       <c r="U44" s="32"/>
       <c r="V44" s="5"/>
       <c r="W44" s="36"/>
@@ -5087,7 +5048,7 @@
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="37"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="48"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5119,8 +5080,8 @@
       <c r="O45" s="3"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="8"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="71"/>
       <c r="U45" s="32"/>
       <c r="V45" s="5"/>
       <c r="W45" s="36"/>
@@ -5134,7 +5095,7 @@
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="37"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="48"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5166,8 +5127,8 @@
       <c r="O46" s="3"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="8"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="71"/>
       <c r="U46" s="32"/>
       <c r="V46" s="5"/>
       <c r="W46" s="36"/>
@@ -5181,7 +5142,7 @@
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="37"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="48"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5213,8 +5174,8 @@
       <c r="O47" s="3"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="8"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="71"/>
       <c r="U47" s="32"/>
       <c r="V47" s="5"/>
       <c r="W47" s="36"/>
@@ -5228,7 +5189,7 @@
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="37"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="48"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5260,8 +5221,8 @@
       <c r="O48" s="3"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="8"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="71"/>
       <c r="U48" s="32"/>
       <c r="V48" s="5"/>
       <c r="W48" s="36"/>
@@ -5275,7 +5236,7 @@
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="37"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="48"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5307,8 +5268,8 @@
       <c r="O49" s="3"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="8"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="71"/>
       <c r="U49" s="32"/>
       <c r="V49" s="5"/>
       <c r="W49" s="36"/>
@@ -5322,7 +5283,7 @@
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="37"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="48"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5354,8 +5315,8 @@
       <c r="O50" s="3"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="8"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="71"/>
       <c r="U50" s="32"/>
       <c r="V50" s="5"/>
       <c r="W50" s="36"/>
@@ -5369,7 +5330,7 @@
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="37"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="48"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5401,8 +5362,8 @@
       <c r="O51" s="3"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="8"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="71"/>
       <c r="U51" s="32"/>
       <c r="V51" s="5"/>
       <c r="W51" s="36"/>
@@ -5416,7 +5377,7 @@
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="37"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="48"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5448,8 +5409,8 @@
       <c r="O52" s="3"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="8"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="71"/>
       <c r="U52" s="32"/>
       <c r="V52" s="5"/>
       <c r="W52" s="36"/>
@@ -5463,7 +5424,7 @@
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="37"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="48"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5495,8 +5456,8 @@
       <c r="O53" s="3"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="8"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="71"/>
       <c r="U53" s="32"/>
       <c r="V53" s="5"/>
       <c r="W53" s="36"/>
@@ -5510,7 +5471,7 @@
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="37"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="48"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5542,8 +5503,8 @@
       <c r="O54" s="3"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="8"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="71"/>
       <c r="U54" s="32"/>
       <c r="V54" s="5"/>
       <c r="W54" s="36"/>
@@ -5557,7 +5518,7 @@
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="37"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="48"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5589,8 +5550,8 @@
       <c r="O55" s="3"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="8"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="71"/>
       <c r="U55" s="32"/>
       <c r="V55" s="5"/>
       <c r="W55" s="36"/>
@@ -5604,7 +5565,7 @@
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="37"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="48"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5636,8 +5597,8 @@
       <c r="O56" s="3"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="8"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="71"/>
       <c r="U56" s="32"/>
       <c r="V56" s="5"/>
       <c r="W56" s="36"/>
@@ -5651,7 +5612,7 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="37"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="48"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5683,8 +5644,8 @@
       <c r="O57" s="3"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="8"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="71"/>
       <c r="U57" s="32"/>
       <c r="V57" s="5"/>
       <c r="W57" s="36"/>
@@ -5698,7 +5659,7 @@
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="37"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="48"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5730,8 +5691,8 @@
       <c r="O58" s="3"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="8"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="71"/>
       <c r="U58" s="32"/>
       <c r="V58" s="5"/>
       <c r="W58" s="36"/>
@@ -5745,7 +5706,7 @@
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="37"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="48"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5777,8 +5738,8 @@
       <c r="O59" s="3"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="8"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="71"/>
       <c r="U59" s="32"/>
       <c r="V59" s="5"/>
       <c r="W59" s="36"/>
@@ -5792,7 +5753,7 @@
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="37"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="48"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5824,8 +5785,8 @@
       <c r="O60" s="3"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="8"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="71"/>
       <c r="U60" s="32"/>
       <c r="V60" s="5"/>
       <c r="W60" s="36"/>
@@ -5839,7 +5800,7 @@
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="37"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="48"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5871,8 +5832,8 @@
       <c r="O61" s="3"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="8"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="71"/>
       <c r="U61" s="32"/>
       <c r="V61" s="5"/>
       <c r="W61" s="36"/>
@@ -5886,7 +5847,7 @@
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="37"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="48"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5918,8 +5879,8 @@
       <c r="O62" s="3"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="8"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="71"/>
       <c r="U62" s="37"/>
       <c r="V62" s="5"/>
       <c r="W62" s="40"/>
@@ -5933,7 +5894,7 @@
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="48"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -5965,8 +5926,8 @@
       <c r="O63" s="3"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="8"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="71"/>
       <c r="U63" s="37"/>
       <c r="V63" s="5"/>
       <c r="W63" s="40"/>
@@ -5980,7 +5941,7 @@
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="37"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="48"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6012,8 +5973,8 @@
       <c r="O64" s="3"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="8"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="71"/>
       <c r="U64" s="37"/>
       <c r="V64" s="5"/>
       <c r="W64" s="40"/>
@@ -6027,7 +5988,7 @@
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="37"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="48"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6059,8 +6020,8 @@
       <c r="O65" s="3"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="8"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="71"/>
       <c r="U65" s="37"/>
       <c r="V65" s="5"/>
       <c r="W65" s="40"/>
@@ -6074,7 +6035,7 @@
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="37"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="48"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6106,8 +6067,8 @@
       <c r="O66" s="3"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="8"/>
+      <c r="R66" s="66"/>
+      <c r="S66" s="71"/>
       <c r="U66" s="37"/>
       <c r="V66" s="5"/>
       <c r="W66" s="40"/>
@@ -6121,7 +6082,7 @@
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="37"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="48"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6153,8 +6114,8 @@
       <c r="O67" s="3"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="8"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="71"/>
       <c r="U67" s="37"/>
       <c r="V67" s="5"/>
       <c r="W67" s="40"/>
@@ -6168,7 +6129,7 @@
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="37"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="48"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6200,8 +6161,8 @@
       <c r="O68" s="3"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="8"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="71"/>
       <c r="U68" s="37"/>
       <c r="V68" s="5"/>
       <c r="W68" s="40"/>
@@ -6215,7 +6176,7 @@
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="37"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="48"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6247,8 +6208,8 @@
       <c r="O69" s="3"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="8"/>
+      <c r="R69" s="66"/>
+      <c r="S69" s="71"/>
       <c r="U69" s="37"/>
       <c r="V69" s="5"/>
       <c r="W69" s="40"/>
@@ -6262,7 +6223,7 @@
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="37"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="48"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6294,8 +6255,8 @@
       <c r="O70" s="3"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="8"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="71"/>
       <c r="U70" s="37"/>
       <c r="V70" s="5"/>
       <c r="W70" s="40"/>
@@ -6309,7 +6270,7 @@
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="48"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6341,8 +6302,8 @@
       <c r="O71" s="3"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="8"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="71"/>
       <c r="U71" s="37"/>
       <c r="V71" s="5"/>
       <c r="W71" s="40"/>
@@ -6356,7 +6317,7 @@
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="37"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="48"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6388,8 +6349,8 @@
       <c r="O72" s="3"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="8"/>
+      <c r="R72" s="66"/>
+      <c r="S72" s="71"/>
       <c r="U72" s="37"/>
       <c r="V72" s="5"/>
       <c r="W72" s="40"/>
@@ -6403,7 +6364,7 @@
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="37"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="48"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6435,8 +6396,8 @@
       <c r="O73" s="3"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="8"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="71"/>
       <c r="U73" s="37"/>
       <c r="V73" s="5"/>
       <c r="W73" s="40"/>
@@ -6450,7 +6411,7 @@
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="37"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="48"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6482,8 +6443,8 @@
       <c r="O74" s="3"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="8"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="71"/>
       <c r="U74" s="37"/>
       <c r="V74" s="5"/>
       <c r="W74" s="40"/>
@@ -6497,7 +6458,7 @@
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="37"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="48"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6529,8 +6490,8 @@
       <c r="O75" s="3"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="8"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="71"/>
       <c r="U75" s="37"/>
       <c r="V75" s="5"/>
       <c r="W75" s="40"/>
@@ -6544,7 +6505,7 @@
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="37"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="48"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6576,8 +6537,8 @@
       <c r="O76" s="3"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="8"/>
+      <c r="R76" s="66"/>
+      <c r="S76" s="71"/>
       <c r="U76" s="37"/>
       <c r="V76" s="5"/>
       <c r="W76" s="40"/>
@@ -6591,7 +6552,7 @@
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="37"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="48"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6623,8 +6584,8 @@
       <c r="O77" s="3"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="8"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="71"/>
       <c r="U77" s="37"/>
       <c r="V77" s="5"/>
       <c r="W77" s="40"/>
@@ -6638,7 +6599,7 @@
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="37"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="48"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6670,8 +6631,8 @@
       <c r="O78" s="3"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="8"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="71"/>
       <c r="U78" s="37"/>
       <c r="V78" s="5"/>
       <c r="W78" s="40"/>
@@ -6685,7 +6646,7 @@
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="37"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="48"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6717,8 +6678,8 @@
       <c r="O79" s="3"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="8"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="71"/>
       <c r="U79" s="37"/>
       <c r="V79" s="5"/>
       <c r="W79" s="40"/>
@@ -6732,7 +6693,7 @@
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="37"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="48"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6764,8 +6725,8 @@
       <c r="O80" s="3"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="8"/>
+      <c r="R80" s="66"/>
+      <c r="S80" s="71"/>
       <c r="U80" s="37"/>
       <c r="V80" s="5"/>
       <c r="W80" s="40"/>
@@ -6779,7 +6740,7 @@
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="37"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="48"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6811,8 +6772,8 @@
       <c r="O81" s="3"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="8"/>
+      <c r="R81" s="66"/>
+      <c r="S81" s="71"/>
       <c r="U81" s="37"/>
       <c r="V81" s="5"/>
       <c r="W81" s="40"/>
@@ -6826,7 +6787,7 @@
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="37"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="48"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6858,8 +6819,8 @@
       <c r="O82" s="3"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="8"/>
+      <c r="R82" s="66"/>
+      <c r="S82" s="71"/>
       <c r="U82" s="37"/>
       <c r="V82" s="5"/>
       <c r="W82" s="40"/>
@@ -6873,7 +6834,7 @@
     <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="37"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="48"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6905,8 +6866,8 @@
       <c r="O83" s="3"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="8"/>
+      <c r="R83" s="66"/>
+      <c r="S83" s="71"/>
       <c r="U83" s="37"/>
       <c r="V83" s="5"/>
       <c r="W83" s="40"/>
@@ -6920,7 +6881,7 @@
     <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="37"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="48"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="7" t="e">
         <f>((Table142[[#This Row],[Throughput'[Gbps']]]-Table14[[#This Row],[Throughput'[Gbps']]])/Table14[[#This Row],[Throughput'[Gbps']]])*100</f>
         <v>#DIV/0!</v>
@@ -6952,8 +6913,8 @@
       <c r="O84" s="3"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="8"/>
+      <c r="R84" s="66"/>
+      <c r="S84" s="71"/>
       <c r="U84" s="37"/>
       <c r="V84" s="5"/>
       <c r="W84" s="40"/>
@@ -6962,7 +6923,7 @@
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
-      <c r="AC84" s="45"/>
+      <c r="AC84" s="44"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="42"/>
@@ -6999,8 +6960,8 @@
       <c r="O85" s="3"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="8"/>
+      <c r="R85" s="66"/>
+      <c r="S85" s="71"/>
       <c r="U85" s="37"/>
       <c r="V85" s="2"/>
       <c r="W85" s="40"/>
@@ -7046,8 +7007,8 @@
       <c r="O86" s="3"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="8"/>
+      <c r="R86" s="66"/>
+      <c r="S86" s="71"/>
       <c r="U86" s="37"/>
       <c r="V86" s="2"/>
       <c r="W86" s="40"/>
@@ -7093,8 +7054,8 @@
       <c r="O87" s="3"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="8"/>
+      <c r="R87" s="66"/>
+      <c r="S87" s="71"/>
       <c r="U87" s="37"/>
       <c r="V87" s="2"/>
       <c r="W87" s="40"/>
@@ -7140,8 +7101,8 @@
       <c r="O88" s="3"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="8"/>
+      <c r="R88" s="66"/>
+      <c r="S88" s="71"/>
       <c r="U88" s="37"/>
       <c r="V88" s="2"/>
       <c r="W88" s="40"/>
@@ -7187,8 +7148,8 @@
       <c r="O89" s="3"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="8"/>
+      <c r="R89" s="66"/>
+      <c r="S89" s="71"/>
       <c r="U89" s="37"/>
       <c r="V89" s="2"/>
       <c r="W89" s="40"/>
@@ -7234,8 +7195,8 @@
       <c r="O90" s="3"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="8"/>
+      <c r="R90" s="66"/>
+      <c r="S90" s="71"/>
       <c r="U90" s="37"/>
       <c r="V90" s="2"/>
       <c r="W90" s="40"/>
@@ -7281,8 +7242,8 @@
       <c r="O91" s="3"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="8"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="71"/>
       <c r="U91" s="37"/>
       <c r="V91" s="2"/>
       <c r="W91" s="40"/>
@@ -7328,8 +7289,8 @@
       <c r="O92" s="3"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="8"/>
+      <c r="R92" s="66"/>
+      <c r="S92" s="71"/>
       <c r="U92" s="37"/>
       <c r="V92" s="2"/>
       <c r="W92" s="40"/>
@@ -7375,8 +7336,8 @@
       <c r="O93" s="3"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="8"/>
+      <c r="R93" s="66"/>
+      <c r="S93" s="71"/>
       <c r="U93" s="37"/>
       <c r="V93" s="2"/>
       <c r="W93" s="40"/>
@@ -7422,8 +7383,8 @@
       <c r="O94" s="3"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="8"/>
+      <c r="R94" s="66"/>
+      <c r="S94" s="71"/>
       <c r="U94" s="37"/>
       <c r="V94" s="2"/>
       <c r="W94" s="40"/>
@@ -7469,8 +7430,8 @@
       <c r="O95" s="3"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="8"/>
+      <c r="R95" s="66"/>
+      <c r="S95" s="71"/>
       <c r="U95" s="37"/>
       <c r="V95" s="2"/>
       <c r="W95" s="40"/>
@@ -7516,8 +7477,8 @@
       <c r="O96" s="3"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="8"/>
+      <c r="R96" s="66"/>
+      <c r="S96" s="71"/>
       <c r="U96" s="37"/>
       <c r="V96" s="2"/>
       <c r="W96" s="40"/>
@@ -7563,8 +7524,8 @@
       <c r="O97" s="3"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="8"/>
+      <c r="R97" s="66"/>
+      <c r="S97" s="71"/>
       <c r="U97" s="37"/>
       <c r="V97" s="2"/>
       <c r="W97" s="40"/>
@@ -7610,8 +7571,8 @@
       <c r="O98" s="3"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="8"/>
+      <c r="R98" s="66"/>
+      <c r="S98" s="71"/>
       <c r="U98" s="37"/>
       <c r="V98" s="2"/>
       <c r="W98" s="40"/>
@@ -7657,8 +7618,8 @@
       <c r="O99" s="3"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="8"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="71"/>
       <c r="U99" s="37"/>
       <c r="V99" s="2"/>
       <c r="W99" s="40"/>
@@ -7704,8 +7665,8 @@
       <c r="O100" s="3"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="8"/>
+      <c r="R100" s="66"/>
+      <c r="S100" s="71"/>
       <c r="U100" s="37"/>
       <c r="V100" s="2"/>
       <c r="W100" s="40"/>
@@ -7751,8 +7712,8 @@
       <c r="O101" s="3"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="8"/>
+      <c r="R101" s="66"/>
+      <c r="S101" s="71"/>
       <c r="U101" s="37"/>
       <c r="V101" s="2"/>
       <c r="W101" s="40"/>
@@ -7798,8 +7759,8 @@
       <c r="O102" s="3"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="8"/>
+      <c r="R102" s="66"/>
+      <c r="S102" s="71"/>
       <c r="U102" s="37"/>
       <c r="V102" s="2"/>
       <c r="W102" s="40"/>
@@ -7845,8 +7806,8 @@
       <c r="O103" s="3"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="8"/>
+      <c r="R103" s="66"/>
+      <c r="S103" s="71"/>
       <c r="U103" s="37"/>
       <c r="V103" s="2"/>
       <c r="W103" s="40"/>
@@ -7892,8 +7853,8 @@
       <c r="O104" s="3"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="8"/>
+      <c r="R104" s="66"/>
+      <c r="S104" s="71"/>
       <c r="U104" s="37"/>
       <c r="V104" s="2"/>
       <c r="W104" s="40"/>
@@ -7939,8 +7900,8 @@
       <c r="O105" s="3"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="8"/>
+      <c r="R105" s="66"/>
+      <c r="S105" s="71"/>
       <c r="U105" s="37"/>
       <c r="V105" s="2"/>
       <c r="W105" s="40"/>
@@ -7986,8 +7947,8 @@
       <c r="O106" s="3"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="8"/>
+      <c r="R106" s="66"/>
+      <c r="S106" s="71"/>
       <c r="U106" s="37"/>
       <c r="V106" s="2"/>
       <c r="W106" s="40"/>
@@ -8033,8 +7994,8 @@
       <c r="O107" s="3"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="8"/>
+      <c r="R107" s="66"/>
+      <c r="S107" s="71"/>
       <c r="U107" s="37"/>
       <c r="V107" s="2"/>
       <c r="W107" s="40"/>
@@ -8080,8 +8041,8 @@
       <c r="O108" s="3"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="8"/>
+      <c r="R108" s="66"/>
+      <c r="S108" s="71"/>
       <c r="U108" s="37"/>
       <c r="V108" s="2"/>
       <c r="W108" s="40"/>
@@ -8127,8 +8088,8 @@
       <c r="O109" s="3"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="8"/>
+      <c r="R109" s="66"/>
+      <c r="S109" s="71"/>
       <c r="U109" s="37"/>
       <c r="V109" s="2"/>
       <c r="W109" s="40"/>
@@ -8174,8 +8135,8 @@
       <c r="O110" s="3"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="8"/>
+      <c r="R110" s="66"/>
+      <c r="S110" s="71"/>
       <c r="U110" s="37"/>
       <c r="V110" s="2"/>
       <c r="W110" s="40"/>
@@ -8221,8 +8182,8 @@
       <c r="O111" s="3"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="8"/>
+      <c r="R111" s="66"/>
+      <c r="S111" s="71"/>
       <c r="U111" s="37"/>
       <c r="V111" s="2"/>
       <c r="W111" s="40"/>
@@ -8268,8 +8229,8 @@
       <c r="O112" s="3"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="8"/>
+      <c r="R112" s="66"/>
+      <c r="S112" s="71"/>
       <c r="U112" s="37"/>
       <c r="V112" s="2"/>
       <c r="W112" s="40"/>
@@ -8315,8 +8276,8 @@
       <c r="O113" s="3"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="8"/>
+      <c r="R113" s="66"/>
+      <c r="S113" s="71"/>
       <c r="U113" s="37"/>
       <c r="V113" s="2"/>
       <c r="W113" s="40"/>
@@ -8362,8 +8323,8 @@
       <c r="O114" s="3"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="8"/>
+      <c r="R114" s="66"/>
+      <c r="S114" s="71"/>
       <c r="U114" s="37"/>
       <c r="V114" s="2"/>
       <c r="W114" s="40"/>
@@ -8409,8 +8370,8 @@
       <c r="O115" s="3"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="8"/>
+      <c r="R115" s="66"/>
+      <c r="S115" s="71"/>
       <c r="U115" s="37"/>
       <c r="V115" s="2"/>
       <c r="W115" s="40"/>
@@ -8456,8 +8417,8 @@
       <c r="O116" s="3"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="8"/>
+      <c r="R116" s="66"/>
+      <c r="S116" s="71"/>
       <c r="U116" s="37"/>
       <c r="V116" s="2"/>
       <c r="W116" s="40"/>
@@ -8503,8 +8464,8 @@
       <c r="O117" s="3"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="8"/>
+      <c r="R117" s="66"/>
+      <c r="S117" s="71"/>
       <c r="U117" s="37"/>
       <c r="V117" s="2"/>
       <c r="W117" s="40"/>
@@ -8550,8 +8511,8 @@
       <c r="O118" s="3"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="8"/>
+      <c r="R118" s="66"/>
+      <c r="S118" s="71"/>
       <c r="U118" s="37"/>
       <c r="V118" s="2"/>
       <c r="W118" s="40"/>
@@ -8597,8 +8558,8 @@
       <c r="O119" s="3"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="8"/>
+      <c r="R119" s="66"/>
+      <c r="S119" s="71"/>
       <c r="U119" s="37"/>
       <c r="V119" s="2"/>
       <c r="W119" s="40"/>
@@ -8644,8 +8605,8 @@
       <c r="O120" s="3"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="8"/>
+      <c r="R120" s="66"/>
+      <c r="S120" s="71"/>
       <c r="U120" s="37"/>
       <c r="V120" s="2"/>
       <c r="W120" s="40"/>
@@ -8691,8 +8652,8 @@
       <c r="O121" s="3"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-      <c r="S121" s="8"/>
+      <c r="R121" s="66"/>
+      <c r="S121" s="71"/>
       <c r="U121" s="37"/>
       <c r="V121" s="2"/>
       <c r="W121" s="40"/>
@@ -8738,8 +8699,8 @@
       <c r="O122" s="3"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="8"/>
+      <c r="R122" s="66"/>
+      <c r="S122" s="71"/>
       <c r="U122" s="37"/>
       <c r="V122" s="2"/>
       <c r="W122" s="40"/>
@@ -8785,8 +8746,8 @@
       <c r="O123" s="3"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="8"/>
+      <c r="R123" s="66"/>
+      <c r="S123" s="71"/>
       <c r="U123" s="37"/>
       <c r="V123" s="2"/>
       <c r="W123" s="40"/>
@@ -8832,8 +8793,8 @@
       <c r="O124" s="3"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-      <c r="S124" s="8"/>
+      <c r="R124" s="66"/>
+      <c r="S124" s="71"/>
       <c r="U124" s="37"/>
       <c r="V124" s="2"/>
       <c r="W124" s="40"/>
@@ -8879,8 +8840,8 @@
       <c r="O125" s="3"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="8"/>
+      <c r="R125" s="66"/>
+      <c r="S125" s="71"/>
       <c r="U125" s="37"/>
       <c r="V125" s="2"/>
       <c r="W125" s="40"/>
@@ -8926,8 +8887,8 @@
       <c r="O126" s="3"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="S126" s="8"/>
+      <c r="R126" s="66"/>
+      <c r="S126" s="71"/>
       <c r="U126" s="37"/>
       <c r="V126" s="2"/>
       <c r="W126" s="40"/>
@@ -8973,8 +8934,8 @@
       <c r="O127" s="3"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="8"/>
+      <c r="R127" s="66"/>
+      <c r="S127" s="71"/>
       <c r="U127" s="37"/>
       <c r="V127" s="2"/>
       <c r="W127" s="40"/>
@@ -9020,8 +8981,8 @@
       <c r="O128" s="3"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="S128" s="8"/>
+      <c r="R128" s="66"/>
+      <c r="S128" s="71"/>
       <c r="U128" s="37"/>
       <c r="V128" s="2"/>
       <c r="W128" s="40"/>
@@ -9067,8 +9028,8 @@
       <c r="O129" s="3"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="8"/>
+      <c r="R129" s="66"/>
+      <c r="S129" s="71"/>
       <c r="U129" s="37"/>
       <c r="V129" s="2"/>
       <c r="W129" s="40"/>
@@ -9114,8 +9075,8 @@
       <c r="O130" s="3"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="8"/>
+      <c r="R130" s="66"/>
+      <c r="S130" s="71"/>
       <c r="U130" s="37"/>
       <c r="V130" s="2"/>
       <c r="W130" s="40"/>
@@ -9161,8 +9122,8 @@
       <c r="O131" s="3"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-      <c r="S131" s="8"/>
+      <c r="R131" s="66"/>
+      <c r="S131" s="71"/>
       <c r="U131" s="37"/>
       <c r="V131" s="2"/>
       <c r="W131" s="40"/>
@@ -9208,8 +9169,8 @@
       <c r="O132" s="3"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-      <c r="S132" s="8"/>
+      <c r="R132" s="66"/>
+      <c r="S132" s="71"/>
       <c r="U132" s="37"/>
       <c r="V132" s="2"/>
       <c r="W132" s="40"/>
@@ -9255,8 +9216,8 @@
       <c r="O133" s="3"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="8"/>
+      <c r="R133" s="66"/>
+      <c r="S133" s="71"/>
       <c r="U133" s="37"/>
       <c r="V133" s="2"/>
       <c r="W133" s="40"/>
@@ -9302,8 +9263,8 @@
       <c r="O134" s="3"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="S134" s="8"/>
+      <c r="R134" s="66"/>
+      <c r="S134" s="71"/>
       <c r="U134" s="37"/>
       <c r="V134" s="2"/>
       <c r="W134" s="40"/>
@@ -9349,8 +9310,8 @@
       <c r="O135" s="3"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="S135" s="8"/>
+      <c r="R135" s="66"/>
+      <c r="S135" s="71"/>
       <c r="U135" s="37"/>
       <c r="V135" s="2"/>
       <c r="W135" s="40"/>
@@ -9396,8 +9357,8 @@
       <c r="O136" s="3"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="3"/>
-      <c r="R136" s="3"/>
-      <c r="S136" s="8"/>
+      <c r="R136" s="66"/>
+      <c r="S136" s="71"/>
       <c r="U136" s="37"/>
       <c r="V136" s="2"/>
       <c r="W136" s="40"/>
@@ -9443,8 +9404,8 @@
       <c r="O137" s="3"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="S137" s="8"/>
+      <c r="R137" s="66"/>
+      <c r="S137" s="71"/>
       <c r="U137" s="37"/>
       <c r="V137" s="2"/>
       <c r="W137" s="40"/>
@@ -9490,8 +9451,8 @@
       <c r="O138" s="3"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
-      <c r="S138" s="8"/>
+      <c r="R138" s="66"/>
+      <c r="S138" s="71"/>
       <c r="U138" s="37"/>
       <c r="V138" s="2"/>
       <c r="W138" s="40"/>
@@ -9537,8 +9498,8 @@
       <c r="O139" s="3"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="8"/>
+      <c r="R139" s="66"/>
+      <c r="S139" s="71"/>
       <c r="U139" s="37"/>
       <c r="V139" s="2"/>
       <c r="W139" s="40"/>
@@ -9584,8 +9545,8 @@
       <c r="O140" s="3"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="S140" s="8"/>
+      <c r="R140" s="66"/>
+      <c r="S140" s="71"/>
       <c r="U140" s="37"/>
       <c r="V140" s="2"/>
       <c r="W140" s="40"/>
@@ -9631,8 +9592,8 @@
       <c r="O141" s="3"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-      <c r="S141" s="8"/>
+      <c r="R141" s="66"/>
+      <c r="S141" s="71"/>
       <c r="U141" s="37"/>
       <c r="V141" s="2"/>
       <c r="W141" s="40"/>
@@ -9678,8 +9639,8 @@
       <c r="O142" s="3"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-      <c r="S142" s="8"/>
+      <c r="R142" s="66"/>
+      <c r="S142" s="71"/>
       <c r="U142" s="37"/>
       <c r="V142" s="2"/>
       <c r="W142" s="40"/>
@@ -9725,8 +9686,8 @@
       <c r="O143" s="3"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
-      <c r="S143" s="8"/>
+      <c r="R143" s="66"/>
+      <c r="S143" s="71"/>
       <c r="U143" s="37"/>
       <c r="V143" s="2"/>
       <c r="W143" s="40"/>
@@ -9772,8 +9733,8 @@
       <c r="O144" s="3"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-      <c r="S144" s="8"/>
+      <c r="R144" s="66"/>
+      <c r="S144" s="71"/>
       <c r="U144" s="37"/>
       <c r="V144" s="2"/>
       <c r="W144" s="40"/>
@@ -9819,8 +9780,8 @@
       <c r="O145" s="3"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-      <c r="S145" s="8"/>
+      <c r="R145" s="66"/>
+      <c r="S145" s="71"/>
       <c r="U145" s="37"/>
       <c r="V145" s="2"/>
       <c r="W145" s="40"/>
@@ -9866,8 +9827,8 @@
       <c r="O146" s="3"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="3"/>
-      <c r="R146" s="3"/>
-      <c r="S146" s="8"/>
+      <c r="R146" s="66"/>
+      <c r="S146" s="71"/>
       <c r="U146" s="37"/>
       <c r="V146" s="2"/>
       <c r="W146" s="40"/>
@@ -9913,8 +9874,8 @@
       <c r="O147" s="3"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
-      <c r="S147" s="8"/>
+      <c r="R147" s="66"/>
+      <c r="S147" s="71"/>
       <c r="U147" s="37"/>
       <c r="V147" s="2"/>
       <c r="W147" s="40"/>
@@ -9960,8 +9921,8 @@
       <c r="O148" s="3"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="3"/>
-      <c r="R148" s="3"/>
-      <c r="S148" s="8"/>
+      <c r="R148" s="66"/>
+      <c r="S148" s="71"/>
       <c r="U148" s="37"/>
       <c r="V148" s="2"/>
       <c r="W148" s="40"/>
@@ -10007,8 +9968,8 @@
       <c r="O149" s="3"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-      <c r="S149" s="8"/>
+      <c r="R149" s="66"/>
+      <c r="S149" s="71"/>
       <c r="U149" s="37"/>
       <c r="V149" s="2"/>
       <c r="W149" s="40"/>
@@ -10054,8 +10015,8 @@
       <c r="O150" s="3"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
-      <c r="S150" s="8"/>
+      <c r="R150" s="66"/>
+      <c r="S150" s="71"/>
       <c r="U150" s="37"/>
       <c r="V150" s="2"/>
       <c r="W150" s="40"/>
@@ -10101,8 +10062,8 @@
       <c r="O151" s="3"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="3"/>
-      <c r="R151" s="3"/>
-      <c r="S151" s="8"/>
+      <c r="R151" s="66"/>
+      <c r="S151" s="71"/>
       <c r="U151" s="37"/>
       <c r="V151" s="2"/>
       <c r="W151" s="40"/>
@@ -10148,8 +10109,8 @@
       <c r="O152" s="3"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
-      <c r="S152" s="8"/>
+      <c r="R152" s="66"/>
+      <c r="S152" s="71"/>
       <c r="U152" s="37"/>
       <c r="V152" s="2"/>
       <c r="W152" s="40"/>
@@ -10195,8 +10156,8 @@
       <c r="O153" s="3"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="3"/>
-      <c r="R153" s="3"/>
-      <c r="S153" s="8"/>
+      <c r="R153" s="66"/>
+      <c r="S153" s="71"/>
       <c r="U153" s="37"/>
       <c r="V153" s="2"/>
       <c r="W153" s="40"/>
@@ -10242,8 +10203,8 @@
       <c r="O154" s="3"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="3"/>
-      <c r="R154" s="3"/>
-      <c r="S154" s="8"/>
+      <c r="R154" s="66"/>
+      <c r="S154" s="71"/>
       <c r="U154" s="37"/>
       <c r="V154" s="2"/>
       <c r="W154" s="40"/>
@@ -10289,8 +10250,8 @@
       <c r="O155" s="3"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="3"/>
-      <c r="R155" s="3"/>
-      <c r="S155" s="8"/>
+      <c r="R155" s="66"/>
+      <c r="S155" s="71"/>
       <c r="U155" s="37"/>
       <c r="V155" s="2"/>
       <c r="W155" s="40"/>
@@ -10336,8 +10297,8 @@
       <c r="O156" s="3"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
-      <c r="S156" s="8"/>
+      <c r="R156" s="66"/>
+      <c r="S156" s="71"/>
       <c r="U156" s="37"/>
       <c r="V156" s="2"/>
       <c r="W156" s="40"/>
@@ -10383,8 +10344,8 @@
       <c r="O157" s="3"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="3"/>
-      <c r="R157" s="3"/>
-      <c r="S157" s="8"/>
+      <c r="R157" s="66"/>
+      <c r="S157" s="71"/>
       <c r="U157" s="37"/>
       <c r="V157" s="2"/>
       <c r="W157" s="40"/>
@@ -10430,8 +10391,8 @@
       <c r="O158" s="3"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="3"/>
-      <c r="R158" s="3"/>
-      <c r="S158" s="8"/>
+      <c r="R158" s="66"/>
+      <c r="S158" s="71"/>
       <c r="U158" s="37"/>
       <c r="V158" s="2"/>
       <c r="W158" s="40"/>
@@ -10477,8 +10438,8 @@
       <c r="O159" s="3"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="3"/>
-      <c r="R159" s="3"/>
-      <c r="S159" s="8"/>
+      <c r="R159" s="66"/>
+      <c r="S159" s="71"/>
       <c r="U159" s="37"/>
       <c r="V159" s="2"/>
       <c r="W159" s="40"/>
@@ -10524,8 +10485,8 @@
       <c r="O160" s="3"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="3"/>
-      <c r="R160" s="3"/>
-      <c r="S160" s="8"/>
+      <c r="R160" s="66"/>
+      <c r="S160" s="71"/>
       <c r="U160" s="37"/>
       <c r="V160" s="2"/>
       <c r="W160" s="40"/>
@@ -10571,8 +10532,8 @@
       <c r="O161" s="3"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="3"/>
-      <c r="R161" s="3"/>
-      <c r="S161" s="8"/>
+      <c r="R161" s="66"/>
+      <c r="S161" s="71"/>
       <c r="U161" s="37"/>
       <c r="V161" s="2"/>
       <c r="W161" s="40"/>
@@ -10618,8 +10579,8 @@
       <c r="O162" s="3"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
-      <c r="S162" s="8"/>
+      <c r="R162" s="66"/>
+      <c r="S162" s="71"/>
       <c r="U162" s="37"/>
       <c r="V162" s="2"/>
       <c r="W162" s="40"/>
@@ -10665,8 +10626,8 @@
       <c r="O163" s="3"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
-      <c r="S163" s="8"/>
+      <c r="R163" s="66"/>
+      <c r="S163" s="71"/>
       <c r="U163" s="37"/>
       <c r="V163" s="2"/>
       <c r="W163" s="40"/>
@@ -10712,8 +10673,8 @@
       <c r="O164" s="3"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-      <c r="S164" s="8"/>
+      <c r="R164" s="66"/>
+      <c r="S164" s="71"/>
       <c r="U164" s="37"/>
       <c r="V164" s="2"/>
       <c r="W164" s="40"/>
@@ -10759,8 +10720,8 @@
       <c r="O165" s="3"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-      <c r="S165" s="8"/>
+      <c r="R165" s="66"/>
+      <c r="S165" s="71"/>
       <c r="U165" s="37"/>
       <c r="V165" s="2"/>
       <c r="W165" s="40"/>
@@ -10806,8 +10767,8 @@
       <c r="O166" s="3"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-      <c r="S166" s="8"/>
+      <c r="R166" s="66"/>
+      <c r="S166" s="71"/>
       <c r="U166" s="37"/>
       <c r="V166" s="2"/>
       <c r="W166" s="40"/>
@@ -10853,8 +10814,8 @@
       <c r="O167" s="3"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="3"/>
-      <c r="R167" s="3"/>
-      <c r="S167" s="8"/>
+      <c r="R167" s="66"/>
+      <c r="S167" s="71"/>
       <c r="U167" s="37"/>
       <c r="V167" s="2"/>
       <c r="W167" s="40"/>
@@ -10900,8 +10861,8 @@
       <c r="O168" s="3"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-      <c r="S168" s="8"/>
+      <c r="R168" s="66"/>
+      <c r="S168" s="71"/>
       <c r="U168" s="37"/>
       <c r="V168" s="2"/>
       <c r="W168" s="40"/>
@@ -10947,8 +10908,8 @@
       <c r="O169" s="3"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="3"/>
-      <c r="R169" s="3"/>
-      <c r="S169" s="8"/>
+      <c r="R169" s="66"/>
+      <c r="S169" s="71"/>
       <c r="U169" s="37"/>
       <c r="V169" s="2"/>
       <c r="W169" s="40"/>
@@ -10994,8 +10955,8 @@
       <c r="O170" s="3"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-      <c r="S170" s="8"/>
+      <c r="R170" s="66"/>
+      <c r="S170" s="71"/>
       <c r="U170" s="37"/>
       <c r="V170" s="2"/>
       <c r="W170" s="40"/>
@@ -11041,8 +11002,8 @@
       <c r="O171" s="3"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="3"/>
-      <c r="R171" s="3"/>
-      <c r="S171" s="8"/>
+      <c r="R171" s="66"/>
+      <c r="S171" s="71"/>
       <c r="U171" s="37"/>
       <c r="V171" s="2"/>
       <c r="W171" s="40"/>
@@ -11088,8 +11049,8 @@
       <c r="O172" s="3"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="3"/>
-      <c r="R172" s="3"/>
-      <c r="S172" s="8"/>
+      <c r="R172" s="66"/>
+      <c r="S172" s="71"/>
       <c r="U172" s="37"/>
       <c r="V172" s="2"/>
       <c r="W172" s="40"/>
@@ -11135,8 +11096,8 @@
       <c r="O173" s="3"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="3"/>
-      <c r="R173" s="3"/>
-      <c r="S173" s="8"/>
+      <c r="R173" s="66"/>
+      <c r="S173" s="71"/>
       <c r="U173" s="37"/>
       <c r="V173" s="2"/>
       <c r="W173" s="40"/>
@@ -11182,8 +11143,8 @@
       <c r="O174" s="3"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="3"/>
-      <c r="R174" s="3"/>
-      <c r="S174" s="8"/>
+      <c r="R174" s="66"/>
+      <c r="S174" s="71"/>
       <c r="U174" s="37"/>
       <c r="V174" s="2"/>
       <c r="W174" s="40"/>
@@ -11229,8 +11190,8 @@
       <c r="O175" s="3"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="3"/>
-      <c r="R175" s="3"/>
-      <c r="S175" s="8"/>
+      <c r="R175" s="66"/>
+      <c r="S175" s="71"/>
       <c r="U175" s="37"/>
       <c r="V175" s="2"/>
       <c r="W175" s="40"/>
@@ -11276,8 +11237,8 @@
       <c r="O176" s="3"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="3"/>
-      <c r="R176" s="3"/>
-      <c r="S176" s="8"/>
+      <c r="R176" s="66"/>
+      <c r="S176" s="71"/>
       <c r="U176" s="37"/>
       <c r="V176" s="2"/>
       <c r="W176" s="40"/>
@@ -11323,8 +11284,8 @@
       <c r="O177" s="3"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="3"/>
-      <c r="R177" s="3"/>
-      <c r="S177" s="8"/>
+      <c r="R177" s="66"/>
+      <c r="S177" s="71"/>
       <c r="U177" s="37"/>
       <c r="V177" s="2"/>
       <c r="W177" s="40"/>
@@ -11370,8 +11331,8 @@
       <c r="O178" s="3"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="3"/>
-      <c r="R178" s="3"/>
-      <c r="S178" s="8"/>
+      <c r="R178" s="66"/>
+      <c r="S178" s="71"/>
       <c r="U178" s="37"/>
       <c r="V178" s="2"/>
       <c r="W178" s="40"/>
@@ -11417,8 +11378,8 @@
       <c r="O179" s="3"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="3"/>
-      <c r="R179" s="3"/>
-      <c r="S179" s="8"/>
+      <c r="R179" s="66"/>
+      <c r="S179" s="71"/>
       <c r="U179" s="37"/>
       <c r="V179" s="2"/>
       <c r="W179" s="40"/>
@@ -11464,8 +11425,8 @@
       <c r="O180" s="3"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="3"/>
-      <c r="R180" s="3"/>
-      <c r="S180" s="8"/>
+      <c r="R180" s="66"/>
+      <c r="S180" s="71"/>
       <c r="U180" s="37"/>
       <c r="V180" s="2"/>
       <c r="W180" s="40"/>
@@ -11511,8 +11472,8 @@
       <c r="O181" s="3"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="3"/>
-      <c r="R181" s="3"/>
-      <c r="S181" s="8"/>
+      <c r="R181" s="66"/>
+      <c r="S181" s="71"/>
       <c r="U181" s="37"/>
       <c r="V181" s="2"/>
       <c r="W181" s="40"/>
@@ -11558,8 +11519,8 @@
       <c r="O182" s="3"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="3"/>
-      <c r="R182" s="3"/>
-      <c r="S182" s="8"/>
+      <c r="R182" s="66"/>
+      <c r="S182" s="71"/>
       <c r="U182" s="37"/>
       <c r="V182" s="2"/>
       <c r="W182" s="40"/>
@@ -11605,8 +11566,8 @@
       <c r="O183" s="3"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="3"/>
-      <c r="R183" s="3"/>
-      <c r="S183" s="8"/>
+      <c r="R183" s="66"/>
+      <c r="S183" s="71"/>
       <c r="U183" s="37"/>
       <c r="V183" s="2"/>
       <c r="W183" s="40"/>
@@ -11652,8 +11613,8 @@
       <c r="O184" s="3"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="3"/>
-      <c r="R184" s="3"/>
-      <c r="S184" s="8"/>
+      <c r="R184" s="66"/>
+      <c r="S184" s="71"/>
       <c r="U184" s="37"/>
       <c r="V184" s="2"/>
       <c r="W184" s="40"/>
@@ -11699,8 +11660,8 @@
       <c r="O185" s="3"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="3"/>
-      <c r="R185" s="3"/>
-      <c r="S185" s="8"/>
+      <c r="R185" s="66"/>
+      <c r="S185" s="71"/>
       <c r="U185" s="37"/>
       <c r="V185" s="2"/>
       <c r="W185" s="40"/>
@@ -11746,8 +11707,8 @@
       <c r="O186" s="3"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="3"/>
-      <c r="R186" s="3"/>
-      <c r="S186" s="8"/>
+      <c r="R186" s="66"/>
+      <c r="S186" s="71"/>
       <c r="U186" s="37"/>
       <c r="V186" s="2"/>
       <c r="W186" s="40"/>
@@ -11793,8 +11754,8 @@
       <c r="O187" s="3"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="3"/>
-      <c r="R187" s="3"/>
-      <c r="S187" s="8"/>
+      <c r="R187" s="66"/>
+      <c r="S187" s="71"/>
       <c r="U187" s="37"/>
       <c r="V187" s="2"/>
       <c r="W187" s="40"/>
@@ -11840,8 +11801,8 @@
       <c r="O188" s="3"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="3"/>
-      <c r="R188" s="3"/>
-      <c r="S188" s="8"/>
+      <c r="R188" s="66"/>
+      <c r="S188" s="71"/>
       <c r="U188" s="37"/>
       <c r="V188" s="2"/>
       <c r="W188" s="40"/>
@@ -11887,8 +11848,8 @@
       <c r="O189" s="3"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="3"/>
-      <c r="R189" s="3"/>
-      <c r="S189" s="8"/>
+      <c r="R189" s="66"/>
+      <c r="S189" s="71"/>
       <c r="U189" s="37"/>
       <c r="V189" s="2"/>
       <c r="W189" s="40"/>
@@ -11934,8 +11895,8 @@
       <c r="O190" s="3"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="3"/>
-      <c r="R190" s="3"/>
-      <c r="S190" s="8"/>
+      <c r="R190" s="66"/>
+      <c r="S190" s="71"/>
       <c r="U190" s="37"/>
       <c r="V190" s="2"/>
       <c r="W190" s="40"/>
@@ -11981,8 +11942,8 @@
       <c r="O191" s="3"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="3"/>
-      <c r="R191" s="3"/>
-      <c r="S191" s="8"/>
+      <c r="R191" s="66"/>
+      <c r="S191" s="71"/>
       <c r="U191" s="37"/>
       <c r="V191" s="2"/>
       <c r="W191" s="40"/>
@@ -12028,8 +11989,8 @@
       <c r="O192" s="3"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="3"/>
-      <c r="R192" s="3"/>
-      <c r="S192" s="8"/>
+      <c r="R192" s="66"/>
+      <c r="S192" s="71"/>
       <c r="U192" s="37"/>
       <c r="V192" s="2"/>
       <c r="W192" s="40"/>
@@ -12075,8 +12036,8 @@
       <c r="O193" s="3"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="3"/>
-      <c r="R193" s="3"/>
-      <c r="S193" s="8"/>
+      <c r="R193" s="66"/>
+      <c r="S193" s="71"/>
       <c r="U193" s="37"/>
       <c r="V193" s="2"/>
       <c r="W193" s="40"/>
@@ -12122,8 +12083,8 @@
       <c r="O194" s="3"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="3"/>
-      <c r="R194" s="3"/>
-      <c r="S194" s="8"/>
+      <c r="R194" s="66"/>
+      <c r="S194" s="71"/>
       <c r="U194" s="37"/>
       <c r="V194" s="2"/>
       <c r="W194" s="40"/>
@@ -12169,8 +12130,8 @@
       <c r="O195" s="3"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="3"/>
-      <c r="R195" s="3"/>
-      <c r="S195" s="8"/>
+      <c r="R195" s="66"/>
+      <c r="S195" s="71"/>
       <c r="U195" s="37"/>
       <c r="V195" s="2"/>
       <c r="W195" s="40"/>
@@ -12216,8 +12177,8 @@
       <c r="O196" s="3"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="3"/>
-      <c r="R196" s="3"/>
-      <c r="S196" s="8"/>
+      <c r="R196" s="66"/>
+      <c r="S196" s="71"/>
       <c r="U196" s="37"/>
       <c r="V196" s="2"/>
       <c r="W196" s="40"/>
@@ -12263,8 +12224,8 @@
       <c r="O197" s="3"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="3"/>
-      <c r="R197" s="3"/>
-      <c r="S197" s="8"/>
+      <c r="R197" s="66"/>
+      <c r="S197" s="71"/>
       <c r="U197" s="37"/>
       <c r="V197" s="2"/>
       <c r="W197" s="40"/>
@@ -12310,8 +12271,8 @@
       <c r="O198" s="3"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="3"/>
-      <c r="R198" s="3"/>
-      <c r="S198" s="8"/>
+      <c r="R198" s="66"/>
+      <c r="S198" s="71"/>
       <c r="U198" s="37"/>
       <c r="V198" s="2"/>
       <c r="W198" s="40"/>
@@ -12357,8 +12318,8 @@
       <c r="O199" s="3"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="3"/>
-      <c r="R199" s="3"/>
-      <c r="S199" s="8"/>
+      <c r="R199" s="66"/>
+      <c r="S199" s="71"/>
       <c r="U199" s="37"/>
       <c r="V199" s="2"/>
       <c r="W199" s="40"/>
@@ -12404,8 +12365,8 @@
       <c r="O200" s="3"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="8"/>
+      <c r="R200" s="66"/>
+      <c r="S200" s="71"/>
       <c r="U200" s="37"/>
       <c r="V200" s="2"/>
       <c r="W200" s="40"/>
@@ -12451,8 +12412,8 @@
       <c r="O201" s="3"/>
       <c r="P201" s="6"/>
       <c r="Q201" s="3"/>
-      <c r="R201" s="3"/>
-      <c r="S201" s="8"/>
+      <c r="R201" s="66"/>
+      <c r="S201" s="71"/>
       <c r="U201" s="37"/>
       <c r="V201" s="2"/>
       <c r="W201" s="40"/>
@@ -12498,8 +12459,8 @@
       <c r="O202" s="3"/>
       <c r="P202" s="6"/>
       <c r="Q202" s="3"/>
-      <c r="R202" s="3"/>
-      <c r="S202" s="8"/>
+      <c r="R202" s="66"/>
+      <c r="S202" s="71"/>
       <c r="U202" s="37"/>
       <c r="V202" s="2"/>
       <c r="W202" s="40"/>
@@ -12545,8 +12506,8 @@
       <c r="O203" s="3"/>
       <c r="P203" s="6"/>
       <c r="Q203" s="3"/>
-      <c r="R203" s="3"/>
-      <c r="S203" s="8"/>
+      <c r="R203" s="66"/>
+      <c r="S203" s="71"/>
       <c r="U203" s="37"/>
       <c r="V203" s="2"/>
       <c r="W203" s="40"/>
@@ -12592,8 +12553,8 @@
       <c r="O204" s="3"/>
       <c r="P204" s="6"/>
       <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="8"/>
+      <c r="R204" s="66"/>
+      <c r="S204" s="71"/>
       <c r="U204" s="37"/>
       <c r="V204" s="2"/>
       <c r="W204" s="40"/>
@@ -12640,9 +12601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27DF361-DA08-4AD0-A8D3-AAE1E405B9EC}">
   <dimension ref="A1:AD204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12681,80 +12642,80 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="K2" s="52" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="K2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="54"/>
-      <c r="U2" s="52" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="53"/>
+      <c r="U2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="54"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="53"/>
     </row>
     <row r="3" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-      <c r="K3" s="63" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
+      <c r="K3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="66" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
-      <c r="U3" s="63" t="s">
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
+      <c r="U3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="55" t="s">
+      <c r="V3" s="63"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="57"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="56"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -12874,8 +12835,8 @@
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="68"/>
       <c r="U5" s="31"/>
       <c r="V5" s="12"/>
       <c r="W5" s="35"/>
@@ -12883,8 +12844,8 @@
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="28"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="73"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
@@ -12921,8 +12882,8 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="11"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="70"/>
       <c r="U6" s="32"/>
       <c r="V6" s="5"/>
       <c r="W6" s="36"/>
@@ -12930,8 +12891,8 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="11"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="75"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
@@ -12968,8 +12929,8 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="11"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="70"/>
       <c r="U7" s="32"/>
       <c r="V7" s="5"/>
       <c r="W7" s="36"/>
@@ -12977,8 +12938,8 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="11"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="75"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
@@ -13015,8 +12976,8 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="11"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="70"/>
       <c r="U8" s="32"/>
       <c r="V8" s="5"/>
       <c r="W8" s="36"/>
@@ -13024,8 +12985,8 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="11"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
@@ -13062,8 +13023,8 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="11"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
       <c r="U9" s="32"/>
       <c r="V9" s="5"/>
       <c r="W9" s="36"/>
@@ -13071,8 +13032,8 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="11"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="75"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
@@ -13109,8 +13070,8 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="11"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="70"/>
       <c r="U10" s="32"/>
       <c r="V10" s="5"/>
       <c r="W10" s="36"/>
@@ -13118,8 +13079,8 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="11"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="75"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
@@ -13156,8 +13117,8 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="11"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="70"/>
       <c r="U11" s="32"/>
       <c r="V11" s="5"/>
       <c r="W11" s="36"/>
@@ -13165,8 +13126,8 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="11"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="75"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
@@ -13203,8 +13164,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="11"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="70"/>
       <c r="U12" s="32"/>
       <c r="V12" s="5"/>
       <c r="W12" s="36"/>
@@ -13212,8 +13173,8 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="11"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="75"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
@@ -13250,8 +13211,8 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="11"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="70"/>
       <c r="U13" s="32"/>
       <c r="V13" s="5"/>
       <c r="W13" s="36"/>
@@ -13259,8 +13220,8 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="11"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="75"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
@@ -13297,8 +13258,8 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="11"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="70"/>
       <c r="U14" s="32"/>
       <c r="V14" s="5"/>
       <c r="W14" s="36"/>
@@ -13306,8 +13267,8 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="11"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
@@ -13344,8 +13305,8 @@
       <c r="O15" s="3"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="8"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="71"/>
       <c r="U15" s="32"/>
       <c r="V15" s="5"/>
       <c r="W15" s="36"/>
@@ -13353,8 +13314,8 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="11"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="75"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="32"/>
@@ -13391,8 +13352,8 @@
       <c r="O16" s="3"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="8"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="71"/>
       <c r="U16" s="32"/>
       <c r="V16" s="5"/>
       <c r="W16" s="36"/>
@@ -13400,8 +13361,8 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="11"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="75"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
@@ -13438,8 +13399,8 @@
       <c r="O17" s="3"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="8"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="71"/>
       <c r="U17" s="32"/>
       <c r="V17" s="5"/>
       <c r="W17" s="36"/>
@@ -13447,8 +13408,8 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="11"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="75"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="32"/>
@@ -13485,8 +13446,8 @@
       <c r="O18" s="3"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="8"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="71"/>
       <c r="U18" s="32"/>
       <c r="V18" s="5"/>
       <c r="W18" s="36"/>
@@ -13494,8 +13455,8 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="11"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="75"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
@@ -13532,8 +13493,8 @@
       <c r="O19" s="3"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="8"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="71"/>
       <c r="U19" s="32"/>
       <c r="V19" s="5"/>
       <c r="W19" s="36"/>
@@ -13541,8 +13502,8 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="11"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="75"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
@@ -13579,8 +13540,8 @@
       <c r="O20" s="3"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="8"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="71"/>
       <c r="U20" s="32"/>
       <c r="V20" s="5"/>
       <c r="W20" s="36"/>
@@ -13588,8 +13549,8 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="11"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="75"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
@@ -13626,8 +13587,8 @@
       <c r="O21" s="3"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="8"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="71"/>
       <c r="U21" s="32"/>
       <c r="V21" s="5"/>
       <c r="W21" s="36"/>
@@ -13635,8 +13596,8 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="11"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="75"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
@@ -13673,8 +13634,8 @@
       <c r="O22" s="3"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="8"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="71"/>
       <c r="U22" s="32"/>
       <c r="V22" s="5"/>
       <c r="W22" s="36"/>
@@ -13682,8 +13643,8 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="11"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="75"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
@@ -13720,8 +13681,8 @@
       <c r="O23" s="3"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="8"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="71"/>
       <c r="U23" s="32"/>
       <c r="V23" s="5"/>
       <c r="W23" s="36"/>
@@ -13729,8 +13690,8 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="11"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="75"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
@@ -13767,8 +13728,8 @@
       <c r="O24" s="3"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="8"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="71"/>
       <c r="U24" s="32"/>
       <c r="V24" s="5"/>
       <c r="W24" s="36"/>
@@ -13776,8 +13737,8 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="11"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="75"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
@@ -13814,8 +13775,8 @@
       <c r="O25" s="3"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="8"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="71"/>
       <c r="U25" s="32"/>
       <c r="V25" s="5"/>
       <c r="W25" s="36"/>
@@ -13823,8 +13784,8 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="11"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="75"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
@@ -13861,8 +13822,8 @@
       <c r="O26" s="3"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="8"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="71"/>
       <c r="U26" s="32"/>
       <c r="V26" s="5"/>
       <c r="W26" s="36"/>
@@ -13870,8 +13831,8 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="11"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="75"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="32"/>
@@ -13908,8 +13869,8 @@
       <c r="O27" s="3"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="8"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="71"/>
       <c r="U27" s="32"/>
       <c r="V27" s="5"/>
       <c r="W27" s="36"/>
@@ -13917,8 +13878,8 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="11"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="75"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
@@ -13955,8 +13916,8 @@
       <c r="O28" s="3"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="8"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="71"/>
       <c r="U28" s="32"/>
       <c r="V28" s="5"/>
       <c r="W28" s="36"/>
@@ -13964,8 +13925,8 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="11"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="75"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="32"/>
@@ -14002,8 +13963,8 @@
       <c r="O29" s="3"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="8"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="71"/>
       <c r="U29" s="32"/>
       <c r="V29" s="5"/>
       <c r="W29" s="36"/>
@@ -14011,8 +13972,8 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="11"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="75"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
@@ -14049,8 +14010,8 @@
       <c r="O30" s="3"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="8"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="71"/>
       <c r="U30" s="32"/>
       <c r="V30" s="5"/>
       <c r="W30" s="36"/>
@@ -14058,8 +14019,8 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="11"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="75"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
@@ -14096,8 +14057,8 @@
       <c r="O31" s="3"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="8"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="71"/>
       <c r="U31" s="32"/>
       <c r="V31" s="5"/>
       <c r="W31" s="36"/>
@@ -14105,8 +14066,8 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="11"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="75"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
@@ -14143,8 +14104,8 @@
       <c r="O32" s="3"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="8"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="71"/>
       <c r="U32" s="32"/>
       <c r="V32" s="5"/>
       <c r="W32" s="36"/>
@@ -14152,8 +14113,8 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="11"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="75"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
@@ -14190,8 +14151,8 @@
       <c r="O33" s="3"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="8"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="71"/>
       <c r="U33" s="32"/>
       <c r="V33" s="5"/>
       <c r="W33" s="36"/>
@@ -14199,8 +14160,8 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="11"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="75"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
@@ -14237,8 +14198,8 @@
       <c r="O34" s="3"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="8"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="71"/>
       <c r="U34" s="32"/>
       <c r="V34" s="5"/>
       <c r="W34" s="36"/>
@@ -14246,8 +14207,8 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="11"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="75"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
@@ -14284,8 +14245,8 @@
       <c r="O35" s="3"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="8"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="71"/>
       <c r="U35" s="32"/>
       <c r="V35" s="5"/>
       <c r="W35" s="36"/>
@@ -14293,8 +14254,8 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="11"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="75"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
@@ -14331,8 +14292,8 @@
       <c r="O36" s="3"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="8"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="71"/>
       <c r="U36" s="32"/>
       <c r="V36" s="5"/>
       <c r="W36" s="36"/>
@@ -14340,8 +14301,8 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="11"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="75"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
@@ -14378,8 +14339,8 @@
       <c r="O37" s="3"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="8"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="71"/>
       <c r="U37" s="32"/>
       <c r="V37" s="5"/>
       <c r="W37" s="36"/>
@@ -14387,8 +14348,8 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="11"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="75"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
@@ -14425,8 +14386,8 @@
       <c r="O38" s="3"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="8"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="71"/>
       <c r="U38" s="32"/>
       <c r="V38" s="5"/>
       <c r="W38" s="36"/>
@@ -14434,8 +14395,8 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="11"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="75"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
@@ -14472,8 +14433,8 @@
       <c r="O39" s="3"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="8"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="71"/>
       <c r="U39" s="32"/>
       <c r="V39" s="5"/>
       <c r="W39" s="36"/>
@@ -14481,8 +14442,8 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="11"/>
+      <c r="AB39" s="74"/>
+      <c r="AC39" s="75"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
@@ -14519,8 +14480,8 @@
       <c r="O40" s="3"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="8"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="71"/>
       <c r="U40" s="32"/>
       <c r="V40" s="5"/>
       <c r="W40" s="36"/>
@@ -14528,8 +14489,8 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="11"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="75"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
@@ -14566,8 +14527,8 @@
       <c r="O41" s="3"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="8"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="71"/>
       <c r="U41" s="32"/>
       <c r="V41" s="5"/>
       <c r="W41" s="36"/>
@@ -14575,8 +14536,8 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="11"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="75"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
@@ -14613,8 +14574,8 @@
       <c r="O42" s="3"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="8"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="71"/>
       <c r="U42" s="32"/>
       <c r="V42" s="5"/>
       <c r="W42" s="36"/>
@@ -14622,8 +14583,8 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="11"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="75"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
@@ -14660,8 +14621,8 @@
       <c r="O43" s="3"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="8"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="71"/>
       <c r="U43" s="32"/>
       <c r="V43" s="5"/>
       <c r="W43" s="36"/>
@@ -14669,8 +14630,8 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="11"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="75"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
@@ -14707,8 +14668,8 @@
       <c r="O44" s="3"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="8"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="71"/>
       <c r="U44" s="32"/>
       <c r="V44" s="5"/>
       <c r="W44" s="36"/>
@@ -14716,8 +14677,8 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="11"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="75"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="32"/>
@@ -14754,8 +14715,8 @@
       <c r="O45" s="3"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="8"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="71"/>
       <c r="U45" s="32"/>
       <c r="V45" s="5"/>
       <c r="W45" s="36"/>
@@ -14763,8 +14724,8 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="11"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="75"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="32"/>
@@ -14801,8 +14762,8 @@
       <c r="O46" s="3"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="8"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="71"/>
       <c r="U46" s="32"/>
       <c r="V46" s="5"/>
       <c r="W46" s="36"/>
@@ -14810,8 +14771,8 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="11"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="75"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="32"/>
@@ -14848,8 +14809,8 @@
       <c r="O47" s="3"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="8"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="71"/>
       <c r="U47" s="32"/>
       <c r="V47" s="5"/>
       <c r="W47" s="36"/>
@@ -14857,8 +14818,8 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="11"/>
+      <c r="AB47" s="74"/>
+      <c r="AC47" s="75"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="32"/>
@@ -14895,8 +14856,8 @@
       <c r="O48" s="3"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="8"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="71"/>
       <c r="U48" s="32"/>
       <c r="V48" s="5"/>
       <c r="W48" s="36"/>
@@ -14904,8 +14865,8 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="11"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="75"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="32"/>
@@ -14942,8 +14903,8 @@
       <c r="O49" s="3"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="8"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="71"/>
       <c r="U49" s="32"/>
       <c r="V49" s="5"/>
       <c r="W49" s="36"/>
@@ -14951,8 +14912,8 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="11"/>
+      <c r="AB49" s="74"/>
+      <c r="AC49" s="75"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="32"/>
@@ -14989,8 +14950,8 @@
       <c r="O50" s="3"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="8"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="71"/>
       <c r="U50" s="32"/>
       <c r="V50" s="5"/>
       <c r="W50" s="36"/>
@@ -14998,8 +14959,8 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="11"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="75"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="32"/>
@@ -15036,8 +14997,8 @@
       <c r="O51" s="3"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="8"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="71"/>
       <c r="U51" s="32"/>
       <c r="V51" s="5"/>
       <c r="W51" s="36"/>
@@ -15045,8 +15006,8 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="11"/>
+      <c r="AB51" s="74"/>
+      <c r="AC51" s="75"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="32"/>
@@ -15083,8 +15044,8 @@
       <c r="O52" s="3"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="8"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="71"/>
       <c r="U52" s="32"/>
       <c r="V52" s="5"/>
       <c r="W52" s="36"/>
@@ -15092,8 +15053,8 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="11"/>
+      <c r="AB52" s="74"/>
+      <c r="AC52" s="75"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="32"/>
@@ -15130,8 +15091,8 @@
       <c r="O53" s="3"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="8"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="71"/>
       <c r="U53" s="32"/>
       <c r="V53" s="5"/>
       <c r="W53" s="36"/>
@@ -15139,8 +15100,8 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="11"/>
+      <c r="AB53" s="74"/>
+      <c r="AC53" s="75"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="32"/>
@@ -15177,8 +15138,8 @@
       <c r="O54" s="3"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="8"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="71"/>
       <c r="U54" s="32"/>
       <c r="V54" s="5"/>
       <c r="W54" s="36"/>
@@ -15186,8 +15147,8 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="11"/>
+      <c r="AB54" s="74"/>
+      <c r="AC54" s="75"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="32"/>
@@ -15224,8 +15185,8 @@
       <c r="O55" s="3"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="8"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="71"/>
       <c r="U55" s="32"/>
       <c r="V55" s="5"/>
       <c r="W55" s="36"/>
@@ -15233,8 +15194,8 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="11"/>
+      <c r="AB55" s="74"/>
+      <c r="AC55" s="75"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="32"/>
@@ -15271,8 +15232,8 @@
       <c r="O56" s="3"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="8"/>
+      <c r="R56" s="66"/>
+      <c r="S56" s="71"/>
       <c r="U56" s="32"/>
       <c r="V56" s="5"/>
       <c r="W56" s="36"/>
@@ -15280,8 +15241,8 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="11"/>
+      <c r="AB56" s="74"/>
+      <c r="AC56" s="75"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="32"/>
@@ -15318,8 +15279,8 @@
       <c r="O57" s="3"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="8"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="71"/>
       <c r="U57" s="32"/>
       <c r="V57" s="5"/>
       <c r="W57" s="36"/>
@@ -15327,8 +15288,8 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="11"/>
+      <c r="AB57" s="74"/>
+      <c r="AC57" s="75"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="32"/>
@@ -15365,8 +15326,8 @@
       <c r="O58" s="3"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="8"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="71"/>
       <c r="U58" s="32"/>
       <c r="V58" s="5"/>
       <c r="W58" s="36"/>
@@ -15374,8 +15335,8 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="11"/>
+      <c r="AB58" s="74"/>
+      <c r="AC58" s="75"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="32"/>
@@ -15412,8 +15373,8 @@
       <c r="O59" s="3"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="8"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="71"/>
       <c r="U59" s="32"/>
       <c r="V59" s="5"/>
       <c r="W59" s="36"/>
@@ -15421,8 +15382,8 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="11"/>
+      <c r="AB59" s="74"/>
+      <c r="AC59" s="75"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="32"/>
@@ -15459,8 +15420,8 @@
       <c r="O60" s="3"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="8"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="71"/>
       <c r="U60" s="32"/>
       <c r="V60" s="5"/>
       <c r="W60" s="36"/>
@@ -15468,8 +15429,8 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="11"/>
+      <c r="AB60" s="74"/>
+      <c r="AC60" s="75"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="32"/>
@@ -15506,8 +15467,8 @@
       <c r="O61" s="3"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="8"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="71"/>
       <c r="U61" s="32"/>
       <c r="V61" s="5"/>
       <c r="W61" s="36"/>
@@ -15515,8 +15476,8 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="11"/>
+      <c r="AB61" s="74"/>
+      <c r="AC61" s="75"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="32"/>
@@ -15553,8 +15514,8 @@
       <c r="O62" s="3"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="8"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="71"/>
       <c r="U62" s="32"/>
       <c r="V62" s="5"/>
       <c r="W62" s="36"/>
@@ -15562,8 +15523,8 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="11"/>
+      <c r="AB62" s="74"/>
+      <c r="AC62" s="75"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
@@ -15600,8 +15561,8 @@
       <c r="O63" s="3"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="8"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="71"/>
       <c r="U63" s="32"/>
       <c r="V63" s="5"/>
       <c r="W63" s="36"/>
@@ -15609,8 +15570,8 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="11"/>
+      <c r="AB63" s="74"/>
+      <c r="AC63" s="75"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="32"/>
@@ -15647,8 +15608,8 @@
       <c r="O64" s="3"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="8"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="71"/>
       <c r="U64" s="32"/>
       <c r="V64" s="5"/>
       <c r="W64" s="36"/>
@@ -15656,8 +15617,8 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="11"/>
+      <c r="AB64" s="74"/>
+      <c r="AC64" s="75"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
@@ -15694,8 +15655,8 @@
       <c r="O65" s="3"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="8"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="71"/>
       <c r="U65" s="32"/>
       <c r="V65" s="5"/>
       <c r="W65" s="36"/>
@@ -15703,8 +15664,8 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="11"/>
+      <c r="AB65" s="74"/>
+      <c r="AC65" s="75"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
@@ -15741,8 +15702,8 @@
       <c r="O66" s="3"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="8"/>
+      <c r="R66" s="66"/>
+      <c r="S66" s="71"/>
       <c r="U66" s="32"/>
       <c r="V66" s="5"/>
       <c r="W66" s="36"/>
@@ -15750,8 +15711,8 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="11"/>
+      <c r="AB66" s="74"/>
+      <c r="AC66" s="75"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
@@ -15788,8 +15749,8 @@
       <c r="O67" s="3"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="8"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="71"/>
       <c r="U67" s="32"/>
       <c r="V67" s="5"/>
       <c r="W67" s="36"/>
@@ -15797,8 +15758,8 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="11"/>
+      <c r="AB67" s="74"/>
+      <c r="AC67" s="75"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
@@ -15835,8 +15796,8 @@
       <c r="O68" s="3"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="8"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="71"/>
       <c r="U68" s="32"/>
       <c r="V68" s="5"/>
       <c r="W68" s="36"/>
@@ -15844,8 +15805,8 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="11"/>
+      <c r="AB68" s="74"/>
+      <c r="AC68" s="75"/>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
@@ -15882,8 +15843,8 @@
       <c r="O69" s="3"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="8"/>
+      <c r="R69" s="66"/>
+      <c r="S69" s="71"/>
       <c r="U69" s="32"/>
       <c r="V69" s="5"/>
       <c r="W69" s="36"/>
@@ -15891,8 +15852,8 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="11"/>
+      <c r="AB69" s="74"/>
+      <c r="AC69" s="75"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
@@ -15929,8 +15890,8 @@
       <c r="O70" s="3"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="8"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="71"/>
       <c r="U70" s="32"/>
       <c r="V70" s="5"/>
       <c r="W70" s="36"/>
@@ -15938,8 +15899,8 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="11"/>
+      <c r="AB70" s="74"/>
+      <c r="AC70" s="75"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
@@ -15976,8 +15937,8 @@
       <c r="O71" s="3"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="8"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="71"/>
       <c r="U71" s="32"/>
       <c r="V71" s="5"/>
       <c r="W71" s="36"/>
@@ -15985,8 +15946,8 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="11"/>
+      <c r="AB71" s="74"/>
+      <c r="AC71" s="75"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
@@ -16023,8 +15984,8 @@
       <c r="O72" s="3"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="8"/>
+      <c r="R72" s="66"/>
+      <c r="S72" s="71"/>
       <c r="U72" s="32"/>
       <c r="V72" s="5"/>
       <c r="W72" s="36"/>
@@ -16032,8 +15993,8 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="11"/>
+      <c r="AB72" s="74"/>
+      <c r="AC72" s="75"/>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
@@ -16070,8 +16031,8 @@
       <c r="O73" s="3"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="8"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="71"/>
       <c r="U73" s="32"/>
       <c r="V73" s="5"/>
       <c r="W73" s="36"/>
@@ -16079,8 +16040,8 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="11"/>
+      <c r="AB73" s="74"/>
+      <c r="AC73" s="75"/>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
@@ -16117,8 +16078,8 @@
       <c r="O74" s="3"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="8"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="71"/>
       <c r="U74" s="32"/>
       <c r="V74" s="5"/>
       <c r="W74" s="36"/>
@@ -16126,8 +16087,8 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="11"/>
+      <c r="AB74" s="74"/>
+      <c r="AC74" s="75"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
@@ -16164,8 +16125,8 @@
       <c r="O75" s="3"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="8"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="71"/>
       <c r="U75" s="32"/>
       <c r="V75" s="5"/>
       <c r="W75" s="36"/>
@@ -16173,8 +16134,8 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="11"/>
+      <c r="AB75" s="74"/>
+      <c r="AC75" s="75"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="32"/>
@@ -16211,8 +16172,8 @@
       <c r="O76" s="3"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="8"/>
+      <c r="R76" s="66"/>
+      <c r="S76" s="71"/>
       <c r="U76" s="32"/>
       <c r="V76" s="5"/>
       <c r="W76" s="36"/>
@@ -16220,8 +16181,8 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="11"/>
+      <c r="AB76" s="74"/>
+      <c r="AC76" s="75"/>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
@@ -16258,8 +16219,8 @@
       <c r="O77" s="3"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="8"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="71"/>
       <c r="U77" s="32"/>
       <c r="V77" s="5"/>
       <c r="W77" s="36"/>
@@ -16267,8 +16228,8 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="11"/>
+      <c r="AB77" s="74"/>
+      <c r="AC77" s="75"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
@@ -16305,8 +16266,8 @@
       <c r="O78" s="3"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="8"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="71"/>
       <c r="U78" s="32"/>
       <c r="V78" s="5"/>
       <c r="W78" s="36"/>
@@ -16314,8 +16275,8 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="11"/>
+      <c r="AB78" s="74"/>
+      <c r="AC78" s="75"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
@@ -16352,8 +16313,8 @@
       <c r="O79" s="3"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="8"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="71"/>
       <c r="U79" s="32"/>
       <c r="V79" s="5"/>
       <c r="W79" s="36"/>
@@ -16361,8 +16322,8 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="11"/>
+      <c r="AB79" s="74"/>
+      <c r="AC79" s="75"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="32"/>
@@ -16399,8 +16360,8 @@
       <c r="O80" s="3"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="8"/>
+      <c r="R80" s="66"/>
+      <c r="S80" s="71"/>
       <c r="U80" s="37"/>
       <c r="V80" s="5"/>
       <c r="W80" s="36"/>
@@ -16408,8 +16369,8 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
-      <c r="AB80" s="44"/>
-      <c r="AC80" s="11"/>
+      <c r="AB80" s="76"/>
+      <c r="AC80" s="75"/>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="32"/>
@@ -16446,8 +16407,8 @@
       <c r="O81" s="3"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="8"/>
+      <c r="R81" s="66"/>
+      <c r="S81" s="71"/>
       <c r="U81" s="37"/>
       <c r="V81" s="5"/>
       <c r="W81" s="36"/>
@@ -16455,8 +16416,8 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
-      <c r="AB81" s="44"/>
-      <c r="AC81" s="11"/>
+      <c r="AB81" s="76"/>
+      <c r="AC81" s="75"/>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
@@ -16493,8 +16454,8 @@
       <c r="O82" s="3"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="8"/>
+      <c r="R82" s="66"/>
+      <c r="S82" s="71"/>
       <c r="U82" s="37"/>
       <c r="V82" s="5"/>
       <c r="W82" s="36"/>
@@ -16502,8 +16463,8 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
-      <c r="AB82" s="44"/>
-      <c r="AC82" s="28"/>
+      <c r="AB82" s="76"/>
+      <c r="AC82" s="73"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
@@ -16540,8 +16501,8 @@
       <c r="O83" s="3"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="8"/>
+      <c r="R83" s="66"/>
+      <c r="S83" s="71"/>
       <c r="U83" s="37"/>
       <c r="V83" s="5"/>
       <c r="W83" s="36"/>
@@ -16549,8 +16510,8 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
-      <c r="AB83" s="44"/>
-      <c r="AC83" s="11"/>
+      <c r="AB83" s="76"/>
+      <c r="AC83" s="75"/>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
@@ -16587,8 +16548,8 @@
       <c r="O84" s="3"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="8"/>
+      <c r="R84" s="66"/>
+      <c r="S84" s="71"/>
       <c r="U84" s="37"/>
       <c r="V84" s="5"/>
       <c r="W84" s="36"/>
@@ -16596,9 +16557,9 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="11"/>
-      <c r="AD84" s="51"/>
+      <c r="AB84" s="74"/>
+      <c r="AC84" s="75"/>
+      <c r="AD84" s="50"/>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
@@ -16635,8 +16596,8 @@
       <c r="O85" s="3"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="8"/>
+      <c r="R85" s="66"/>
+      <c r="S85" s="71"/>
       <c r="U85" s="37"/>
       <c r="V85" s="2"/>
       <c r="W85" s="40"/>
@@ -16644,9 +16605,9 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="6"/>
       <c r="AA85" s="3"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="41"/>
-      <c r="AD85" s="46"/>
+      <c r="AB85" s="77"/>
+      <c r="AC85" s="78"/>
+      <c r="AD85" s="45"/>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="43"/>
@@ -16683,8 +16644,8 @@
       <c r="O86" s="3"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="3"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="8"/>
+      <c r="R86" s="66"/>
+      <c r="S86" s="71"/>
       <c r="U86" s="37"/>
       <c r="V86" s="2"/>
       <c r="W86" s="40"/>
@@ -16692,8 +16653,8 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="6"/>
       <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="8"/>
+      <c r="AB86" s="77"/>
+      <c r="AC86" s="79"/>
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
@@ -16730,8 +16691,8 @@
       <c r="O87" s="3"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="8"/>
+      <c r="R87" s="66"/>
+      <c r="S87" s="71"/>
       <c r="U87" s="37"/>
       <c r="V87" s="2"/>
       <c r="W87" s="40"/>
@@ -16739,8 +16700,8 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="6"/>
       <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="8"/>
+      <c r="AB87" s="77"/>
+      <c r="AC87" s="79"/>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
@@ -16777,8 +16738,8 @@
       <c r="O88" s="3"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="8"/>
+      <c r="R88" s="66"/>
+      <c r="S88" s="71"/>
       <c r="U88" s="37"/>
       <c r="V88" s="2"/>
       <c r="W88" s="40"/>
@@ -16786,8 +16747,8 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="6"/>
       <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="8"/>
+      <c r="AB88" s="77"/>
+      <c r="AC88" s="79"/>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
@@ -16824,8 +16785,8 @@
       <c r="O89" s="3"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="3"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="8"/>
+      <c r="R89" s="66"/>
+      <c r="S89" s="71"/>
       <c r="U89" s="37"/>
       <c r="V89" s="2"/>
       <c r="W89" s="40"/>
@@ -16833,8 +16794,8 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="6"/>
       <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="8"/>
+      <c r="AB89" s="77"/>
+      <c r="AC89" s="79"/>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
@@ -16871,8 +16832,8 @@
       <c r="O90" s="3"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="8"/>
+      <c r="R90" s="66"/>
+      <c r="S90" s="71"/>
       <c r="U90" s="37"/>
       <c r="V90" s="2"/>
       <c r="W90" s="40"/>
@@ -16880,8 +16841,8 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="6"/>
       <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="8"/>
+      <c r="AB90" s="77"/>
+      <c r="AC90" s="79"/>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
@@ -16918,8 +16879,8 @@
       <c r="O91" s="3"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="3"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="8"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="71"/>
       <c r="U91" s="37"/>
       <c r="V91" s="2"/>
       <c r="W91" s="40"/>
@@ -16927,8 +16888,8 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="6"/>
       <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="8"/>
+      <c r="AB91" s="77"/>
+      <c r="AC91" s="79"/>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
@@ -16965,8 +16926,8 @@
       <c r="O92" s="3"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="8"/>
+      <c r="R92" s="66"/>
+      <c r="S92" s="71"/>
       <c r="U92" s="37"/>
       <c r="V92" s="2"/>
       <c r="W92" s="40"/>
@@ -16974,8 +16935,8 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="6"/>
       <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="8"/>
+      <c r="AB92" s="77"/>
+      <c r="AC92" s="79"/>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
@@ -17012,8 +16973,8 @@
       <c r="O93" s="3"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="3"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="8"/>
+      <c r="R93" s="66"/>
+      <c r="S93" s="71"/>
       <c r="U93" s="37"/>
       <c r="V93" s="2"/>
       <c r="W93" s="40"/>
@@ -17021,8 +16982,8 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="6"/>
       <c r="AA93" s="3"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="8"/>
+      <c r="AB93" s="77"/>
+      <c r="AC93" s="79"/>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
@@ -17059,8 +17020,8 @@
       <c r="O94" s="3"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="8"/>
+      <c r="R94" s="66"/>
+      <c r="S94" s="71"/>
       <c r="U94" s="37"/>
       <c r="V94" s="2"/>
       <c r="W94" s="40"/>
@@ -17068,8 +17029,8 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="6"/>
       <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="8"/>
+      <c r="AB94" s="77"/>
+      <c r="AC94" s="79"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
@@ -17106,8 +17067,8 @@
       <c r="O95" s="3"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="8"/>
+      <c r="R95" s="66"/>
+      <c r="S95" s="71"/>
       <c r="U95" s="37"/>
       <c r="V95" s="2"/>
       <c r="W95" s="40"/>
@@ -17115,8 +17076,8 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="6"/>
       <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="8"/>
+      <c r="AB95" s="77"/>
+      <c r="AC95" s="79"/>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
@@ -17153,8 +17114,8 @@
       <c r="O96" s="3"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="8"/>
+      <c r="R96" s="66"/>
+      <c r="S96" s="71"/>
       <c r="U96" s="37"/>
       <c r="V96" s="2"/>
       <c r="W96" s="40"/>
@@ -17162,8 +17123,8 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="6"/>
       <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="8"/>
+      <c r="AB96" s="77"/>
+      <c r="AC96" s="79"/>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
@@ -17200,8 +17161,8 @@
       <c r="O97" s="3"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="3"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="8"/>
+      <c r="R97" s="66"/>
+      <c r="S97" s="71"/>
       <c r="U97" s="37"/>
       <c r="V97" s="2"/>
       <c r="W97" s="40"/>
@@ -17209,8 +17170,8 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="6"/>
       <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="8"/>
+      <c r="AB97" s="77"/>
+      <c r="AC97" s="79"/>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
@@ -17247,8 +17208,8 @@
       <c r="O98" s="3"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="3"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="8"/>
+      <c r="R98" s="66"/>
+      <c r="S98" s="71"/>
       <c r="U98" s="37"/>
       <c r="V98" s="2"/>
       <c r="W98" s="40"/>
@@ -17256,8 +17217,8 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="6"/>
       <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="8"/>
+      <c r="AB98" s="77"/>
+      <c r="AC98" s="79"/>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
@@ -17294,8 +17255,8 @@
       <c r="O99" s="3"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="8"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="71"/>
       <c r="U99" s="37"/>
       <c r="V99" s="2"/>
       <c r="W99" s="40"/>
@@ -17303,8 +17264,8 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="6"/>
       <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="8"/>
+      <c r="AB99" s="77"/>
+      <c r="AC99" s="79"/>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
@@ -17341,8 +17302,8 @@
       <c r="O100" s="3"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="8"/>
+      <c r="R100" s="66"/>
+      <c r="S100" s="71"/>
       <c r="U100" s="37"/>
       <c r="V100" s="2"/>
       <c r="W100" s="40"/>
@@ -17350,8 +17311,8 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="6"/>
       <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="8"/>
+      <c r="AB100" s="77"/>
+      <c r="AC100" s="79"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
@@ -17388,8 +17349,8 @@
       <c r="O101" s="3"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="8"/>
+      <c r="R101" s="66"/>
+      <c r="S101" s="71"/>
       <c r="U101" s="37"/>
       <c r="V101" s="2"/>
       <c r="W101" s="40"/>
@@ -17397,8 +17358,8 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="6"/>
       <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="8"/>
+      <c r="AB101" s="77"/>
+      <c r="AC101" s="79"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
@@ -17435,8 +17396,8 @@
       <c r="O102" s="3"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="8"/>
+      <c r="R102" s="66"/>
+      <c r="S102" s="71"/>
       <c r="U102" s="37"/>
       <c r="V102" s="2"/>
       <c r="W102" s="40"/>
@@ -17444,8 +17405,8 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="6"/>
       <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="8"/>
+      <c r="AB102" s="77"/>
+      <c r="AC102" s="79"/>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
@@ -17482,8 +17443,8 @@
       <c r="O103" s="3"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="8"/>
+      <c r="R103" s="66"/>
+      <c r="S103" s="71"/>
       <c r="U103" s="37"/>
       <c r="V103" s="2"/>
       <c r="W103" s="40"/>
@@ -17491,8 +17452,8 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="6"/>
       <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="8"/>
+      <c r="AB103" s="77"/>
+      <c r="AC103" s="79"/>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
@@ -17529,8 +17490,8 @@
       <c r="O104" s="3"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="8"/>
+      <c r="R104" s="66"/>
+      <c r="S104" s="71"/>
       <c r="U104" s="37"/>
       <c r="V104" s="2"/>
       <c r="W104" s="40"/>
@@ -17538,8 +17499,8 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="6"/>
       <c r="AA104" s="3"/>
-      <c r="AB104" s="3"/>
-      <c r="AC104" s="8"/>
+      <c r="AB104" s="77"/>
+      <c r="AC104" s="79"/>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
@@ -17576,8 +17537,8 @@
       <c r="O105" s="3"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="8"/>
+      <c r="R105" s="66"/>
+      <c r="S105" s="71"/>
       <c r="U105" s="37"/>
       <c r="V105" s="2"/>
       <c r="W105" s="40"/>
@@ -17585,8 +17546,8 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="6"/>
       <c r="AA105" s="3"/>
-      <c r="AB105" s="3"/>
-      <c r="AC105" s="8"/>
+      <c r="AB105" s="77"/>
+      <c r="AC105" s="79"/>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
@@ -17623,8 +17584,8 @@
       <c r="O106" s="3"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="8"/>
+      <c r="R106" s="66"/>
+      <c r="S106" s="71"/>
       <c r="U106" s="37"/>
       <c r="V106" s="2"/>
       <c r="W106" s="40"/>
@@ -17632,8 +17593,8 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="6"/>
       <c r="AA106" s="3"/>
-      <c r="AB106" s="3"/>
-      <c r="AC106" s="8"/>
+      <c r="AB106" s="77"/>
+      <c r="AC106" s="79"/>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
@@ -17670,8 +17631,8 @@
       <c r="O107" s="3"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="8"/>
+      <c r="R107" s="66"/>
+      <c r="S107" s="71"/>
       <c r="U107" s="37"/>
       <c r="V107" s="2"/>
       <c r="W107" s="40"/>
@@ -17679,8 +17640,8 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="6"/>
       <c r="AA107" s="3"/>
-      <c r="AB107" s="3"/>
-      <c r="AC107" s="8"/>
+      <c r="AB107" s="77"/>
+      <c r="AC107" s="79"/>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="43"/>
@@ -17717,8 +17678,8 @@
       <c r="O108" s="3"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="8"/>
+      <c r="R108" s="66"/>
+      <c r="S108" s="71"/>
       <c r="U108" s="37"/>
       <c r="V108" s="2"/>
       <c r="W108" s="40"/>
@@ -17726,8 +17687,8 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="6"/>
       <c r="AA108" s="3"/>
-      <c r="AB108" s="3"/>
-      <c r="AC108" s="8"/>
+      <c r="AB108" s="77"/>
+      <c r="AC108" s="79"/>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
@@ -17764,8 +17725,8 @@
       <c r="O109" s="3"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="8"/>
+      <c r="R109" s="66"/>
+      <c r="S109" s="71"/>
       <c r="U109" s="37"/>
       <c r="V109" s="2"/>
       <c r="W109" s="40"/>
@@ -17773,8 +17734,8 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="6"/>
       <c r="AA109" s="3"/>
-      <c r="AB109" s="3"/>
-      <c r="AC109" s="8"/>
+      <c r="AB109" s="77"/>
+      <c r="AC109" s="79"/>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
@@ -17811,8 +17772,8 @@
       <c r="O110" s="3"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="8"/>
+      <c r="R110" s="66"/>
+      <c r="S110" s="71"/>
       <c r="U110" s="37"/>
       <c r="V110" s="2"/>
       <c r="W110" s="40"/>
@@ -17820,8 +17781,8 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="6"/>
       <c r="AA110" s="3"/>
-      <c r="AB110" s="3"/>
-      <c r="AC110" s="8"/>
+      <c r="AB110" s="77"/>
+      <c r="AC110" s="79"/>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
@@ -17858,8 +17819,8 @@
       <c r="O111" s="3"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="8"/>
+      <c r="R111" s="66"/>
+      <c r="S111" s="71"/>
       <c r="U111" s="37"/>
       <c r="V111" s="2"/>
       <c r="W111" s="40"/>
@@ -17867,8 +17828,8 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="6"/>
       <c r="AA111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AC111" s="8"/>
+      <c r="AB111" s="77"/>
+      <c r="AC111" s="79"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
@@ -17905,8 +17866,8 @@
       <c r="O112" s="3"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="8"/>
+      <c r="R112" s="66"/>
+      <c r="S112" s="71"/>
       <c r="U112" s="37"/>
       <c r="V112" s="2"/>
       <c r="W112" s="40"/>
@@ -17914,8 +17875,8 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="6"/>
       <c r="AA112" s="3"/>
-      <c r="AB112" s="3"/>
-      <c r="AC112" s="8"/>
+      <c r="AB112" s="77"/>
+      <c r="AC112" s="79"/>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
@@ -17952,8 +17913,8 @@
       <c r="O113" s="3"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="8"/>
+      <c r="R113" s="66"/>
+      <c r="S113" s="71"/>
       <c r="U113" s="37"/>
       <c r="V113" s="2"/>
       <c r="W113" s="40"/>
@@ -17961,8 +17922,8 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="6"/>
       <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="8"/>
+      <c r="AB113" s="77"/>
+      <c r="AC113" s="79"/>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
@@ -17999,8 +17960,8 @@
       <c r="O114" s="3"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="8"/>
+      <c r="R114" s="66"/>
+      <c r="S114" s="71"/>
       <c r="U114" s="37"/>
       <c r="V114" s="2"/>
       <c r="W114" s="40"/>
@@ -18008,8 +17969,8 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="6"/>
       <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="8"/>
+      <c r="AB114" s="77"/>
+      <c r="AC114" s="79"/>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
@@ -18046,8 +18007,8 @@
       <c r="O115" s="3"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="8"/>
+      <c r="R115" s="66"/>
+      <c r="S115" s="71"/>
       <c r="U115" s="37"/>
       <c r="V115" s="2"/>
       <c r="W115" s="40"/>
@@ -18055,8 +18016,8 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="6"/>
       <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="8"/>
+      <c r="AB115" s="77"/>
+      <c r="AC115" s="79"/>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
@@ -18093,8 +18054,8 @@
       <c r="O116" s="3"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="8"/>
+      <c r="R116" s="66"/>
+      <c r="S116" s="71"/>
       <c r="U116" s="37"/>
       <c r="V116" s="2"/>
       <c r="W116" s="40"/>
@@ -18102,8 +18063,8 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="6"/>
       <c r="AA116" s="3"/>
-      <c r="AB116" s="3"/>
-      <c r="AC116" s="8"/>
+      <c r="AB116" s="77"/>
+      <c r="AC116" s="79"/>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
@@ -18140,8 +18101,8 @@
       <c r="O117" s="3"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="8"/>
+      <c r="R117" s="66"/>
+      <c r="S117" s="71"/>
       <c r="U117" s="37"/>
       <c r="V117" s="2"/>
       <c r="W117" s="40"/>
@@ -18149,8 +18110,8 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="6"/>
       <c r="AA117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AC117" s="8"/>
+      <c r="AB117" s="77"/>
+      <c r="AC117" s="79"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
@@ -18187,8 +18148,8 @@
       <c r="O118" s="3"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="3"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="8"/>
+      <c r="R118" s="66"/>
+      <c r="S118" s="71"/>
       <c r="U118" s="37"/>
       <c r="V118" s="2"/>
       <c r="W118" s="40"/>
@@ -18196,8 +18157,8 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="6"/>
       <c r="AA118" s="3"/>
-      <c r="AB118" s="3"/>
-      <c r="AC118" s="8"/>
+      <c r="AB118" s="77"/>
+      <c r="AC118" s="79"/>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
@@ -18234,8 +18195,8 @@
       <c r="O119" s="3"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="3"/>
-      <c r="R119" s="3"/>
-      <c r="S119" s="8"/>
+      <c r="R119" s="66"/>
+      <c r="S119" s="71"/>
       <c r="U119" s="37"/>
       <c r="V119" s="2"/>
       <c r="W119" s="40"/>
@@ -18243,8 +18204,8 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="6"/>
       <c r="AA119" s="3"/>
-      <c r="AB119" s="3"/>
-      <c r="AC119" s="8"/>
+      <c r="AB119" s="77"/>
+      <c r="AC119" s="79"/>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
@@ -18281,8 +18242,8 @@
       <c r="O120" s="3"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="8"/>
+      <c r="R120" s="66"/>
+      <c r="S120" s="71"/>
       <c r="U120" s="37"/>
       <c r="V120" s="2"/>
       <c r="W120" s="40"/>
@@ -18290,8 +18251,8 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="6"/>
       <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AC120" s="8"/>
+      <c r="AB120" s="77"/>
+      <c r="AC120" s="79"/>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
@@ -18328,8 +18289,8 @@
       <c r="O121" s="3"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="3"/>
-      <c r="R121" s="3"/>
-      <c r="S121" s="8"/>
+      <c r="R121" s="66"/>
+      <c r="S121" s="71"/>
       <c r="U121" s="37"/>
       <c r="V121" s="2"/>
       <c r="W121" s="40"/>
@@ -18337,8 +18298,8 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="6"/>
       <c r="AA121" s="3"/>
-      <c r="AB121" s="3"/>
-      <c r="AC121" s="8"/>
+      <c r="AB121" s="77"/>
+      <c r="AC121" s="79"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
@@ -18375,8 +18336,8 @@
       <c r="O122" s="3"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="8"/>
+      <c r="R122" s="66"/>
+      <c r="S122" s="71"/>
       <c r="U122" s="37"/>
       <c r="V122" s="2"/>
       <c r="W122" s="40"/>
@@ -18384,8 +18345,8 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="6"/>
       <c r="AA122" s="3"/>
-      <c r="AB122" s="3"/>
-      <c r="AC122" s="8"/>
+      <c r="AB122" s="77"/>
+      <c r="AC122" s="79"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
@@ -18422,8 +18383,8 @@
       <c r="O123" s="3"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="3"/>
-      <c r="R123" s="3"/>
-      <c r="S123" s="8"/>
+      <c r="R123" s="66"/>
+      <c r="S123" s="71"/>
       <c r="U123" s="37"/>
       <c r="V123" s="2"/>
       <c r="W123" s="40"/>
@@ -18431,8 +18392,8 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="6"/>
       <c r="AA123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AC123" s="8"/>
+      <c r="AB123" s="77"/>
+      <c r="AC123" s="79"/>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
@@ -18469,8 +18430,8 @@
       <c r="O124" s="3"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="3"/>
-      <c r="R124" s="3"/>
-      <c r="S124" s="8"/>
+      <c r="R124" s="66"/>
+      <c r="S124" s="71"/>
       <c r="U124" s="37"/>
       <c r="V124" s="2"/>
       <c r="W124" s="40"/>
@@ -18478,8 +18439,8 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="6"/>
       <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
-      <c r="AC124" s="8"/>
+      <c r="AB124" s="77"/>
+      <c r="AC124" s="79"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
@@ -18516,8 +18477,8 @@
       <c r="O125" s="3"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="3"/>
-      <c r="R125" s="3"/>
-      <c r="S125" s="8"/>
+      <c r="R125" s="66"/>
+      <c r="S125" s="71"/>
       <c r="U125" s="37"/>
       <c r="V125" s="2"/>
       <c r="W125" s="40"/>
@@ -18525,8 +18486,8 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="6"/>
       <c r="AA125" s="3"/>
-      <c r="AB125" s="3"/>
-      <c r="AC125" s="8"/>
+      <c r="AB125" s="77"/>
+      <c r="AC125" s="79"/>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="43"/>
@@ -18563,8 +18524,8 @@
       <c r="O126" s="3"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="S126" s="8"/>
+      <c r="R126" s="66"/>
+      <c r="S126" s="71"/>
       <c r="U126" s="37"/>
       <c r="V126" s="2"/>
       <c r="W126" s="40"/>
@@ -18572,8 +18533,8 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="6"/>
       <c r="AA126" s="3"/>
-      <c r="AB126" s="3"/>
-      <c r="AC126" s="8"/>
+      <c r="AB126" s="77"/>
+      <c r="AC126" s="79"/>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
@@ -18610,8 +18571,8 @@
       <c r="O127" s="3"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="8"/>
+      <c r="R127" s="66"/>
+      <c r="S127" s="71"/>
       <c r="U127" s="37"/>
       <c r="V127" s="2"/>
       <c r="W127" s="40"/>
@@ -18619,8 +18580,8 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="6"/>
       <c r="AA127" s="3"/>
-      <c r="AB127" s="3"/>
-      <c r="AC127" s="8"/>
+      <c r="AB127" s="77"/>
+      <c r="AC127" s="79"/>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
@@ -18657,8 +18618,8 @@
       <c r="O128" s="3"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="S128" s="8"/>
+      <c r="R128" s="66"/>
+      <c r="S128" s="71"/>
       <c r="U128" s="37"/>
       <c r="V128" s="2"/>
       <c r="W128" s="40"/>
@@ -18666,8 +18627,8 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="6"/>
       <c r="AA128" s="3"/>
-      <c r="AB128" s="3"/>
-      <c r="AC128" s="8"/>
+      <c r="AB128" s="77"/>
+      <c r="AC128" s="79"/>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
@@ -18704,8 +18665,8 @@
       <c r="O129" s="3"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="S129" s="8"/>
+      <c r="R129" s="66"/>
+      <c r="S129" s="71"/>
       <c r="U129" s="37"/>
       <c r="V129" s="2"/>
       <c r="W129" s="40"/>
@@ -18713,8 +18674,8 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="6"/>
       <c r="AA129" s="3"/>
-      <c r="AB129" s="3"/>
-      <c r="AC129" s="8"/>
+      <c r="AB129" s="77"/>
+      <c r="AC129" s="79"/>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
@@ -18751,8 +18712,8 @@
       <c r="O130" s="3"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="3"/>
-      <c r="R130" s="3"/>
-      <c r="S130" s="8"/>
+      <c r="R130" s="66"/>
+      <c r="S130" s="71"/>
       <c r="U130" s="37"/>
       <c r="V130" s="2"/>
       <c r="W130" s="40"/>
@@ -18760,8 +18721,8 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="6"/>
       <c r="AA130" s="3"/>
-      <c r="AB130" s="3"/>
-      <c r="AC130" s="8"/>
+      <c r="AB130" s="77"/>
+      <c r="AC130" s="79"/>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
@@ -18798,8 +18759,8 @@
       <c r="O131" s="3"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="3"/>
-      <c r="R131" s="3"/>
-      <c r="S131" s="8"/>
+      <c r="R131" s="66"/>
+      <c r="S131" s="71"/>
       <c r="U131" s="37"/>
       <c r="V131" s="2"/>
       <c r="W131" s="40"/>
@@ -18807,8 +18768,8 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="6"/>
       <c r="AA131" s="3"/>
-      <c r="AB131" s="3"/>
-      <c r="AC131" s="8"/>
+      <c r="AB131" s="77"/>
+      <c r="AC131" s="79"/>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
@@ -18845,8 +18806,8 @@
       <c r="O132" s="3"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="3"/>
-      <c r="R132" s="3"/>
-      <c r="S132" s="8"/>
+      <c r="R132" s="66"/>
+      <c r="S132" s="71"/>
       <c r="U132" s="37"/>
       <c r="V132" s="2"/>
       <c r="W132" s="40"/>
@@ -18854,8 +18815,8 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="6"/>
       <c r="AA132" s="3"/>
-      <c r="AB132" s="3"/>
-      <c r="AC132" s="8"/>
+      <c r="AB132" s="77"/>
+      <c r="AC132" s="79"/>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
@@ -18892,8 +18853,8 @@
       <c r="O133" s="3"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="3"/>
-      <c r="R133" s="3"/>
-      <c r="S133" s="8"/>
+      <c r="R133" s="66"/>
+      <c r="S133" s="71"/>
       <c r="U133" s="37"/>
       <c r="V133" s="2"/>
       <c r="W133" s="40"/>
@@ -18901,8 +18862,8 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="6"/>
       <c r="AA133" s="3"/>
-      <c r="AB133" s="3"/>
-      <c r="AC133" s="8"/>
+      <c r="AB133" s="77"/>
+      <c r="AC133" s="79"/>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
@@ -18939,8 +18900,8 @@
       <c r="O134" s="3"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="S134" s="8"/>
+      <c r="R134" s="66"/>
+      <c r="S134" s="71"/>
       <c r="U134" s="37"/>
       <c r="V134" s="2"/>
       <c r="W134" s="40"/>
@@ -18948,8 +18909,8 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="6"/>
       <c r="AA134" s="3"/>
-      <c r="AB134" s="3"/>
-      <c r="AC134" s="8"/>
+      <c r="AB134" s="77"/>
+      <c r="AC134" s="79"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
@@ -18986,8 +18947,8 @@
       <c r="O135" s="3"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="S135" s="8"/>
+      <c r="R135" s="66"/>
+      <c r="S135" s="71"/>
       <c r="U135" s="37"/>
       <c r="V135" s="2"/>
       <c r="W135" s="40"/>
@@ -18995,8 +18956,8 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="6"/>
       <c r="AA135" s="3"/>
-      <c r="AB135" s="3"/>
-      <c r="AC135" s="8"/>
+      <c r="AB135" s="77"/>
+      <c r="AC135" s="79"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
@@ -19033,8 +18994,8 @@
       <c r="O136" s="3"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="3"/>
-      <c r="R136" s="3"/>
-      <c r="S136" s="8"/>
+      <c r="R136" s="66"/>
+      <c r="S136" s="71"/>
       <c r="U136" s="37"/>
       <c r="V136" s="2"/>
       <c r="W136" s="40"/>
@@ -19042,8 +19003,8 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="6"/>
       <c r="AA136" s="3"/>
-      <c r="AB136" s="3"/>
-      <c r="AC136" s="8"/>
+      <c r="AB136" s="77"/>
+      <c r="AC136" s="79"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
@@ -19080,8 +19041,8 @@
       <c r="O137" s="3"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="S137" s="8"/>
+      <c r="R137" s="66"/>
+      <c r="S137" s="71"/>
       <c r="U137" s="37"/>
       <c r="V137" s="2"/>
       <c r="W137" s="40"/>
@@ -19089,8 +19050,8 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="6"/>
       <c r="AA137" s="3"/>
-      <c r="AB137" s="3"/>
-      <c r="AC137" s="8"/>
+      <c r="AB137" s="77"/>
+      <c r="AC137" s="79"/>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
@@ -19127,8 +19088,8 @@
       <c r="O138" s="3"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
-      <c r="S138" s="8"/>
+      <c r="R138" s="66"/>
+      <c r="S138" s="71"/>
       <c r="U138" s="37"/>
       <c r="V138" s="2"/>
       <c r="W138" s="40"/>
@@ -19136,8 +19097,8 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="6"/>
       <c r="AA138" s="3"/>
-      <c r="AB138" s="3"/>
-      <c r="AC138" s="8"/>
+      <c r="AB138" s="77"/>
+      <c r="AC138" s="79"/>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="43"/>
@@ -19174,8 +19135,8 @@
       <c r="O139" s="3"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="S139" s="8"/>
+      <c r="R139" s="66"/>
+      <c r="S139" s="71"/>
       <c r="U139" s="37"/>
       <c r="V139" s="2"/>
       <c r="W139" s="40"/>
@@ -19183,8 +19144,8 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="6"/>
       <c r="AA139" s="3"/>
-      <c r="AB139" s="3"/>
-      <c r="AC139" s="8"/>
+      <c r="AB139" s="77"/>
+      <c r="AC139" s="79"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
@@ -19221,8 +19182,8 @@
       <c r="O140" s="3"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="S140" s="8"/>
+      <c r="R140" s="66"/>
+      <c r="S140" s="71"/>
       <c r="U140" s="37"/>
       <c r="V140" s="2"/>
       <c r="W140" s="40"/>
@@ -19230,8 +19191,8 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="6"/>
       <c r="AA140" s="3"/>
-      <c r="AB140" s="3"/>
-      <c r="AC140" s="8"/>
+      <c r="AB140" s="77"/>
+      <c r="AC140" s="79"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
@@ -19268,8 +19229,8 @@
       <c r="O141" s="3"/>
       <c r="P141" s="6"/>
       <c r="Q141" s="3"/>
-      <c r="R141" s="3"/>
-      <c r="S141" s="8"/>
+      <c r="R141" s="66"/>
+      <c r="S141" s="71"/>
       <c r="U141" s="37"/>
       <c r="V141" s="2"/>
       <c r="W141" s="40"/>
@@ -19277,8 +19238,8 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="6"/>
       <c r="AA141" s="3"/>
-      <c r="AB141" s="3"/>
-      <c r="AC141" s="8"/>
+      <c r="AB141" s="77"/>
+      <c r="AC141" s="79"/>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
@@ -19315,8 +19276,8 @@
       <c r="O142" s="3"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="3"/>
-      <c r="R142" s="3"/>
-      <c r="S142" s="8"/>
+      <c r="R142" s="66"/>
+      <c r="S142" s="71"/>
       <c r="U142" s="37"/>
       <c r="V142" s="2"/>
       <c r="W142" s="40"/>
@@ -19324,8 +19285,8 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="6"/>
       <c r="AA142" s="3"/>
-      <c r="AB142" s="3"/>
-      <c r="AC142" s="8"/>
+      <c r="AB142" s="77"/>
+      <c r="AC142" s="79"/>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
@@ -19362,8 +19323,8 @@
       <c r="O143" s="3"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="3"/>
-      <c r="R143" s="3"/>
-      <c r="S143" s="8"/>
+      <c r="R143" s="66"/>
+      <c r="S143" s="71"/>
       <c r="U143" s="37"/>
       <c r="V143" s="2"/>
       <c r="W143" s="40"/>
@@ -19371,8 +19332,8 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="6"/>
       <c r="AA143" s="3"/>
-      <c r="AB143" s="3"/>
-      <c r="AC143" s="8"/>
+      <c r="AB143" s="77"/>
+      <c r="AC143" s="79"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
@@ -19409,8 +19370,8 @@
       <c r="O144" s="3"/>
       <c r="P144" s="6"/>
       <c r="Q144" s="3"/>
-      <c r="R144" s="3"/>
-      <c r="S144" s="8"/>
+      <c r="R144" s="66"/>
+      <c r="S144" s="71"/>
       <c r="U144" s="37"/>
       <c r="V144" s="2"/>
       <c r="W144" s="40"/>
@@ -19418,8 +19379,8 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="6"/>
       <c r="AA144" s="3"/>
-      <c r="AB144" s="3"/>
-      <c r="AC144" s="8"/>
+      <c r="AB144" s="77"/>
+      <c r="AC144" s="79"/>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
@@ -19456,8 +19417,8 @@
       <c r="O145" s="3"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="3"/>
-      <c r="R145" s="3"/>
-      <c r="S145" s="8"/>
+      <c r="R145" s="66"/>
+      <c r="S145" s="71"/>
       <c r="U145" s="37"/>
       <c r="V145" s="2"/>
       <c r="W145" s="40"/>
@@ -19465,8 +19426,8 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="6"/>
       <c r="AA145" s="3"/>
-      <c r="AB145" s="3"/>
-      <c r="AC145" s="8"/>
+      <c r="AB145" s="77"/>
+      <c r="AC145" s="79"/>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
@@ -19503,8 +19464,8 @@
       <c r="O146" s="3"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="3"/>
-      <c r="R146" s="3"/>
-      <c r="S146" s="8"/>
+      <c r="R146" s="66"/>
+      <c r="S146" s="71"/>
       <c r="U146" s="37"/>
       <c r="V146" s="2"/>
       <c r="W146" s="40"/>
@@ -19512,8 +19473,8 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="6"/>
       <c r="AA146" s="3"/>
-      <c r="AB146" s="3"/>
-      <c r="AC146" s="8"/>
+      <c r="AB146" s="77"/>
+      <c r="AC146" s="79"/>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="43"/>
@@ -19550,8 +19511,8 @@
       <c r="O147" s="3"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="3"/>
-      <c r="R147" s="3"/>
-      <c r="S147" s="8"/>
+      <c r="R147" s="66"/>
+      <c r="S147" s="71"/>
       <c r="U147" s="37"/>
       <c r="V147" s="2"/>
       <c r="W147" s="40"/>
@@ -19559,8 +19520,8 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="6"/>
       <c r="AA147" s="3"/>
-      <c r="AB147" s="3"/>
-      <c r="AC147" s="8"/>
+      <c r="AB147" s="77"/>
+      <c r="AC147" s="79"/>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
@@ -19597,8 +19558,8 @@
       <c r="O148" s="3"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="3"/>
-      <c r="R148" s="3"/>
-      <c r="S148" s="8"/>
+      <c r="R148" s="66"/>
+      <c r="S148" s="71"/>
       <c r="U148" s="37"/>
       <c r="V148" s="2"/>
       <c r="W148" s="40"/>
@@ -19606,8 +19567,8 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="6"/>
       <c r="AA148" s="3"/>
-      <c r="AB148" s="3"/>
-      <c r="AC148" s="8"/>
+      <c r="AB148" s="77"/>
+      <c r="AC148" s="79"/>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
@@ -19644,8 +19605,8 @@
       <c r="O149" s="3"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-      <c r="S149" s="8"/>
+      <c r="R149" s="66"/>
+      <c r="S149" s="71"/>
       <c r="U149" s="37"/>
       <c r="V149" s="2"/>
       <c r="W149" s="40"/>
@@ -19653,8 +19614,8 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="6"/>
       <c r="AA149" s="3"/>
-      <c r="AB149" s="3"/>
-      <c r="AC149" s="8"/>
+      <c r="AB149" s="77"/>
+      <c r="AC149" s="79"/>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
@@ -19691,8 +19652,8 @@
       <c r="O150" s="3"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="3"/>
-      <c r="R150" s="3"/>
-      <c r="S150" s="8"/>
+      <c r="R150" s="66"/>
+      <c r="S150" s="71"/>
       <c r="U150" s="37"/>
       <c r="V150" s="2"/>
       <c r="W150" s="40"/>
@@ -19700,8 +19661,8 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="6"/>
       <c r="AA150" s="3"/>
-      <c r="AB150" s="3"/>
-      <c r="AC150" s="8"/>
+      <c r="AB150" s="77"/>
+      <c r="AC150" s="79"/>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="43"/>
@@ -19738,8 +19699,8 @@
       <c r="O151" s="3"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="3"/>
-      <c r="R151" s="3"/>
-      <c r="S151" s="8"/>
+      <c r="R151" s="66"/>
+      <c r="S151" s="71"/>
       <c r="U151" s="37"/>
       <c r="V151" s="2"/>
       <c r="W151" s="40"/>
@@ -19747,8 +19708,8 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="6"/>
       <c r="AA151" s="3"/>
-      <c r="AB151" s="3"/>
-      <c r="AC151" s="8"/>
+      <c r="AB151" s="77"/>
+      <c r="AC151" s="79"/>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="43"/>
@@ -19785,8 +19746,8 @@
       <c r="O152" s="3"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="3"/>
-      <c r="R152" s="3"/>
-      <c r="S152" s="8"/>
+      <c r="R152" s="66"/>
+      <c r="S152" s="71"/>
       <c r="U152" s="37"/>
       <c r="V152" s="2"/>
       <c r="W152" s="40"/>
@@ -19794,8 +19755,8 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="6"/>
       <c r="AA152" s="3"/>
-      <c r="AB152" s="3"/>
-      <c r="AC152" s="8"/>
+      <c r="AB152" s="77"/>
+      <c r="AC152" s="79"/>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="43"/>
@@ -19832,8 +19793,8 @@
       <c r="O153" s="3"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="3"/>
-      <c r="R153" s="3"/>
-      <c r="S153" s="8"/>
+      <c r="R153" s="66"/>
+      <c r="S153" s="71"/>
       <c r="U153" s="37"/>
       <c r="V153" s="2"/>
       <c r="W153" s="40"/>
@@ -19841,8 +19802,8 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="6"/>
       <c r="AA153" s="3"/>
-      <c r="AB153" s="3"/>
-      <c r="AC153" s="8"/>
+      <c r="AB153" s="77"/>
+      <c r="AC153" s="79"/>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="43"/>
@@ -19879,8 +19840,8 @@
       <c r="O154" s="3"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="3"/>
-      <c r="R154" s="3"/>
-      <c r="S154" s="8"/>
+      <c r="R154" s="66"/>
+      <c r="S154" s="71"/>
       <c r="U154" s="37"/>
       <c r="V154" s="2"/>
       <c r="W154" s="40"/>
@@ -19888,8 +19849,8 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="6"/>
       <c r="AA154" s="3"/>
-      <c r="AB154" s="3"/>
-      <c r="AC154" s="8"/>
+      <c r="AB154" s="77"/>
+      <c r="AC154" s="79"/>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="43"/>
@@ -19926,8 +19887,8 @@
       <c r="O155" s="3"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="3"/>
-      <c r="R155" s="3"/>
-      <c r="S155" s="8"/>
+      <c r="R155" s="66"/>
+      <c r="S155" s="71"/>
       <c r="U155" s="37"/>
       <c r="V155" s="2"/>
       <c r="W155" s="40"/>
@@ -19935,8 +19896,8 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="6"/>
       <c r="AA155" s="3"/>
-      <c r="AB155" s="3"/>
-      <c r="AC155" s="8"/>
+      <c r="AB155" s="77"/>
+      <c r="AC155" s="79"/>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
@@ -19973,8 +19934,8 @@
       <c r="O156" s="3"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="3"/>
-      <c r="R156" s="3"/>
-      <c r="S156" s="8"/>
+      <c r="R156" s="66"/>
+      <c r="S156" s="71"/>
       <c r="U156" s="37"/>
       <c r="V156" s="2"/>
       <c r="W156" s="40"/>
@@ -19982,8 +19943,8 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="6"/>
       <c r="AA156" s="3"/>
-      <c r="AB156" s="3"/>
-      <c r="AC156" s="8"/>
+      <c r="AB156" s="77"/>
+      <c r="AC156" s="79"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
@@ -20020,8 +19981,8 @@
       <c r="O157" s="3"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="3"/>
-      <c r="R157" s="3"/>
-      <c r="S157" s="8"/>
+      <c r="R157" s="66"/>
+      <c r="S157" s="71"/>
       <c r="U157" s="37"/>
       <c r="V157" s="2"/>
       <c r="W157" s="40"/>
@@ -20029,8 +19990,8 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="6"/>
       <c r="AA157" s="3"/>
-      <c r="AB157" s="3"/>
-      <c r="AC157" s="8"/>
+      <c r="AB157" s="77"/>
+      <c r="AC157" s="79"/>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
@@ -20067,8 +20028,8 @@
       <c r="O158" s="3"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="3"/>
-      <c r="R158" s="3"/>
-      <c r="S158" s="8"/>
+      <c r="R158" s="66"/>
+      <c r="S158" s="71"/>
       <c r="U158" s="37"/>
       <c r="V158" s="2"/>
       <c r="W158" s="40"/>
@@ -20076,8 +20037,8 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="6"/>
       <c r="AA158" s="3"/>
-      <c r="AB158" s="3"/>
-      <c r="AC158" s="8"/>
+      <c r="AB158" s="77"/>
+      <c r="AC158" s="79"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="43"/>
@@ -20114,8 +20075,8 @@
       <c r="O159" s="3"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="3"/>
-      <c r="R159" s="3"/>
-      <c r="S159" s="8"/>
+      <c r="R159" s="66"/>
+      <c r="S159" s="71"/>
       <c r="U159" s="37"/>
       <c r="V159" s="2"/>
       <c r="W159" s="40"/>
@@ -20123,8 +20084,8 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="6"/>
       <c r="AA159" s="3"/>
-      <c r="AB159" s="3"/>
-      <c r="AC159" s="8"/>
+      <c r="AB159" s="77"/>
+      <c r="AC159" s="79"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="43"/>
@@ -20161,8 +20122,8 @@
       <c r="O160" s="3"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="3"/>
-      <c r="R160" s="3"/>
-      <c r="S160" s="8"/>
+      <c r="R160" s="66"/>
+      <c r="S160" s="71"/>
       <c r="U160" s="37"/>
       <c r="V160" s="2"/>
       <c r="W160" s="40"/>
@@ -20170,8 +20131,8 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="6"/>
       <c r="AA160" s="3"/>
-      <c r="AB160" s="3"/>
-      <c r="AC160" s="8"/>
+      <c r="AB160" s="77"/>
+      <c r="AC160" s="79"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
@@ -20208,8 +20169,8 @@
       <c r="O161" s="3"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="3"/>
-      <c r="R161" s="3"/>
-      <c r="S161" s="8"/>
+      <c r="R161" s="66"/>
+      <c r="S161" s="71"/>
       <c r="U161" s="37"/>
       <c r="V161" s="2"/>
       <c r="W161" s="40"/>
@@ -20217,8 +20178,8 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="6"/>
       <c r="AA161" s="3"/>
-      <c r="AB161" s="3"/>
-      <c r="AC161" s="8"/>
+      <c r="AB161" s="77"/>
+      <c r="AC161" s="79"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="43"/>
@@ -20255,8 +20216,8 @@
       <c r="O162" s="3"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
-      <c r="S162" s="8"/>
+      <c r="R162" s="66"/>
+      <c r="S162" s="71"/>
       <c r="U162" s="37"/>
       <c r="V162" s="2"/>
       <c r="W162" s="40"/>
@@ -20264,8 +20225,8 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="6"/>
       <c r="AA162" s="3"/>
-      <c r="AB162" s="3"/>
-      <c r="AC162" s="8"/>
+      <c r="AB162" s="77"/>
+      <c r="AC162" s="79"/>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
@@ -20302,8 +20263,8 @@
       <c r="O163" s="3"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="3"/>
-      <c r="R163" s="3"/>
-      <c r="S163" s="8"/>
+      <c r="R163" s="66"/>
+      <c r="S163" s="71"/>
       <c r="U163" s="37"/>
       <c r="V163" s="2"/>
       <c r="W163" s="40"/>
@@ -20311,8 +20272,8 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="6"/>
       <c r="AA163" s="3"/>
-      <c r="AB163" s="3"/>
-      <c r="AC163" s="8"/>
+      <c r="AB163" s="77"/>
+      <c r="AC163" s="79"/>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
@@ -20349,8 +20310,8 @@
       <c r="O164" s="3"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="3"/>
-      <c r="R164" s="3"/>
-      <c r="S164" s="8"/>
+      <c r="R164" s="66"/>
+      <c r="S164" s="71"/>
       <c r="U164" s="37"/>
       <c r="V164" s="2"/>
       <c r="W164" s="40"/>
@@ -20358,8 +20319,8 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="6"/>
       <c r="AA164" s="3"/>
-      <c r="AB164" s="3"/>
-      <c r="AC164" s="8"/>
+      <c r="AB164" s="77"/>
+      <c r="AC164" s="79"/>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="43"/>
@@ -20396,8 +20357,8 @@
       <c r="O165" s="3"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="3"/>
-      <c r="R165" s="3"/>
-      <c r="S165" s="8"/>
+      <c r="R165" s="66"/>
+      <c r="S165" s="71"/>
       <c r="U165" s="37"/>
       <c r="V165" s="2"/>
       <c r="W165" s="40"/>
@@ -20405,8 +20366,8 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="6"/>
       <c r="AA165" s="3"/>
-      <c r="AB165" s="3"/>
-      <c r="AC165" s="8"/>
+      <c r="AB165" s="77"/>
+      <c r="AC165" s="79"/>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="43"/>
@@ -20443,8 +20404,8 @@
       <c r="O166" s="3"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="3"/>
-      <c r="R166" s="3"/>
-      <c r="S166" s="8"/>
+      <c r="R166" s="66"/>
+      <c r="S166" s="71"/>
       <c r="U166" s="37"/>
       <c r="V166" s="2"/>
       <c r="W166" s="40"/>
@@ -20452,8 +20413,8 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="6"/>
       <c r="AA166" s="3"/>
-      <c r="AB166" s="3"/>
-      <c r="AC166" s="8"/>
+      <c r="AB166" s="77"/>
+      <c r="AC166" s="79"/>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="43"/>
@@ -20490,8 +20451,8 @@
       <c r="O167" s="3"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="3"/>
-      <c r="R167" s="3"/>
-      <c r="S167" s="8"/>
+      <c r="R167" s="66"/>
+      <c r="S167" s="71"/>
       <c r="U167" s="37"/>
       <c r="V167" s="2"/>
       <c r="W167" s="40"/>
@@ -20499,8 +20460,8 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="6"/>
       <c r="AA167" s="3"/>
-      <c r="AB167" s="3"/>
-      <c r="AC167" s="8"/>
+      <c r="AB167" s="77"/>
+      <c r="AC167" s="79"/>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" s="43"/>
@@ -20537,8 +20498,8 @@
       <c r="O168" s="3"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="3"/>
-      <c r="R168" s="3"/>
-      <c r="S168" s="8"/>
+      <c r="R168" s="66"/>
+      <c r="S168" s="71"/>
       <c r="U168" s="37"/>
       <c r="V168" s="2"/>
       <c r="W168" s="40"/>
@@ -20546,8 +20507,8 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="6"/>
       <c r="AA168" s="3"/>
-      <c r="AB168" s="3"/>
-      <c r="AC168" s="8"/>
+      <c r="AB168" s="77"/>
+      <c r="AC168" s="79"/>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="43"/>
@@ -20584,8 +20545,8 @@
       <c r="O169" s="3"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="3"/>
-      <c r="R169" s="3"/>
-      <c r="S169" s="8"/>
+      <c r="R169" s="66"/>
+      <c r="S169" s="71"/>
       <c r="U169" s="37"/>
       <c r="V169" s="2"/>
       <c r="W169" s="40"/>
@@ -20593,8 +20554,8 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="6"/>
       <c r="AA169" s="3"/>
-      <c r="AB169" s="3"/>
-      <c r="AC169" s="8"/>
+      <c r="AB169" s="77"/>
+      <c r="AC169" s="79"/>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="43"/>
@@ -20631,8 +20592,8 @@
       <c r="O170" s="3"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
-      <c r="S170" s="8"/>
+      <c r="R170" s="66"/>
+      <c r="S170" s="71"/>
       <c r="U170" s="37"/>
       <c r="V170" s="2"/>
       <c r="W170" s="40"/>
@@ -20640,8 +20601,8 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="6"/>
       <c r="AA170" s="3"/>
-      <c r="AB170" s="3"/>
-      <c r="AC170" s="8"/>
+      <c r="AB170" s="77"/>
+      <c r="AC170" s="79"/>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="43"/>
@@ -20678,8 +20639,8 @@
       <c r="O171" s="3"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="3"/>
-      <c r="R171" s="3"/>
-      <c r="S171" s="8"/>
+      <c r="R171" s="66"/>
+      <c r="S171" s="71"/>
       <c r="U171" s="37"/>
       <c r="V171" s="2"/>
       <c r="W171" s="40"/>
@@ -20687,8 +20648,8 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="6"/>
       <c r="AA171" s="3"/>
-      <c r="AB171" s="3"/>
-      <c r="AC171" s="8"/>
+      <c r="AB171" s="77"/>
+      <c r="AC171" s="79"/>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="43"/>
@@ -20725,8 +20686,8 @@
       <c r="O172" s="3"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="3"/>
-      <c r="R172" s="3"/>
-      <c r="S172" s="8"/>
+      <c r="R172" s="66"/>
+      <c r="S172" s="71"/>
       <c r="U172" s="37"/>
       <c r="V172" s="2"/>
       <c r="W172" s="40"/>
@@ -20734,8 +20695,8 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="6"/>
       <c r="AA172" s="3"/>
-      <c r="AB172" s="3"/>
-      <c r="AC172" s="8"/>
+      <c r="AB172" s="77"/>
+      <c r="AC172" s="79"/>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="43"/>
@@ -20772,8 +20733,8 @@
       <c r="O173" s="3"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="3"/>
-      <c r="R173" s="3"/>
-      <c r="S173" s="8"/>
+      <c r="R173" s="66"/>
+      <c r="S173" s="71"/>
       <c r="U173" s="37"/>
       <c r="V173" s="2"/>
       <c r="W173" s="40"/>
@@ -20781,8 +20742,8 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="3"/>
-      <c r="AB173" s="3"/>
-      <c r="AC173" s="8"/>
+      <c r="AB173" s="77"/>
+      <c r="AC173" s="79"/>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="43"/>
@@ -20819,8 +20780,8 @@
       <c r="O174" s="3"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="3"/>
-      <c r="R174" s="3"/>
-      <c r="S174" s="8"/>
+      <c r="R174" s="66"/>
+      <c r="S174" s="71"/>
       <c r="U174" s="37"/>
       <c r="V174" s="2"/>
       <c r="W174" s="40"/>
@@ -20828,8 +20789,8 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="6"/>
       <c r="AA174" s="3"/>
-      <c r="AB174" s="3"/>
-      <c r="AC174" s="8"/>
+      <c r="AB174" s="77"/>
+      <c r="AC174" s="79"/>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="43"/>
@@ -20866,8 +20827,8 @@
       <c r="O175" s="3"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="3"/>
-      <c r="R175" s="3"/>
-      <c r="S175" s="8"/>
+      <c r="R175" s="66"/>
+      <c r="S175" s="71"/>
       <c r="U175" s="37"/>
       <c r="V175" s="2"/>
       <c r="W175" s="40"/>
@@ -20875,8 +20836,8 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="6"/>
       <c r="AA175" s="3"/>
-      <c r="AB175" s="3"/>
-      <c r="AC175" s="8"/>
+      <c r="AB175" s="77"/>
+      <c r="AC175" s="79"/>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="43"/>
@@ -20913,8 +20874,8 @@
       <c r="O176" s="3"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="3"/>
-      <c r="R176" s="3"/>
-      <c r="S176" s="8"/>
+      <c r="R176" s="66"/>
+      <c r="S176" s="71"/>
       <c r="U176" s="37"/>
       <c r="V176" s="2"/>
       <c r="W176" s="40"/>
@@ -20922,8 +20883,8 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="6"/>
       <c r="AA176" s="3"/>
-      <c r="AB176" s="3"/>
-      <c r="AC176" s="8"/>
+      <c r="AB176" s="77"/>
+      <c r="AC176" s="79"/>
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="43"/>
@@ -20960,8 +20921,8 @@
       <c r="O177" s="3"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="3"/>
-      <c r="R177" s="3"/>
-      <c r="S177" s="8"/>
+      <c r="R177" s="66"/>
+      <c r="S177" s="71"/>
       <c r="U177" s="37"/>
       <c r="V177" s="2"/>
       <c r="W177" s="40"/>
@@ -20969,8 +20930,8 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="6"/>
       <c r="AA177" s="3"/>
-      <c r="AB177" s="3"/>
-      <c r="AC177" s="8"/>
+      <c r="AB177" s="77"/>
+      <c r="AC177" s="79"/>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="43"/>
@@ -21007,8 +20968,8 @@
       <c r="O178" s="3"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="3"/>
-      <c r="R178" s="3"/>
-      <c r="S178" s="8"/>
+      <c r="R178" s="66"/>
+      <c r="S178" s="71"/>
       <c r="U178" s="37"/>
       <c r="V178" s="2"/>
       <c r="W178" s="40"/>
@@ -21016,8 +20977,8 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="6"/>
       <c r="AA178" s="3"/>
-      <c r="AB178" s="3"/>
-      <c r="AC178" s="8"/>
+      <c r="AB178" s="77"/>
+      <c r="AC178" s="79"/>
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="43"/>
@@ -21054,8 +21015,8 @@
       <c r="O179" s="3"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="3"/>
-      <c r="R179" s="3"/>
-      <c r="S179" s="8"/>
+      <c r="R179" s="66"/>
+      <c r="S179" s="71"/>
       <c r="U179" s="37"/>
       <c r="V179" s="2"/>
       <c r="W179" s="40"/>
@@ -21063,8 +21024,8 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="6"/>
       <c r="AA179" s="3"/>
-      <c r="AB179" s="3"/>
-      <c r="AC179" s="8"/>
+      <c r="AB179" s="77"/>
+      <c r="AC179" s="79"/>
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="43"/>
@@ -21101,8 +21062,8 @@
       <c r="O180" s="3"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="3"/>
-      <c r="R180" s="3"/>
-      <c r="S180" s="8"/>
+      <c r="R180" s="66"/>
+      <c r="S180" s="71"/>
       <c r="U180" s="37"/>
       <c r="V180" s="2"/>
       <c r="W180" s="40"/>
@@ -21110,8 +21071,8 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="6"/>
       <c r="AA180" s="3"/>
-      <c r="AB180" s="3"/>
-      <c r="AC180" s="8"/>
+      <c r="AB180" s="77"/>
+      <c r="AC180" s="79"/>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="43"/>
@@ -21148,8 +21109,8 @@
       <c r="O181" s="3"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="3"/>
-      <c r="R181" s="3"/>
-      <c r="S181" s="8"/>
+      <c r="R181" s="66"/>
+      <c r="S181" s="71"/>
       <c r="U181" s="37"/>
       <c r="V181" s="2"/>
       <c r="W181" s="40"/>
@@ -21157,8 +21118,8 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="6"/>
       <c r="AA181" s="3"/>
-      <c r="AB181" s="3"/>
-      <c r="AC181" s="8"/>
+      <c r="AB181" s="77"/>
+      <c r="AC181" s="79"/>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="43"/>
@@ -21195,8 +21156,8 @@
       <c r="O182" s="3"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="3"/>
-      <c r="R182" s="3"/>
-      <c r="S182" s="8"/>
+      <c r="R182" s="66"/>
+      <c r="S182" s="71"/>
       <c r="U182" s="37"/>
       <c r="V182" s="2"/>
       <c r="W182" s="40"/>
@@ -21204,8 +21165,8 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="6"/>
       <c r="AA182" s="3"/>
-      <c r="AB182" s="3"/>
-      <c r="AC182" s="8"/>
+      <c r="AB182" s="77"/>
+      <c r="AC182" s="79"/>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="43"/>
@@ -21242,8 +21203,8 @@
       <c r="O183" s="3"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="3"/>
-      <c r="R183" s="3"/>
-      <c r="S183" s="8"/>
+      <c r="R183" s="66"/>
+      <c r="S183" s="71"/>
       <c r="U183" s="37"/>
       <c r="V183" s="2"/>
       <c r="W183" s="40"/>
@@ -21251,8 +21212,8 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="6"/>
       <c r="AA183" s="3"/>
-      <c r="AB183" s="3"/>
-      <c r="AC183" s="8"/>
+      <c r="AB183" s="77"/>
+      <c r="AC183" s="79"/>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="43"/>
@@ -21289,8 +21250,8 @@
       <c r="O184" s="3"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="3"/>
-      <c r="R184" s="3"/>
-      <c r="S184" s="8"/>
+      <c r="R184" s="66"/>
+      <c r="S184" s="71"/>
       <c r="U184" s="37"/>
       <c r="V184" s="2"/>
       <c r="W184" s="40"/>
@@ -21298,8 +21259,8 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="6"/>
       <c r="AA184" s="3"/>
-      <c r="AB184" s="3"/>
-      <c r="AC184" s="8"/>
+      <c r="AB184" s="77"/>
+      <c r="AC184" s="79"/>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="43"/>
@@ -21336,8 +21297,8 @@
       <c r="O185" s="3"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="3"/>
-      <c r="R185" s="3"/>
-      <c r="S185" s="8"/>
+      <c r="R185" s="66"/>
+      <c r="S185" s="71"/>
       <c r="U185" s="37"/>
       <c r="V185" s="2"/>
       <c r="W185" s="40"/>
@@ -21345,8 +21306,8 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="6"/>
       <c r="AA185" s="3"/>
-      <c r="AB185" s="3"/>
-      <c r="AC185" s="8"/>
+      <c r="AB185" s="77"/>
+      <c r="AC185" s="79"/>
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="43"/>
@@ -21383,8 +21344,8 @@
       <c r="O186" s="3"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="3"/>
-      <c r="R186" s="3"/>
-      <c r="S186" s="8"/>
+      <c r="R186" s="66"/>
+      <c r="S186" s="71"/>
       <c r="U186" s="37"/>
       <c r="V186" s="2"/>
       <c r="W186" s="40"/>
@@ -21392,8 +21353,8 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="6"/>
       <c r="AA186" s="3"/>
-      <c r="AB186" s="3"/>
-      <c r="AC186" s="8"/>
+      <c r="AB186" s="77"/>
+      <c r="AC186" s="79"/>
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="43"/>
@@ -21430,8 +21391,8 @@
       <c r="O187" s="3"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="3"/>
-      <c r="R187" s="3"/>
-      <c r="S187" s="8"/>
+      <c r="R187" s="66"/>
+      <c r="S187" s="71"/>
       <c r="U187" s="37"/>
       <c r="V187" s="2"/>
       <c r="W187" s="40"/>
@@ -21439,8 +21400,8 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="6"/>
       <c r="AA187" s="3"/>
-      <c r="AB187" s="3"/>
-      <c r="AC187" s="8"/>
+      <c r="AB187" s="77"/>
+      <c r="AC187" s="79"/>
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="43"/>
@@ -21477,8 +21438,8 @@
       <c r="O188" s="3"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="3"/>
-      <c r="R188" s="3"/>
-      <c r="S188" s="8"/>
+      <c r="R188" s="66"/>
+      <c r="S188" s="71"/>
       <c r="U188" s="37"/>
       <c r="V188" s="2"/>
       <c r="W188" s="40"/>
@@ -21486,8 +21447,8 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="6"/>
       <c r="AA188" s="3"/>
-      <c r="AB188" s="3"/>
-      <c r="AC188" s="8"/>
+      <c r="AB188" s="77"/>
+      <c r="AC188" s="79"/>
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="43"/>
@@ -21524,8 +21485,8 @@
       <c r="O189" s="3"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="3"/>
-      <c r="R189" s="3"/>
-      <c r="S189" s="8"/>
+      <c r="R189" s="66"/>
+      <c r="S189" s="71"/>
       <c r="U189" s="37"/>
       <c r="V189" s="2"/>
       <c r="W189" s="40"/>
@@ -21533,8 +21494,8 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="6"/>
       <c r="AA189" s="3"/>
-      <c r="AB189" s="3"/>
-      <c r="AC189" s="8"/>
+      <c r="AB189" s="77"/>
+      <c r="AC189" s="79"/>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190" s="43"/>
@@ -21571,8 +21532,8 @@
       <c r="O190" s="3"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="3"/>
-      <c r="R190" s="3"/>
-      <c r="S190" s="8"/>
+      <c r="R190" s="66"/>
+      <c r="S190" s="71"/>
       <c r="U190" s="37"/>
       <c r="V190" s="2"/>
       <c r="W190" s="40"/>
@@ -21580,8 +21541,8 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="6"/>
       <c r="AA190" s="3"/>
-      <c r="AB190" s="3"/>
-      <c r="AC190" s="8"/>
+      <c r="AB190" s="77"/>
+      <c r="AC190" s="79"/>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191" s="43"/>
@@ -21618,8 +21579,8 @@
       <c r="O191" s="3"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="3"/>
-      <c r="R191" s="3"/>
-      <c r="S191" s="8"/>
+      <c r="R191" s="66"/>
+      <c r="S191" s="71"/>
       <c r="U191" s="37"/>
       <c r="V191" s="2"/>
       <c r="W191" s="40"/>
@@ -21627,8 +21588,8 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="6"/>
       <c r="AA191" s="3"/>
-      <c r="AB191" s="3"/>
-      <c r="AC191" s="8"/>
+      <c r="AB191" s="77"/>
+      <c r="AC191" s="79"/>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="43"/>
@@ -21665,8 +21626,8 @@
       <c r="O192" s="3"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="3"/>
-      <c r="R192" s="3"/>
-      <c r="S192" s="8"/>
+      <c r="R192" s="66"/>
+      <c r="S192" s="71"/>
       <c r="U192" s="37"/>
       <c r="V192" s="2"/>
       <c r="W192" s="40"/>
@@ -21674,8 +21635,8 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="6"/>
       <c r="AA192" s="3"/>
-      <c r="AB192" s="3"/>
-      <c r="AC192" s="8"/>
+      <c r="AB192" s="77"/>
+      <c r="AC192" s="79"/>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193" s="43"/>
@@ -21712,8 +21673,8 @@
       <c r="O193" s="3"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="3"/>
-      <c r="R193" s="3"/>
-      <c r="S193" s="8"/>
+      <c r="R193" s="66"/>
+      <c r="S193" s="71"/>
       <c r="U193" s="37"/>
       <c r="V193" s="2"/>
       <c r="W193" s="40"/>
@@ -21721,8 +21682,8 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="6"/>
       <c r="AA193" s="3"/>
-      <c r="AB193" s="3"/>
-      <c r="AC193" s="8"/>
+      <c r="AB193" s="77"/>
+      <c r="AC193" s="79"/>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194" s="43"/>
@@ -21759,8 +21720,8 @@
       <c r="O194" s="3"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="3"/>
-      <c r="R194" s="3"/>
-      <c r="S194" s="8"/>
+      <c r="R194" s="66"/>
+      <c r="S194" s="71"/>
       <c r="U194" s="37"/>
       <c r="V194" s="2"/>
       <c r="W194" s="40"/>
@@ -21768,8 +21729,8 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="6"/>
       <c r="AA194" s="3"/>
-      <c r="AB194" s="3"/>
-      <c r="AC194" s="8"/>
+      <c r="AB194" s="77"/>
+      <c r="AC194" s="79"/>
     </row>
     <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195" s="43"/>
@@ -21806,8 +21767,8 @@
       <c r="O195" s="3"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="3"/>
-      <c r="R195" s="3"/>
-      <c r="S195" s="8"/>
+      <c r="R195" s="66"/>
+      <c r="S195" s="71"/>
       <c r="U195" s="37"/>
       <c r="V195" s="2"/>
       <c r="W195" s="40"/>
@@ -21815,8 +21776,8 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="6"/>
       <c r="AA195" s="3"/>
-      <c r="AB195" s="3"/>
-      <c r="AC195" s="8"/>
+      <c r="AB195" s="77"/>
+      <c r="AC195" s="79"/>
     </row>
     <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196" s="43"/>
@@ -21853,8 +21814,8 @@
       <c r="O196" s="3"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="3"/>
-      <c r="R196" s="3"/>
-      <c r="S196" s="8"/>
+      <c r="R196" s="66"/>
+      <c r="S196" s="71"/>
       <c r="U196" s="37"/>
       <c r="V196" s="2"/>
       <c r="W196" s="40"/>
@@ -21862,8 +21823,8 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="6"/>
       <c r="AA196" s="3"/>
-      <c r="AB196" s="3"/>
-      <c r="AC196" s="8"/>
+      <c r="AB196" s="77"/>
+      <c r="AC196" s="79"/>
     </row>
     <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197" s="43"/>
@@ -21900,8 +21861,8 @@
       <c r="O197" s="3"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="3"/>
-      <c r="R197" s="3"/>
-      <c r="S197" s="8"/>
+      <c r="R197" s="66"/>
+      <c r="S197" s="71"/>
       <c r="U197" s="37"/>
       <c r="V197" s="2"/>
       <c r="W197" s="40"/>
@@ -21909,8 +21870,8 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="6"/>
       <c r="AA197" s="3"/>
-      <c r="AB197" s="3"/>
-      <c r="AC197" s="8"/>
+      <c r="AB197" s="77"/>
+      <c r="AC197" s="79"/>
     </row>
     <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198" s="43"/>
@@ -21947,8 +21908,8 @@
       <c r="O198" s="3"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="3"/>
-      <c r="R198" s="3"/>
-      <c r="S198" s="8"/>
+      <c r="R198" s="66"/>
+      <c r="S198" s="71"/>
       <c r="U198" s="37"/>
       <c r="V198" s="2"/>
       <c r="W198" s="40"/>
@@ -21956,8 +21917,8 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="6"/>
       <c r="AA198" s="3"/>
-      <c r="AB198" s="3"/>
-      <c r="AC198" s="8"/>
+      <c r="AB198" s="77"/>
+      <c r="AC198" s="79"/>
     </row>
     <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199" s="43"/>
@@ -21994,8 +21955,8 @@
       <c r="O199" s="3"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="3"/>
-      <c r="R199" s="3"/>
-      <c r="S199" s="8"/>
+      <c r="R199" s="66"/>
+      <c r="S199" s="71"/>
       <c r="U199" s="37"/>
       <c r="V199" s="2"/>
       <c r="W199" s="40"/>
@@ -22003,8 +21964,8 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="6"/>
       <c r="AA199" s="3"/>
-      <c r="AB199" s="3"/>
-      <c r="AC199" s="8"/>
+      <c r="AB199" s="77"/>
+      <c r="AC199" s="79"/>
     </row>
     <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200" s="43"/>
@@ -22041,8 +22002,8 @@
       <c r="O200" s="3"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="3"/>
-      <c r="R200" s="3"/>
-      <c r="S200" s="8"/>
+      <c r="R200" s="66"/>
+      <c r="S200" s="71"/>
       <c r="U200" s="37"/>
       <c r="V200" s="2"/>
       <c r="W200" s="40"/>
@@ -22050,8 +22011,8 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="6"/>
       <c r="AA200" s="3"/>
-      <c r="AB200" s="3"/>
-      <c r="AC200" s="8"/>
+      <c r="AB200" s="77"/>
+      <c r="AC200" s="79"/>
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201" s="43"/>
@@ -22088,8 +22049,8 @@
       <c r="O201" s="3"/>
       <c r="P201" s="6"/>
       <c r="Q201" s="3"/>
-      <c r="R201" s="3"/>
-      <c r="S201" s="8"/>
+      <c r="R201" s="66"/>
+      <c r="S201" s="71"/>
       <c r="U201" s="37"/>
       <c r="V201" s="2"/>
       <c r="W201" s="40"/>
@@ -22097,8 +22058,8 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="6"/>
       <c r="AA201" s="3"/>
-      <c r="AB201" s="3"/>
-      <c r="AC201" s="8"/>
+      <c r="AB201" s="77"/>
+      <c r="AC201" s="79"/>
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202" s="43"/>
@@ -22135,8 +22096,8 @@
       <c r="O202" s="3"/>
       <c r="P202" s="6"/>
       <c r="Q202" s="3"/>
-      <c r="R202" s="3"/>
-      <c r="S202" s="8"/>
+      <c r="R202" s="66"/>
+      <c r="S202" s="71"/>
       <c r="U202" s="37"/>
       <c r="V202" s="2"/>
       <c r="W202" s="40"/>
@@ -22144,8 +22105,8 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="6"/>
       <c r="AA202" s="3"/>
-      <c r="AB202" s="3"/>
-      <c r="AC202" s="8"/>
+      <c r="AB202" s="77"/>
+      <c r="AC202" s="79"/>
     </row>
     <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203" s="43"/>
@@ -22182,8 +22143,8 @@
       <c r="O203" s="3"/>
       <c r="P203" s="6"/>
       <c r="Q203" s="3"/>
-      <c r="R203" s="3"/>
-      <c r="S203" s="8"/>
+      <c r="R203" s="66"/>
+      <c r="S203" s="71"/>
       <c r="U203" s="37"/>
       <c r="V203" s="2"/>
       <c r="W203" s="40"/>
@@ -22191,8 +22152,8 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="6"/>
       <c r="AA203" s="3"/>
-      <c r="AB203" s="3"/>
-      <c r="AC203" s="8"/>
+      <c r="AB203" s="77"/>
+      <c r="AC203" s="79"/>
     </row>
     <row r="204" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A204" s="43"/>
@@ -22229,8 +22190,8 @@
       <c r="O204" s="3"/>
       <c r="P204" s="6"/>
       <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="8"/>
+      <c r="R204" s="66"/>
+      <c r="S204" s="71"/>
       <c r="U204" s="37"/>
       <c r="V204" s="2"/>
       <c r="W204" s="40"/>
@@ -22238,8 +22199,8 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="6"/>
       <c r="AA204" s="3"/>
-      <c r="AB204" s="3"/>
-      <c r="AC204" s="8"/>
+      <c r="AB204" s="77"/>
+      <c r="AC204" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22254,12 +22215,12 @@
     <mergeCell ref="U3:W3"/>
   </mergeCells>
   <conditionalFormatting sqref="C205:H323 D5:I204">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:I204">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="lessThanOrEqual">
       <formula>-5</formula>
     </cfRule>
   </conditionalFormatting>
